--- a/ACTWeeklyRoundUp/Partner Training Schedule 2018 - Solutions Training for Partners.xlsx
+++ b/ACTWeeklyRoundUp/Partner Training Schedule 2018 - Solutions Training for Partners.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Official\SogetiACTEmailTemplates\ACTWeeklyRoundUp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\official\ACTWeekly\Sogeti\ACTWeeklyRoundUp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{67B63394-9870-44E6-AB72-E35236985F6F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548"/>
   </bookViews>
   <sheets>
     <sheet name="North America" sheetId="11" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">EMEA!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Latin America'!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'North America'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'North America'!$A$1:$M$150</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -2495,7 +2494,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
@@ -2714,7 +2713,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2991,32 +2990,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="99.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="99.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="99.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="99.109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34">
         <v>43229</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34">
         <v>43230</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
         <v>43230</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <v>43231</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
         <v>43235</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34">
         <v>43235</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34">
         <v>43236</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34">
         <v>43236</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34">
         <v>43237</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34">
         <v>43237</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34">
         <v>43238</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
         <v>43242</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34">
         <v>43242</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34">
         <v>43243</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34">
         <v>43243</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34">
         <v>43244</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34">
         <v>43244</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <v>43250</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34">
         <v>43250</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
         <v>43251</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="34">
         <v>43252</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="34">
         <v>43255</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>43255</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="34">
         <v>43256</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="34">
         <v>43257</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="34">
         <v>43257</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="34">
         <v>43257</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="34">
         <v>43257</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="34">
         <v>43258</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="34">
         <v>43258</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>43258</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>43262</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="34">
         <v>43263</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="34">
         <v>43263</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="34">
         <v>43263</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="34">
         <v>43264</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="34">
         <v>43264</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="34">
         <v>43265</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A40" s="34">
         <v>43265</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A41" s="34">
         <v>43265</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>43265</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>43269</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="34">
         <v>43270</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="34">
         <v>43270</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="34">
         <v>43271</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="34">
         <v>43271</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="34">
         <v>43272</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A49" s="34">
         <v>43272</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A50" s="34">
         <v>43272</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>43272</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="34">
         <v>43273</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="20">
         <v>43276</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="34">
         <v>43277</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="34">
         <v>43277</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="34">
         <v>43277</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="34">
         <v>43278</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="34">
         <v>43278</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A59" s="34">
         <v>43279</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A60" s="34">
         <v>43279</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>43279</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="34">
         <v>43280</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
         <v>43283</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20">
         <v>43286</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="34">
         <v>43298</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="34">
         <v>43298</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="34">
         <v>43298</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="34">
         <v>43298</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="34">
         <v>43299</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="34">
         <v>43299</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="34">
         <v>43299</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="34">
         <v>43299</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="34">
         <v>43299</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="34">
         <v>43299</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="34">
         <v>43300</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="34">
         <v>43300</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="34">
         <v>43300</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="34">
         <v>43301</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="34">
         <v>43305</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="34">
         <v>43305</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="34">
         <v>43305</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="34">
         <v>43306</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="34">
         <v>43306</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="34">
         <v>43306</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="34">
         <v>43306</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="34">
         <v>43306</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="34">
         <v>43306</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="34">
         <v>43307</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="34">
         <v>43307</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="34">
         <v>43307</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="34">
         <v>43308</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="34">
         <v>43312</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="34">
         <v>43312</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="34">
         <v>43313</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="34">
         <v>43313</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="34">
         <v>43313</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="34">
         <v>43313</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="34">
         <v>43314</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="34">
         <v>43314</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="34">
         <v>43315</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="34">
         <v>43318</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="34">
         <v>43319</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="34">
         <v>43319</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="34">
         <v>43320</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="34">
         <v>43320</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="34">
         <v>43320</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="34">
         <v>43320</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="34">
         <v>43321</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="34">
         <v>43321</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="34">
         <v>43322</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="34">
         <v>43326</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="34">
         <v>43326</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="34">
         <v>43326</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="34">
         <v>43327</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="34">
         <v>43327</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="34">
         <v>43327</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="34">
         <v>43327</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="34">
         <v>43327</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="34">
         <v>43328</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="34">
         <v>43328</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="34">
         <v>43329</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="34">
         <v>43333</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="34">
         <v>43333</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="34">
         <v>43334</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="34">
         <v>43334</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="34">
         <v>43334</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="34">
         <v>43334</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="34">
         <v>43335</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="34">
         <v>43335</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="34">
         <v>43336</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="34">
         <v>43340</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="34">
         <v>43340</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="34">
         <v>43341</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="34">
         <v>43341</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="34">
         <v>43341</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="34">
         <v>43341</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="34">
         <v>43342</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="34">
         <v>43342</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="34">
         <v>43343</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="34">
         <v>43354</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="34">
         <v>43354</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="34">
         <v>43370</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="34">
         <v>43374</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="34">
         <v>43382</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="34">
         <v>43384</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="34">
         <v>43389</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="34">
         <v>43389</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="34">
         <v>43391</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="34">
         <v>43396</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="34">
         <v>43410</v>
       </c>
@@ -9167,315 +9167,321 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M150">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2018" month="6" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:M150">
     <sortCondition ref="A2:A150"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="L24" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M24" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L32" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M32" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="L33" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="L42" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M42" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="L43" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="M43" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="L51" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="M51" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L53" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="M53" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="L61" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M61" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="L63" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="M63" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="L64" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="M64" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="L2" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L4" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="L5" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="L3" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="L6" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="L7" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="L8" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="L9" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="L10" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="L11" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L12" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L13" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="L14" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="L15" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="L16" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="L17" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="L18" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="L19" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="L20" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="L21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="L22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="L23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="L25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="L26" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="L27" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="L28" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L29" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="L30" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="L31" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="L34" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="L35" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="L36" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="L37" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="L38" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="L39" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="L40" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="L41" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="L44" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="L45" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="L46" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="L47" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="L48" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="L49" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="L50" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="L52" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="L54" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="L55" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="L56" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="L57" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="L58" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="L59" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="L60" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="L65" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="L62" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="L66" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="L67" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="L68" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="L69" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="L70" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="L71" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="L72" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="L73" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="L74" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="L75" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="L76" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="L77" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="L78" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="L79" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="L80" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="L81" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="L82" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="L83" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="L84" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="L85" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="L86" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="L87" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="L88" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="L89" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="L90" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="L91" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="L92" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="L93" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="L94" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="L95" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="L96" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="L97" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="L98" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="L99" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="L100" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="L101" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="L102" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="L103" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="L104" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="L105" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="L106" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="L107" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="L108" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="L109" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="L110" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="L111" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="L112" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="L113" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="L114" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="L115" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="L116" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="L117" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="L118" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="L119" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="L120" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="L121" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="L122" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="L123" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="L124" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="L125" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="L126" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="L127" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="L128" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="L129" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="L130" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="L131" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="L132" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="L133" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="L134" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="L135" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="L136" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="L137" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="L138" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="L139" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="L140" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="L141" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="L142" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="L143" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="L145" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="L144" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="L146" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="L148" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="L149" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="L150" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="L147" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="M3" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="M4" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="M5" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="M6" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="M7" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="M8" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="M9" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="M10" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="M11" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="M12" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="M13" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="M14" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="M15" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="M16" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="M17" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="M18" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="M19" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="M20" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="M21" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="M22" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="M23" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="M25" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="M26" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="M27" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="M28" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="M29" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="M30" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="M31" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="M34" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="M36" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="M35" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="M37" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="M38" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="M39" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="M40" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="M41" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="M44" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="M45" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="M46" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="M47" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="M48" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="M49" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="M50" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="M54" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="M55" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="M52" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="M56" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="M57" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="M58" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="M59" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="M60" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="M62" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="M65" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="M66" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="M67" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="M68" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="M70" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="M71" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="M69" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="M72" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="M73" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="M74" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="M75" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="M76" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="M77" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="M78" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="M79" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="M80" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="M81" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="M82" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="M84" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="M85" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="M83" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="M86" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="M87" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="M88" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="M89" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="M90" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="M91" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="M93" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="M94" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="M92" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="M95" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="M96" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="M97" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="M98" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="M99" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="M100" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="M101" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="M102" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="M103" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="M104" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="M105" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="M106" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="M107" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="M108" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="M109" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="M110" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="M111" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="M112" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="M113" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="M114" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="M115" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="M116" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="M117" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="M118" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="M119" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="M120" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="M121" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="M122" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="M123" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="M124" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="M125" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="M126" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="M127" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="M128" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="M129" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="M130" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="M131" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="M132" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="M133" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="M134" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="M135" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="M136" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="M137" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="M138" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="M139" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="M140" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="M141" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="M142" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="M143" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="M145" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="M144" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="M146" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="M147" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="M148" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="M149" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="M150" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="L24" r:id="rId1"/>
+    <hyperlink ref="M24" r:id="rId2"/>
+    <hyperlink ref="L32" r:id="rId3"/>
+    <hyperlink ref="M32" r:id="rId4"/>
+    <hyperlink ref="L33" r:id="rId5"/>
+    <hyperlink ref="M33" r:id="rId6"/>
+    <hyperlink ref="L42" r:id="rId7"/>
+    <hyperlink ref="M42" r:id="rId8"/>
+    <hyperlink ref="L43" r:id="rId9"/>
+    <hyperlink ref="M43" r:id="rId10"/>
+    <hyperlink ref="L51" r:id="rId11"/>
+    <hyperlink ref="M51" r:id="rId12"/>
+    <hyperlink ref="L53" r:id="rId13"/>
+    <hyperlink ref="M53" r:id="rId14"/>
+    <hyperlink ref="L61" r:id="rId15"/>
+    <hyperlink ref="M61" r:id="rId16"/>
+    <hyperlink ref="L63" r:id="rId17"/>
+    <hyperlink ref="M63" r:id="rId18"/>
+    <hyperlink ref="L64" r:id="rId19"/>
+    <hyperlink ref="M64" r:id="rId20"/>
+    <hyperlink ref="L2" r:id="rId21"/>
+    <hyperlink ref="L4" r:id="rId22"/>
+    <hyperlink ref="L5" r:id="rId23"/>
+    <hyperlink ref="L3" r:id="rId24"/>
+    <hyperlink ref="L6" r:id="rId25"/>
+    <hyperlink ref="L7" r:id="rId26"/>
+    <hyperlink ref="L8" r:id="rId27"/>
+    <hyperlink ref="L9" r:id="rId28"/>
+    <hyperlink ref="L10" r:id="rId29"/>
+    <hyperlink ref="L11" r:id="rId30"/>
+    <hyperlink ref="L12" r:id="rId31"/>
+    <hyperlink ref="L13" r:id="rId32"/>
+    <hyperlink ref="L14" r:id="rId33"/>
+    <hyperlink ref="L15" r:id="rId34"/>
+    <hyperlink ref="L16" r:id="rId35"/>
+    <hyperlink ref="L17" r:id="rId36"/>
+    <hyperlink ref="L18" r:id="rId37"/>
+    <hyperlink ref="L19" r:id="rId38"/>
+    <hyperlink ref="L20" r:id="rId39"/>
+    <hyperlink ref="L21" r:id="rId40"/>
+    <hyperlink ref="L22" r:id="rId41"/>
+    <hyperlink ref="L23" r:id="rId42"/>
+    <hyperlink ref="L25" r:id="rId43"/>
+    <hyperlink ref="L26" r:id="rId44"/>
+    <hyperlink ref="L27" r:id="rId45"/>
+    <hyperlink ref="L28" r:id="rId46"/>
+    <hyperlink ref="L29" r:id="rId47"/>
+    <hyperlink ref="L30" r:id="rId48"/>
+    <hyperlink ref="L31" r:id="rId49"/>
+    <hyperlink ref="L34" r:id="rId50"/>
+    <hyperlink ref="L35" r:id="rId51"/>
+    <hyperlink ref="L36" r:id="rId52"/>
+    <hyperlink ref="L37" r:id="rId53"/>
+    <hyperlink ref="L38" r:id="rId54"/>
+    <hyperlink ref="L39" r:id="rId55"/>
+    <hyperlink ref="L40" r:id="rId56"/>
+    <hyperlink ref="L41" r:id="rId57"/>
+    <hyperlink ref="L44" r:id="rId58"/>
+    <hyperlink ref="L45" r:id="rId59"/>
+    <hyperlink ref="L46" r:id="rId60"/>
+    <hyperlink ref="L47" r:id="rId61"/>
+    <hyperlink ref="L48" r:id="rId62"/>
+    <hyperlink ref="L49" r:id="rId63"/>
+    <hyperlink ref="L50" r:id="rId64"/>
+    <hyperlink ref="L52" r:id="rId65"/>
+    <hyperlink ref="L54" r:id="rId66"/>
+    <hyperlink ref="L55" r:id="rId67"/>
+    <hyperlink ref="L56" r:id="rId68"/>
+    <hyperlink ref="L57" r:id="rId69"/>
+    <hyperlink ref="L58" r:id="rId70"/>
+    <hyperlink ref="L59" r:id="rId71"/>
+    <hyperlink ref="L60" r:id="rId72"/>
+    <hyperlink ref="L65" r:id="rId73"/>
+    <hyperlink ref="L62" r:id="rId74"/>
+    <hyperlink ref="L66" r:id="rId75"/>
+    <hyperlink ref="L67" r:id="rId76"/>
+    <hyperlink ref="L68" r:id="rId77"/>
+    <hyperlink ref="L69" r:id="rId78"/>
+    <hyperlink ref="L70" r:id="rId79"/>
+    <hyperlink ref="L71" r:id="rId80"/>
+    <hyperlink ref="L72" r:id="rId81"/>
+    <hyperlink ref="L73" r:id="rId82"/>
+    <hyperlink ref="L74" r:id="rId83"/>
+    <hyperlink ref="L75" r:id="rId84"/>
+    <hyperlink ref="L76" r:id="rId85"/>
+    <hyperlink ref="L77" r:id="rId86"/>
+    <hyperlink ref="L78" r:id="rId87"/>
+    <hyperlink ref="L79" r:id="rId88"/>
+    <hyperlink ref="L80" r:id="rId89"/>
+    <hyperlink ref="L81" r:id="rId90"/>
+    <hyperlink ref="L82" r:id="rId91"/>
+    <hyperlink ref="L83" r:id="rId92"/>
+    <hyperlink ref="L84" r:id="rId93"/>
+    <hyperlink ref="L85" r:id="rId94"/>
+    <hyperlink ref="L86" r:id="rId95"/>
+    <hyperlink ref="L87" r:id="rId96"/>
+    <hyperlink ref="L88" r:id="rId97"/>
+    <hyperlink ref="L89" r:id="rId98"/>
+    <hyperlink ref="L90" r:id="rId99"/>
+    <hyperlink ref="L91" r:id="rId100"/>
+    <hyperlink ref="L92" r:id="rId101"/>
+    <hyperlink ref="L93" r:id="rId102"/>
+    <hyperlink ref="L94" r:id="rId103"/>
+    <hyperlink ref="L95" r:id="rId104"/>
+    <hyperlink ref="L96" r:id="rId105"/>
+    <hyperlink ref="L97" r:id="rId106"/>
+    <hyperlink ref="L98" r:id="rId107"/>
+    <hyperlink ref="L99" r:id="rId108"/>
+    <hyperlink ref="L100" r:id="rId109"/>
+    <hyperlink ref="L101" r:id="rId110"/>
+    <hyperlink ref="L102" r:id="rId111"/>
+    <hyperlink ref="L103" r:id="rId112"/>
+    <hyperlink ref="L104" r:id="rId113"/>
+    <hyperlink ref="L105" r:id="rId114"/>
+    <hyperlink ref="L106" r:id="rId115"/>
+    <hyperlink ref="L107" r:id="rId116"/>
+    <hyperlink ref="L108" r:id="rId117"/>
+    <hyperlink ref="L109" r:id="rId118"/>
+    <hyperlink ref="L110" r:id="rId119"/>
+    <hyperlink ref="L111" r:id="rId120"/>
+    <hyperlink ref="L112" r:id="rId121"/>
+    <hyperlink ref="L113" r:id="rId122"/>
+    <hyperlink ref="L114" r:id="rId123"/>
+    <hyperlink ref="L115" r:id="rId124"/>
+    <hyperlink ref="L116" r:id="rId125"/>
+    <hyperlink ref="L117" r:id="rId126"/>
+    <hyperlink ref="L118" r:id="rId127"/>
+    <hyperlink ref="L119" r:id="rId128"/>
+    <hyperlink ref="L120" r:id="rId129"/>
+    <hyperlink ref="L121" r:id="rId130"/>
+    <hyperlink ref="L122" r:id="rId131"/>
+    <hyperlink ref="L123" r:id="rId132"/>
+    <hyperlink ref="L124" r:id="rId133"/>
+    <hyperlink ref="L125" r:id="rId134"/>
+    <hyperlink ref="L126" r:id="rId135"/>
+    <hyperlink ref="L127" r:id="rId136"/>
+    <hyperlink ref="L128" r:id="rId137"/>
+    <hyperlink ref="L129" r:id="rId138"/>
+    <hyperlink ref="L130" r:id="rId139"/>
+    <hyperlink ref="L131" r:id="rId140"/>
+    <hyperlink ref="L132" r:id="rId141"/>
+    <hyperlink ref="L133" r:id="rId142"/>
+    <hyperlink ref="L134" r:id="rId143"/>
+    <hyperlink ref="L135" r:id="rId144"/>
+    <hyperlink ref="L136" r:id="rId145"/>
+    <hyperlink ref="L137" r:id="rId146"/>
+    <hyperlink ref="L138" r:id="rId147"/>
+    <hyperlink ref="L139" r:id="rId148"/>
+    <hyperlink ref="L140" r:id="rId149"/>
+    <hyperlink ref="L141" r:id="rId150"/>
+    <hyperlink ref="L142" r:id="rId151"/>
+    <hyperlink ref="L143" r:id="rId152"/>
+    <hyperlink ref="L145" r:id="rId153"/>
+    <hyperlink ref="L144" r:id="rId154"/>
+    <hyperlink ref="L146" r:id="rId155"/>
+    <hyperlink ref="L148" r:id="rId156"/>
+    <hyperlink ref="L149" r:id="rId157"/>
+    <hyperlink ref="L150" r:id="rId158"/>
+    <hyperlink ref="L147" r:id="rId159"/>
+    <hyperlink ref="M3" r:id="rId160"/>
+    <hyperlink ref="M4" r:id="rId161"/>
+    <hyperlink ref="M5" r:id="rId162"/>
+    <hyperlink ref="M6" r:id="rId163"/>
+    <hyperlink ref="M7" r:id="rId164"/>
+    <hyperlink ref="M8" r:id="rId165"/>
+    <hyperlink ref="M9" r:id="rId166"/>
+    <hyperlink ref="M10" r:id="rId167"/>
+    <hyperlink ref="M11" r:id="rId168"/>
+    <hyperlink ref="M12" r:id="rId169"/>
+    <hyperlink ref="M13" r:id="rId170"/>
+    <hyperlink ref="M14" r:id="rId171"/>
+    <hyperlink ref="M15" r:id="rId172"/>
+    <hyperlink ref="M16" r:id="rId173"/>
+    <hyperlink ref="M17" r:id="rId174"/>
+    <hyperlink ref="M18" r:id="rId175"/>
+    <hyperlink ref="M19" r:id="rId176"/>
+    <hyperlink ref="M20" r:id="rId177"/>
+    <hyperlink ref="M21" r:id="rId178"/>
+    <hyperlink ref="M22" r:id="rId179"/>
+    <hyperlink ref="M23" r:id="rId180"/>
+    <hyperlink ref="M25" r:id="rId181"/>
+    <hyperlink ref="M26" r:id="rId182"/>
+    <hyperlink ref="M27" r:id="rId183"/>
+    <hyperlink ref="M28" r:id="rId184"/>
+    <hyperlink ref="M29" r:id="rId185"/>
+    <hyperlink ref="M30" r:id="rId186"/>
+    <hyperlink ref="M31" r:id="rId187"/>
+    <hyperlink ref="M34" r:id="rId188"/>
+    <hyperlink ref="M36" r:id="rId189"/>
+    <hyperlink ref="M35" r:id="rId190"/>
+    <hyperlink ref="M37" r:id="rId191"/>
+    <hyperlink ref="M38" r:id="rId192"/>
+    <hyperlink ref="M39" r:id="rId193"/>
+    <hyperlink ref="M40" r:id="rId194"/>
+    <hyperlink ref="M41" r:id="rId195"/>
+    <hyperlink ref="M44" r:id="rId196"/>
+    <hyperlink ref="M45" r:id="rId197"/>
+    <hyperlink ref="M46" r:id="rId198"/>
+    <hyperlink ref="M47" r:id="rId199"/>
+    <hyperlink ref="M48" r:id="rId200"/>
+    <hyperlink ref="M49" r:id="rId201"/>
+    <hyperlink ref="M50" r:id="rId202"/>
+    <hyperlink ref="M54" r:id="rId203"/>
+    <hyperlink ref="M55" r:id="rId204"/>
+    <hyperlink ref="M52" r:id="rId205"/>
+    <hyperlink ref="M56" r:id="rId206"/>
+    <hyperlink ref="M57" r:id="rId207"/>
+    <hyperlink ref="M58" r:id="rId208"/>
+    <hyperlink ref="M59" r:id="rId209"/>
+    <hyperlink ref="M60" r:id="rId210"/>
+    <hyperlink ref="M62" r:id="rId211"/>
+    <hyperlink ref="M65" r:id="rId212"/>
+    <hyperlink ref="M66" r:id="rId213"/>
+    <hyperlink ref="M67" r:id="rId214"/>
+    <hyperlink ref="M68" r:id="rId215"/>
+    <hyperlink ref="M70" r:id="rId216"/>
+    <hyperlink ref="M71" r:id="rId217"/>
+    <hyperlink ref="M69" r:id="rId218"/>
+    <hyperlink ref="M72" r:id="rId219"/>
+    <hyperlink ref="M73" r:id="rId220"/>
+    <hyperlink ref="M74" r:id="rId221"/>
+    <hyperlink ref="M75" r:id="rId222"/>
+    <hyperlink ref="M76" r:id="rId223"/>
+    <hyperlink ref="M77" r:id="rId224"/>
+    <hyperlink ref="M78" r:id="rId225"/>
+    <hyperlink ref="M79" r:id="rId226"/>
+    <hyperlink ref="M80" r:id="rId227"/>
+    <hyperlink ref="M81" r:id="rId228"/>
+    <hyperlink ref="M82" r:id="rId229"/>
+    <hyperlink ref="M84" r:id="rId230"/>
+    <hyperlink ref="M85" r:id="rId231"/>
+    <hyperlink ref="M83" r:id="rId232"/>
+    <hyperlink ref="M86" r:id="rId233"/>
+    <hyperlink ref="M87" r:id="rId234"/>
+    <hyperlink ref="M88" r:id="rId235"/>
+    <hyperlink ref="M89" r:id="rId236"/>
+    <hyperlink ref="M90" r:id="rId237"/>
+    <hyperlink ref="M91" r:id="rId238"/>
+    <hyperlink ref="M93" r:id="rId239"/>
+    <hyperlink ref="M94" r:id="rId240"/>
+    <hyperlink ref="M92" r:id="rId241"/>
+    <hyperlink ref="M95" r:id="rId242"/>
+    <hyperlink ref="M96" r:id="rId243"/>
+    <hyperlink ref="M97" r:id="rId244"/>
+    <hyperlink ref="M98" r:id="rId245"/>
+    <hyperlink ref="M99" r:id="rId246"/>
+    <hyperlink ref="M100" r:id="rId247"/>
+    <hyperlink ref="M101" r:id="rId248"/>
+    <hyperlink ref="M102" r:id="rId249"/>
+    <hyperlink ref="M103" r:id="rId250"/>
+    <hyperlink ref="M104" r:id="rId251"/>
+    <hyperlink ref="M105" r:id="rId252"/>
+    <hyperlink ref="M106" r:id="rId253"/>
+    <hyperlink ref="M107" r:id="rId254"/>
+    <hyperlink ref="M108" r:id="rId255"/>
+    <hyperlink ref="M109" r:id="rId256"/>
+    <hyperlink ref="M110" r:id="rId257"/>
+    <hyperlink ref="M111" r:id="rId258"/>
+    <hyperlink ref="M112" r:id="rId259"/>
+    <hyperlink ref="M113" r:id="rId260"/>
+    <hyperlink ref="M114" r:id="rId261"/>
+    <hyperlink ref="M115" r:id="rId262"/>
+    <hyperlink ref="M116" r:id="rId263"/>
+    <hyperlink ref="M117" r:id="rId264"/>
+    <hyperlink ref="M118" r:id="rId265"/>
+    <hyperlink ref="M119" r:id="rId266"/>
+    <hyperlink ref="M120" r:id="rId267"/>
+    <hyperlink ref="M121" r:id="rId268"/>
+    <hyperlink ref="M122" r:id="rId269"/>
+    <hyperlink ref="M123" r:id="rId270"/>
+    <hyperlink ref="M124" r:id="rId271"/>
+    <hyperlink ref="M125" r:id="rId272"/>
+    <hyperlink ref="M126" r:id="rId273"/>
+    <hyperlink ref="M127" r:id="rId274"/>
+    <hyperlink ref="M128" r:id="rId275"/>
+    <hyperlink ref="M129" r:id="rId276"/>
+    <hyperlink ref="M130" r:id="rId277"/>
+    <hyperlink ref="M131" r:id="rId278"/>
+    <hyperlink ref="M132" r:id="rId279"/>
+    <hyperlink ref="M133" r:id="rId280"/>
+    <hyperlink ref="M134" r:id="rId281"/>
+    <hyperlink ref="M135" r:id="rId282"/>
+    <hyperlink ref="M136" r:id="rId283"/>
+    <hyperlink ref="M137" r:id="rId284"/>
+    <hyperlink ref="M138" r:id="rId285"/>
+    <hyperlink ref="M139" r:id="rId286"/>
+    <hyperlink ref="M140" r:id="rId287"/>
+    <hyperlink ref="M141" r:id="rId288"/>
+    <hyperlink ref="M142" r:id="rId289"/>
+    <hyperlink ref="M143" r:id="rId290"/>
+    <hyperlink ref="M145" r:id="rId291"/>
+    <hyperlink ref="M144" r:id="rId292"/>
+    <hyperlink ref="M146" r:id="rId293"/>
+    <hyperlink ref="M147" r:id="rId294"/>
+    <hyperlink ref="M148" r:id="rId295"/>
+    <hyperlink ref="M149" r:id="rId296"/>
+    <hyperlink ref="M150" r:id="rId297"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -9483,19 +9489,19 @@
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="99.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="99.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>268</v>
       </c>
@@ -9521,7 +9527,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>43214</v>
       </c>
@@ -9547,7 +9553,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>43215</v>
       </c>
@@ -9573,7 +9579,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>43216</v>
       </c>
@@ -9599,7 +9605,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>43236</v>
       </c>
@@ -9625,7 +9631,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>43237</v>
       </c>
@@ -9651,7 +9657,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>43238</v>
       </c>
@@ -9677,7 +9683,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>326</v>
       </c>
@@ -9703,7 +9709,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>329</v>
       </c>
@@ -9729,7 +9735,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>331</v>
       </c>
@@ -9755,7 +9761,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>43223</v>
       </c>
@@ -9781,7 +9787,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>43230</v>
       </c>
@@ -9807,7 +9813,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>43237</v>
       </c>
@@ -9833,7 +9839,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>43244</v>
       </c>
@@ -9859,7 +9865,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>43256</v>
       </c>
@@ -9885,7 +9891,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>43258</v>
       </c>
@@ -9911,7 +9917,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>43263</v>
       </c>
@@ -9937,7 +9943,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>43265</v>
       </c>
@@ -9963,7 +9969,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>43270</v>
       </c>
@@ -9989,7 +9995,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>43277</v>
       </c>
@@ -10015,7 +10021,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>43279</v>
       </c>
@@ -10041,7 +10047,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>43284</v>
       </c>
@@ -10067,7 +10073,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>43286</v>
       </c>
@@ -10093,7 +10099,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>43291</v>
       </c>
@@ -10119,7 +10125,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>43293</v>
       </c>
@@ -10145,7 +10151,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>43298</v>
       </c>
@@ -10171,7 +10177,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>43300</v>
       </c>
@@ -10197,7 +10203,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>43305</v>
       </c>
@@ -10223,7 +10229,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>43307</v>
       </c>
@@ -10249,7 +10255,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>757</v>
       </c>
@@ -10275,7 +10281,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>758</v>
       </c>
@@ -10301,7 +10307,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>759</v>
       </c>
@@ -10327,7 +10333,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30">
         <v>43197</v>
       </c>
@@ -10353,7 +10359,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30">
         <v>43227</v>
       </c>
@@ -10379,7 +10385,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30">
         <v>43258</v>
       </c>
@@ -10405,7 +10411,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>760</v>
       </c>
@@ -10431,7 +10437,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>761</v>
       </c>
@@ -10457,7 +10463,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
         <v>762</v>
       </c>
@@ -10483,7 +10489,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
         <v>760</v>
       </c>
@@ -10509,7 +10515,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>43107</v>
       </c>
@@ -10535,7 +10541,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
         <v>762</v>
       </c>
@@ -10561,7 +10567,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
         <v>763</v>
       </c>
@@ -10587,7 +10593,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
         <v>764</v>
       </c>
@@ -10613,7 +10619,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43108</v>
       </c>
@@ -10639,7 +10645,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>43139</v>
       </c>
@@ -10665,7 +10671,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
         <v>322</v>
       </c>
@@ -10691,7 +10697,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
         <v>324</v>
       </c>
@@ -10717,7 +10723,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
         <v>765</v>
       </c>
@@ -10743,7 +10749,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>766</v>
       </c>
@@ -10769,7 +10775,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>329</v>
       </c>
@@ -10795,7 +10801,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
         <v>767</v>
       </c>
@@ -10821,7 +10827,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>43229</v>
       </c>
@@ -10847,7 +10853,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <v>43260</v>
       </c>
@@ -10873,7 +10879,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>319</v>
       </c>
@@ -10899,7 +10905,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>322</v>
       </c>
@@ -10925,7 +10931,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>324</v>
       </c>
@@ -10951,7 +10957,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>43278</v>
       </c>
@@ -10977,7 +10983,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>43279</v>
       </c>
@@ -11003,7 +11009,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>43280</v>
       </c>
@@ -11029,7 +11035,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>43223</v>
       </c>
@@ -11055,7 +11061,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>43230</v>
       </c>
@@ -11081,7 +11087,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>43237</v>
       </c>
@@ -11107,7 +11113,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>43244</v>
       </c>
@@ -11133,7 +11139,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>43256</v>
       </c>
@@ -11159,7 +11165,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>43258</v>
       </c>
@@ -11185,7 +11191,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>43263</v>
       </c>
@@ -11211,7 +11217,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>43265</v>
       </c>
@@ -11237,7 +11243,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>43270</v>
       </c>
@@ -11263,7 +11269,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>43277</v>
       </c>
@@ -11289,7 +11295,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>43279</v>
       </c>
@@ -11315,7 +11321,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>43284</v>
       </c>
@@ -11341,7 +11347,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>43286</v>
       </c>
@@ -11367,7 +11373,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>43291</v>
       </c>
@@ -11393,7 +11399,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>43293</v>
       </c>
@@ -11419,7 +11425,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>43298</v>
       </c>
@@ -11445,7 +11451,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>43300</v>
       </c>
@@ -11471,7 +11477,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>43305</v>
       </c>
@@ -11497,7 +11503,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>43307</v>
       </c>
@@ -11523,7 +11529,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>43305</v>
       </c>
@@ -11549,7 +11555,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>43306</v>
       </c>
@@ -11575,7 +11581,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>43307</v>
       </c>
@@ -11601,7 +11607,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>43193</v>
       </c>
@@ -11627,7 +11633,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>43194</v>
       </c>
@@ -11653,7 +11659,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>43195</v>
       </c>
@@ -11679,7 +11685,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>43228</v>
       </c>
@@ -11705,7 +11711,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>43229</v>
       </c>
@@ -11731,7 +11737,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>43230</v>
       </c>
@@ -11757,7 +11763,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>43243</v>
       </c>
@@ -11783,7 +11789,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>43244</v>
       </c>
@@ -11809,7 +11815,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>43263</v>
       </c>
@@ -11835,7 +11841,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>43264</v>
       </c>
@@ -11861,7 +11867,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>43265</v>
       </c>
@@ -11887,7 +11893,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>43284</v>
       </c>
@@ -11913,7 +11919,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>43285</v>
       </c>
@@ -11939,7 +11945,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>43286</v>
       </c>
@@ -11965,7 +11971,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>43300</v>
       </c>
@@ -11991,7 +11997,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>43301</v>
       </c>
@@ -12018,114 +12024,114 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:H1"/>
   <sortState ref="A2:H97">
     <sortCondition ref="G2:G97"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H82" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="H83" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="H84" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="H2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="H3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="H85" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="H86" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="H87" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="H5" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="H6" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="H7" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="H88" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="H89" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="H90" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="H91" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="H92" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="H57" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="H58" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="H59" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="H93" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="H94" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="H95" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="H96" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="H97" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="H79" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="H80" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="H81" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="H54" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="H55" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="H56" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="H8" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="H9" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="H10" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="H11" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="H12" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="H13" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="H14" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="H15" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="H16" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="H17" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="H18" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="H19" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="H20" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="H21" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="H22" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="H23" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="H24" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="H25" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="H26" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="H27" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="H28" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="H29" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="H60" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="H61" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="H62" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="H63" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="H64" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="H65" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="H66" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="H67" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="H68" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="H69" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="H70" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="H71" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="H72" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="H73" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="H74" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="H75" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="H76" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="H77" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="H78" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="H30" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="H31" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="H32" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="H34" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="H33" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="H35" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="H36" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="H37" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="H38" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="H39" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="H40" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="H41" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="H42" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="H43" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="H44" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="H45" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="H47" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="H46" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="H48" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="H49" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="H51" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="H50" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="H52" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="H53" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="H82" r:id="rId1"/>
+    <hyperlink ref="H83" r:id="rId2"/>
+    <hyperlink ref="H84" r:id="rId3"/>
+    <hyperlink ref="H2" r:id="rId4"/>
+    <hyperlink ref="H3" r:id="rId5"/>
+    <hyperlink ref="H4" r:id="rId6"/>
+    <hyperlink ref="H85" r:id="rId7"/>
+    <hyperlink ref="H86" r:id="rId8"/>
+    <hyperlink ref="H87" r:id="rId9"/>
+    <hyperlink ref="H5" r:id="rId10"/>
+    <hyperlink ref="H6" r:id="rId11"/>
+    <hyperlink ref="H7" r:id="rId12"/>
+    <hyperlink ref="H88" r:id="rId13"/>
+    <hyperlink ref="H89" r:id="rId14"/>
+    <hyperlink ref="H90" r:id="rId15"/>
+    <hyperlink ref="H91" r:id="rId16"/>
+    <hyperlink ref="H92" r:id="rId17"/>
+    <hyperlink ref="H57" r:id="rId18"/>
+    <hyperlink ref="H58" r:id="rId19"/>
+    <hyperlink ref="H59" r:id="rId20"/>
+    <hyperlink ref="H93" r:id="rId21"/>
+    <hyperlink ref="H94" r:id="rId22"/>
+    <hyperlink ref="H95" r:id="rId23"/>
+    <hyperlink ref="H96" r:id="rId24"/>
+    <hyperlink ref="H97" r:id="rId25"/>
+    <hyperlink ref="H79" r:id="rId26"/>
+    <hyperlink ref="H80" r:id="rId27"/>
+    <hyperlink ref="H81" r:id="rId28"/>
+    <hyperlink ref="H54" r:id="rId29"/>
+    <hyperlink ref="H55" r:id="rId30"/>
+    <hyperlink ref="H56" r:id="rId31"/>
+    <hyperlink ref="H8" r:id="rId32"/>
+    <hyperlink ref="H9" r:id="rId33"/>
+    <hyperlink ref="H10" r:id="rId34"/>
+    <hyperlink ref="H11" r:id="rId35"/>
+    <hyperlink ref="H12" r:id="rId36"/>
+    <hyperlink ref="H13" r:id="rId37"/>
+    <hyperlink ref="H14" r:id="rId38"/>
+    <hyperlink ref="H15" r:id="rId39"/>
+    <hyperlink ref="H16" r:id="rId40"/>
+    <hyperlink ref="H17" r:id="rId41"/>
+    <hyperlink ref="H18" r:id="rId42"/>
+    <hyperlink ref="H19" r:id="rId43"/>
+    <hyperlink ref="H20" r:id="rId44"/>
+    <hyperlink ref="H21" r:id="rId45"/>
+    <hyperlink ref="H22" r:id="rId46"/>
+    <hyperlink ref="H23" r:id="rId47"/>
+    <hyperlink ref="H24" r:id="rId48"/>
+    <hyperlink ref="H25" r:id="rId49"/>
+    <hyperlink ref="H26" r:id="rId50"/>
+    <hyperlink ref="H27" r:id="rId51"/>
+    <hyperlink ref="H28" r:id="rId52"/>
+    <hyperlink ref="H29" r:id="rId53"/>
+    <hyperlink ref="H60" r:id="rId54"/>
+    <hyperlink ref="H61" r:id="rId55"/>
+    <hyperlink ref="H62" r:id="rId56"/>
+    <hyperlink ref="H63" r:id="rId57"/>
+    <hyperlink ref="H64" r:id="rId58"/>
+    <hyperlink ref="H65" r:id="rId59"/>
+    <hyperlink ref="H66" r:id="rId60"/>
+    <hyperlink ref="H67" r:id="rId61"/>
+    <hyperlink ref="H68" r:id="rId62"/>
+    <hyperlink ref="H69" r:id="rId63"/>
+    <hyperlink ref="H70" r:id="rId64"/>
+    <hyperlink ref="H71" r:id="rId65"/>
+    <hyperlink ref="H72" r:id="rId66"/>
+    <hyperlink ref="H73" r:id="rId67"/>
+    <hyperlink ref="H74" r:id="rId68"/>
+    <hyperlink ref="H75" r:id="rId69"/>
+    <hyperlink ref="H76" r:id="rId70"/>
+    <hyperlink ref="H77" r:id="rId71"/>
+    <hyperlink ref="H78" r:id="rId72"/>
+    <hyperlink ref="H30" r:id="rId73"/>
+    <hyperlink ref="H31" r:id="rId74"/>
+    <hyperlink ref="H32" r:id="rId75"/>
+    <hyperlink ref="H34" r:id="rId76"/>
+    <hyperlink ref="H33" r:id="rId77"/>
+    <hyperlink ref="H35" r:id="rId78"/>
+    <hyperlink ref="H36" r:id="rId79"/>
+    <hyperlink ref="H37" r:id="rId80"/>
+    <hyperlink ref="H38" r:id="rId81"/>
+    <hyperlink ref="H39" r:id="rId82"/>
+    <hyperlink ref="H40" r:id="rId83"/>
+    <hyperlink ref="H41" r:id="rId84"/>
+    <hyperlink ref="H42" r:id="rId85"/>
+    <hyperlink ref="H43" r:id="rId86"/>
+    <hyperlink ref="H44" r:id="rId87"/>
+    <hyperlink ref="H45" r:id="rId88"/>
+    <hyperlink ref="H47" r:id="rId89"/>
+    <hyperlink ref="H46" r:id="rId90"/>
+    <hyperlink ref="H48" r:id="rId91"/>
+    <hyperlink ref="H49" r:id="rId92"/>
+    <hyperlink ref="H51" r:id="rId93"/>
+    <hyperlink ref="H50" r:id="rId94"/>
+    <hyperlink ref="H52" r:id="rId95"/>
+    <hyperlink ref="H53" r:id="rId96"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -12133,22 +12139,22 @@
       <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="121.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="121.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="99.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="99.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="99.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="99.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -12183,7 +12189,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43220</v>
       </c>
@@ -12218,7 +12224,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43220</v>
       </c>
@@ -12253,7 +12259,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43220</v>
       </c>
@@ -12288,7 +12294,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43222</v>
       </c>
@@ -12323,7 +12329,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43222</v>
       </c>
@@ -12358,7 +12364,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43223</v>
       </c>
@@ -12393,7 +12399,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43223</v>
       </c>
@@ -12428,7 +12434,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43224</v>
       </c>
@@ -12463,7 +12469,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43224</v>
       </c>
@@ -12498,7 +12504,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43228</v>
       </c>
@@ -12533,7 +12539,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43229</v>
       </c>
@@ -12568,7 +12574,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43230</v>
       </c>
@@ -12603,7 +12609,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43230</v>
       </c>
@@ -12638,7 +12644,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43233</v>
       </c>
@@ -12673,7 +12679,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43234</v>
       </c>
@@ -12708,7 +12714,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43234</v>
       </c>
@@ -12743,7 +12749,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43234</v>
       </c>
@@ -12778,7 +12784,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43235</v>
       </c>
@@ -12813,7 +12819,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43236</v>
       </c>
@@ -12848,7 +12854,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43237</v>
       </c>
@@ -12883,7 +12889,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43237</v>
       </c>
@@ -12918,7 +12924,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43242</v>
       </c>
@@ -12953,7 +12959,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43242</v>
       </c>
@@ -12988,7 +12994,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43243</v>
       </c>
@@ -13023,7 +13029,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43249</v>
       </c>
@@ -13058,7 +13064,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43250</v>
       </c>
@@ -13093,7 +13099,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43250</v>
       </c>
@@ -13128,7 +13134,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43251</v>
       </c>
@@ -13163,7 +13169,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43251</v>
       </c>
@@ -13198,7 +13204,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43252</v>
       </c>
@@ -13233,7 +13239,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43252</v>
       </c>
@@ -13268,7 +13274,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43255</v>
       </c>
@@ -13303,7 +13309,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43255</v>
       </c>
@@ -13338,7 +13344,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43255</v>
       </c>
@@ -13373,7 +13379,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43256</v>
       </c>
@@ -13408,7 +13414,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43256</v>
       </c>
@@ -13443,7 +13449,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43258</v>
       </c>
@@ -13478,7 +13484,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43262</v>
       </c>
@@ -13513,7 +13519,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43262</v>
       </c>
@@ -13548,7 +13554,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43262</v>
       </c>
@@ -13583,7 +13589,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43263</v>
       </c>
@@ -13618,7 +13624,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43264</v>
       </c>
@@ -13653,7 +13659,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43265</v>
       </c>
@@ -13688,7 +13694,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43269</v>
       </c>
@@ -13723,7 +13729,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43269</v>
       </c>
@@ -13758,7 +13764,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43271</v>
       </c>
@@ -13793,7 +13799,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43272</v>
       </c>
@@ -13828,7 +13834,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43272</v>
       </c>
@@ -13863,7 +13869,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43276</v>
       </c>
@@ -13898,7 +13904,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43279</v>
       </c>
@@ -13933,7 +13939,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43283</v>
       </c>
@@ -13968,7 +13974,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43290</v>
       </c>
@@ -14003,7 +14009,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43290</v>
       </c>
@@ -14038,7 +14044,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43290</v>
       </c>
@@ -14073,7 +14079,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43290</v>
       </c>
@@ -14108,7 +14114,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>43291</v>
       </c>
@@ -14143,7 +14149,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43291</v>
       </c>
@@ -14178,7 +14184,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43291</v>
       </c>
@@ -14213,7 +14219,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43292</v>
       </c>
@@ -14248,7 +14254,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43292</v>
       </c>
@@ -14283,7 +14289,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43294</v>
       </c>
@@ -14318,7 +14324,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>43294</v>
       </c>
@@ -14353,7 +14359,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>43313</v>
       </c>
@@ -14388,7 +14394,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>43313</v>
       </c>
@@ -14423,7 +14429,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>43314</v>
       </c>
@@ -14458,7 +14464,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>43314</v>
       </c>
@@ -14493,7 +14499,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>43314</v>
       </c>
@@ -14528,7 +14534,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>43315</v>
       </c>
@@ -14563,7 +14569,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>43315</v>
       </c>
@@ -14598,7 +14604,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>43318</v>
       </c>
@@ -14633,7 +14639,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>43318</v>
       </c>
@@ -14668,7 +14674,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>43346</v>
       </c>
@@ -14703,7 +14709,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>43346</v>
       </c>
@@ -14738,7 +14744,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43347</v>
       </c>
@@ -14773,7 +14779,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>43347</v>
       </c>
@@ -14808,7 +14814,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>43347</v>
       </c>
@@ -14843,7 +14849,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>43348</v>
       </c>
@@ -14878,7 +14884,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>43348</v>
       </c>
@@ -14913,7 +14919,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>43350</v>
       </c>
@@ -14948,7 +14954,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>43353</v>
       </c>
@@ -14983,7 +14989,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>43353</v>
       </c>
@@ -15018,7 +15024,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>43357</v>
       </c>
@@ -15053,7 +15059,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>43374</v>
       </c>
@@ -15088,7 +15094,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>43374</v>
       </c>
@@ -15123,7 +15129,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>43375</v>
       </c>
@@ -15158,7 +15164,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>43375</v>
       </c>
@@ -15193,7 +15199,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>43375</v>
       </c>
@@ -15228,7 +15234,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>43376</v>
       </c>
@@ -15263,7 +15269,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>43376</v>
       </c>
@@ -15298,7 +15304,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>43378</v>
       </c>
@@ -15333,7 +15339,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>43378</v>
       </c>
@@ -15368,7 +15374,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>43381</v>
       </c>
@@ -15403,7 +15409,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>43382</v>
       </c>
@@ -15438,7 +15444,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>43406</v>
       </c>
@@ -15473,7 +15479,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>43406</v>
       </c>
@@ -15508,7 +15514,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>43409</v>
       </c>
@@ -15543,7 +15549,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>43409</v>
       </c>
@@ -15578,7 +15584,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>43410</v>
       </c>
@@ -15613,7 +15619,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>43410</v>
       </c>
@@ -15648,7 +15654,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>43410</v>
       </c>
@@ -15683,7 +15689,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>43411</v>
       </c>
@@ -15718,7 +15724,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>43411</v>
       </c>
@@ -15753,7 +15759,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>43437</v>
       </c>
@@ -15788,7 +15794,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>43437</v>
       </c>
@@ -15823,7 +15829,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>43438</v>
       </c>
@@ -15858,7 +15864,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>43438</v>
       </c>
@@ -15893,7 +15899,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>43438</v>
       </c>
@@ -15928,7 +15934,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>43439</v>
       </c>
@@ -15963,7 +15969,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>43439</v>
       </c>
@@ -15998,7 +16004,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>43441</v>
       </c>
@@ -16033,7 +16039,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>43441</v>
       </c>
@@ -16068,7 +16074,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="25" t="s">
         <v>720</v>
       </c>
@@ -16104,229 +16110,229 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:K1"/>
   <sortState ref="A2:K113">
     <sortCondition ref="A2:A113"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="J33" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="K33" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="J38" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="K38" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="J113" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="K113" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="J44" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="K44" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="J45" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="K45" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="J48" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="K48" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="J50" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="K50" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="J51" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="K51" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="J52" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="K52" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="J35" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="J74" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="J85" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="J98" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="J105" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="J3" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="J46" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="J73" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="J84" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="J97" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="J104" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="J2" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="J16" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="J53" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="J39" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="J40" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="J15" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="J34" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="J71" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="J81" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="J17" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="K35" r:id="rId40" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19521" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="K74" r:id="rId41" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19559" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="K85" r:id="rId42" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19560" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="K98" r:id="rId43" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19561" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="K105" r:id="rId44" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19562" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="K3" r:id="rId45" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16876" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="K46" r:id="rId46" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18168" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="K73" r:id="rId47" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19525" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="K84" r:id="rId48" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19526" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="K97" r:id="rId49" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19527" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="K104" r:id="rId50" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19528" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="K2" r:id="rId51" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16877" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="K16" r:id="rId52" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18165" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="K53" r:id="rId53" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19563" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="K39" r:id="rId54" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19564" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="K40" r:id="rId55" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18163" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="K15" r:id="rId56" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19434" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="K34" r:id="rId57" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19601" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="K71" r:id="rId58" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19603" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="K81" r:id="rId59" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18171" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="K17" r:id="rId60" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19435" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="J75" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="J86" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
-    <hyperlink ref="J99" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
-    <hyperlink ref="J106" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
-    <hyperlink ref="J4" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
-    <hyperlink ref="J82" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
-    <hyperlink ref="J41" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
-    <hyperlink ref="J56" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
-    <hyperlink ref="J72" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
-    <hyperlink ref="J18" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
-    <hyperlink ref="J54" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
-    <hyperlink ref="J55" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
-    <hyperlink ref="K75" r:id="rId73" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19566" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
-    <hyperlink ref="K86" r:id="rId74" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19567" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
-    <hyperlink ref="K99" r:id="rId75" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19568" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
-    <hyperlink ref="K106" r:id="rId76" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19569" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
-    <hyperlink ref="K4" r:id="rId77" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16879" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
-    <hyperlink ref="K82" r:id="rId78" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18170" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
-    <hyperlink ref="K41" r:id="rId79" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19570" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
-    <hyperlink ref="K56" r:id="rId80" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19571" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
-    <hyperlink ref="K72" r:id="rId81" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19610" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
-    <hyperlink ref="K18" r:id="rId82" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18166" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
-    <hyperlink ref="K54" r:id="rId83" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18169" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
-    <hyperlink ref="K55" r:id="rId84" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19580" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
-    <hyperlink ref="J36" r:id="rId85" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
-    <hyperlink ref="J57" r:id="rId86" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
-    <hyperlink ref="J19" r:id="rId87" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
-    <hyperlink ref="K36" r:id="rId88" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18830" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
-    <hyperlink ref="K57" r:id="rId89" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19523" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
-    <hyperlink ref="K19" r:id="rId90" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19436" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
-    <hyperlink ref="J58" r:id="rId91" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
-    <hyperlink ref="J24" r:id="rId92" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
-    <hyperlink ref="J42" r:id="rId93" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
-    <hyperlink ref="J77" r:id="rId94" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
-    <hyperlink ref="J88" r:id="rId95" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
-    <hyperlink ref="J101" r:id="rId96" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
-    <hyperlink ref="J108" r:id="rId97" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
-    <hyperlink ref="J94" r:id="rId98" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
-    <hyperlink ref="J76" r:id="rId99" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
-    <hyperlink ref="J87" r:id="rId100" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
-    <hyperlink ref="J100" r:id="rId101" xr:uid="{00000000-0004-0000-0200-000064000000}"/>
-    <hyperlink ref="J107" r:id="rId102" xr:uid="{00000000-0004-0000-0200-000065000000}"/>
-    <hyperlink ref="J59" r:id="rId103" xr:uid="{00000000-0004-0000-0200-000066000000}"/>
-    <hyperlink ref="J11" r:id="rId104" xr:uid="{00000000-0004-0000-0200-000067000000}"/>
-    <hyperlink ref="K58" r:id="rId105" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19557" xr:uid="{00000000-0004-0000-0200-000068000000}"/>
-    <hyperlink ref="K24" r:id="rId106" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18827" xr:uid="{00000000-0004-0000-0200-000069000000}"/>
-    <hyperlink ref="K42" r:id="rId107" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19127" xr:uid="{00000000-0004-0000-0200-00006A000000}"/>
-    <hyperlink ref="K77" r:id="rId108" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19573" xr:uid="{00000000-0004-0000-0200-00006B000000}"/>
-    <hyperlink ref="K88" r:id="rId109" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19574" xr:uid="{00000000-0004-0000-0200-00006C000000}"/>
-    <hyperlink ref="K101" r:id="rId110" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19576" xr:uid="{00000000-0004-0000-0200-00006D000000}"/>
-    <hyperlink ref="K108" r:id="rId111" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19577" xr:uid="{00000000-0004-0000-0200-00006E000000}"/>
-    <hyperlink ref="K94" r:id="rId112" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18172" xr:uid="{00000000-0004-0000-0200-00006F000000}"/>
-    <hyperlink ref="K76" r:id="rId113" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19582" xr:uid="{00000000-0004-0000-0200-000070000000}"/>
-    <hyperlink ref="K87" r:id="rId114" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19583" xr:uid="{00000000-0004-0000-0200-000071000000}"/>
-    <hyperlink ref="K100" r:id="rId115" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19584" xr:uid="{00000000-0004-0000-0200-000072000000}"/>
-    <hyperlink ref="K107" r:id="rId116" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19585" xr:uid="{00000000-0004-0000-0200-000073000000}"/>
-    <hyperlink ref="K59" r:id="rId117" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19066" xr:uid="{00000000-0004-0000-0200-000074000000}"/>
-    <hyperlink ref="K11" r:id="rId118" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19117" xr:uid="{00000000-0004-0000-0200-000075000000}"/>
-    <hyperlink ref="J12" r:id="rId119" xr:uid="{00000000-0004-0000-0200-000076000000}"/>
-    <hyperlink ref="J28" r:id="rId120" xr:uid="{00000000-0004-0000-0200-000077000000}"/>
-    <hyperlink ref="J64" r:id="rId121" xr:uid="{00000000-0004-0000-0200-000078000000}"/>
-    <hyperlink ref="J5" r:id="rId122" xr:uid="{00000000-0004-0000-0200-000079000000}"/>
-    <hyperlink ref="J47" r:id="rId123" xr:uid="{00000000-0004-0000-0200-00007A000000}"/>
-    <hyperlink ref="J27" r:id="rId124" xr:uid="{00000000-0004-0000-0200-00007B000000}"/>
-    <hyperlink ref="J60" r:id="rId125" xr:uid="{00000000-0004-0000-0200-00007C000000}"/>
-    <hyperlink ref="J78" r:id="rId126" xr:uid="{00000000-0004-0000-0200-00007D000000}"/>
-    <hyperlink ref="J89" r:id="rId127" xr:uid="{00000000-0004-0000-0200-00007E000000}"/>
-    <hyperlink ref="J102" r:id="rId128" xr:uid="{00000000-0004-0000-0200-00007F000000}"/>
-    <hyperlink ref="J109" r:id="rId129" xr:uid="{00000000-0004-0000-0200-000080000000}"/>
-    <hyperlink ref="J37" r:id="rId130" xr:uid="{00000000-0004-0000-0200-000081000000}"/>
-    <hyperlink ref="K12" r:id="rId131" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19431" xr:uid="{00000000-0004-0000-0200-000082000000}"/>
-    <hyperlink ref="K28" r:id="rId132" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19522" xr:uid="{00000000-0004-0000-0200-000083000000}"/>
-    <hyperlink ref="K64" r:id="rId133" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19524" xr:uid="{00000000-0004-0000-0200-000084000000}"/>
-    <hyperlink ref="K5" r:id="rId134" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16880" xr:uid="{00000000-0004-0000-0200-000085000000}"/>
-    <hyperlink ref="K47" r:id="rId135" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18159" xr:uid="{00000000-0004-0000-0200-000086000000}"/>
-    <hyperlink ref="K27" r:id="rId136" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19013" xr:uid="{00000000-0004-0000-0200-000087000000}"/>
-    <hyperlink ref="K60" r:id="rId137" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19602" xr:uid="{00000000-0004-0000-0200-000088000000}"/>
-    <hyperlink ref="K78" r:id="rId138" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19604" xr:uid="{00000000-0004-0000-0200-000089000000}"/>
-    <hyperlink ref="K89" r:id="rId139" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19605" xr:uid="{00000000-0004-0000-0200-00008A000000}"/>
-    <hyperlink ref="K102" r:id="rId140" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19606" xr:uid="{00000000-0004-0000-0200-00008B000000}"/>
-    <hyperlink ref="K109" r:id="rId141" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19607" xr:uid="{00000000-0004-0000-0200-00008C000000}"/>
-    <hyperlink ref="K37" r:id="rId142" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19608" xr:uid="{00000000-0004-0000-0200-00008D000000}"/>
-    <hyperlink ref="J20" r:id="rId143" xr:uid="{00000000-0004-0000-0200-00008E000000}"/>
-    <hyperlink ref="J65" r:id="rId144" xr:uid="{00000000-0004-0000-0200-00008F000000}"/>
-    <hyperlink ref="K20" r:id="rId145" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19437" xr:uid="{00000000-0004-0000-0200-000090000000}"/>
-    <hyperlink ref="K65" r:id="rId146" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19558" xr:uid="{00000000-0004-0000-0200-000091000000}"/>
-    <hyperlink ref="J7" r:id="rId147" xr:uid="{00000000-0004-0000-0200-000092000000}"/>
-    <hyperlink ref="J112" r:id="rId148" xr:uid="{00000000-0004-0000-0200-000093000000}"/>
-    <hyperlink ref="J96" r:id="rId149" xr:uid="{00000000-0004-0000-0200-000094000000}"/>
-    <hyperlink ref="J92" r:id="rId150" xr:uid="{00000000-0004-0000-0200-000095000000}"/>
-    <hyperlink ref="J80" r:id="rId151" xr:uid="{00000000-0004-0000-0200-000096000000}"/>
-    <hyperlink ref="J70" r:id="rId152" xr:uid="{00000000-0004-0000-0200-000097000000}"/>
-    <hyperlink ref="J63" r:id="rId153" xr:uid="{00000000-0004-0000-0200-000098000000}"/>
-    <hyperlink ref="J32" r:id="rId154" xr:uid="{00000000-0004-0000-0200-000099000000}"/>
-    <hyperlink ref="J10" r:id="rId155" xr:uid="{00000000-0004-0000-0200-00009A000000}"/>
-    <hyperlink ref="J111" r:id="rId156" xr:uid="{00000000-0004-0000-0200-00009B000000}"/>
-    <hyperlink ref="J95" r:id="rId157" xr:uid="{00000000-0004-0000-0200-00009C000000}"/>
-    <hyperlink ref="J91" r:id="rId158" xr:uid="{00000000-0004-0000-0200-00009D000000}"/>
-    <hyperlink ref="J83" r:id="rId159" xr:uid="{00000000-0004-0000-0200-00009E000000}"/>
-    <hyperlink ref="J69" r:id="rId160" xr:uid="{00000000-0004-0000-0200-00009F000000}"/>
-    <hyperlink ref="J62" r:id="rId161" xr:uid="{00000000-0004-0000-0200-0000A0000000}"/>
-    <hyperlink ref="J29" r:id="rId162" xr:uid="{00000000-0004-0000-0200-0000A1000000}"/>
-    <hyperlink ref="J13" r:id="rId163" xr:uid="{00000000-0004-0000-0200-0000A2000000}"/>
-    <hyperlink ref="J66" r:id="rId164" xr:uid="{00000000-0004-0000-0200-0000A3000000}"/>
-    <hyperlink ref="J68" r:id="rId165" xr:uid="{00000000-0004-0000-0200-0000A4000000}"/>
-    <hyperlink ref="J6" r:id="rId166" xr:uid="{00000000-0004-0000-0200-0000A5000000}"/>
-    <hyperlink ref="J49" r:id="rId167" xr:uid="{00000000-0004-0000-0200-0000A6000000}"/>
-    <hyperlink ref="J25" r:id="rId168" xr:uid="{00000000-0004-0000-0200-0000A7000000}"/>
-    <hyperlink ref="J43" r:id="rId169" xr:uid="{00000000-0004-0000-0200-0000A8000000}"/>
-    <hyperlink ref="J61" r:id="rId170" xr:uid="{00000000-0004-0000-0200-0000A9000000}"/>
-    <hyperlink ref="J79" r:id="rId171" xr:uid="{00000000-0004-0000-0200-0000AA000000}"/>
-    <hyperlink ref="J90" r:id="rId172" xr:uid="{00000000-0004-0000-0200-0000AB000000}"/>
-    <hyperlink ref="J103" r:id="rId173" xr:uid="{00000000-0004-0000-0200-0000AC000000}"/>
-    <hyperlink ref="J110" r:id="rId174" xr:uid="{00000000-0004-0000-0200-0000AD000000}"/>
-    <hyperlink ref="J8" r:id="rId175" xr:uid="{00000000-0004-0000-0200-0000AE000000}"/>
-    <hyperlink ref="J14" r:id="rId176" xr:uid="{00000000-0004-0000-0200-0000AF000000}"/>
-    <hyperlink ref="J22" r:id="rId177" xr:uid="{00000000-0004-0000-0200-0000B0000000}"/>
-    <hyperlink ref="J30" r:id="rId178" xr:uid="{00000000-0004-0000-0200-0000B1000000}"/>
-    <hyperlink ref="J67" r:id="rId179" xr:uid="{00000000-0004-0000-0200-0000B2000000}"/>
-    <hyperlink ref="J21" r:id="rId180" xr:uid="{00000000-0004-0000-0200-0000B3000000}"/>
-    <hyperlink ref="J9" r:id="rId181" xr:uid="{00000000-0004-0000-0200-0000B4000000}"/>
-    <hyperlink ref="J31" r:id="rId182" xr:uid="{00000000-0004-0000-0200-0000B5000000}"/>
-    <hyperlink ref="K7" r:id="rId183" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19556" xr:uid="{00000000-0004-0000-0200-0000B6000000}"/>
-    <hyperlink ref="K112" r:id="rId184" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19640" xr:uid="{00000000-0004-0000-0200-0000B7000000}"/>
-    <hyperlink ref="K96" r:id="rId185" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19639" xr:uid="{00000000-0004-0000-0200-0000B8000000}"/>
-    <hyperlink ref="K92" r:id="rId186" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19638" xr:uid="{00000000-0004-0000-0200-0000B9000000}"/>
-    <hyperlink ref="K80" r:id="rId187" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19637" xr:uid="{00000000-0004-0000-0200-0000BA000000}"/>
-    <hyperlink ref="K70" r:id="rId188" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19636" xr:uid="{00000000-0004-0000-0200-0000BB000000}"/>
-    <hyperlink ref="K63" r:id="rId189" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19635" xr:uid="{00000000-0004-0000-0200-0000BC000000}"/>
-    <hyperlink ref="K32" r:id="rId190" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19633" xr:uid="{00000000-0004-0000-0200-0000BD000000}"/>
-    <hyperlink ref="K10" r:id="rId191" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19634" xr:uid="{00000000-0004-0000-0200-0000BE000000}"/>
-    <hyperlink ref="K111" r:id="rId192" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19630" xr:uid="{00000000-0004-0000-0200-0000BF000000}"/>
-    <hyperlink ref="K95" r:id="rId193" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19629" xr:uid="{00000000-0004-0000-0200-0000C0000000}"/>
-    <hyperlink ref="K91" r:id="rId194" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19628" xr:uid="{00000000-0004-0000-0200-0000C1000000}"/>
-    <hyperlink ref="K83" r:id="rId195" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19627" xr:uid="{00000000-0004-0000-0200-0000C2000000}"/>
-    <hyperlink ref="K69" r:id="rId196" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19626" xr:uid="{00000000-0004-0000-0200-0000C3000000}"/>
-    <hyperlink ref="K62" r:id="rId197" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19625" xr:uid="{00000000-0004-0000-0200-0000C4000000}"/>
-    <hyperlink ref="K29" r:id="rId198" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19016" xr:uid="{00000000-0004-0000-0200-0000C5000000}"/>
-    <hyperlink ref="K13" r:id="rId199" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19433" xr:uid="{00000000-0004-0000-0200-0000C6000000}"/>
-    <hyperlink ref="K66" r:id="rId200" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19565" xr:uid="{00000000-0004-0000-0200-0000C7000000}"/>
-    <hyperlink ref="K68" r:id="rId201" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19572" xr:uid="{00000000-0004-0000-0200-0000C8000000}"/>
-    <hyperlink ref="K6" r:id="rId202" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16881" xr:uid="{00000000-0004-0000-0200-0000C9000000}"/>
-    <hyperlink ref="K49" r:id="rId203" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18164" xr:uid="{00000000-0004-0000-0200-0000CA000000}"/>
-    <hyperlink ref="K25" r:id="rId204" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18828" xr:uid="{00000000-0004-0000-0200-0000CB000000}"/>
-    <hyperlink ref="K43" r:id="rId205" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19021" xr:uid="{00000000-0004-0000-0200-0000CC000000}"/>
-    <hyperlink ref="K61" r:id="rId206" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19609" xr:uid="{00000000-0004-0000-0200-0000CD000000}"/>
-    <hyperlink ref="K79" r:id="rId207" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19611" xr:uid="{00000000-0004-0000-0200-0000CE000000}"/>
-    <hyperlink ref="K90" r:id="rId208" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19612" xr:uid="{00000000-0004-0000-0200-0000CF000000}"/>
-    <hyperlink ref="K103" r:id="rId209" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19613" xr:uid="{00000000-0004-0000-0200-0000D0000000}"/>
-    <hyperlink ref="K110" r:id="rId210" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19614" xr:uid="{00000000-0004-0000-0200-0000D1000000}"/>
-    <hyperlink ref="K8" r:id="rId211" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16940" xr:uid="{00000000-0004-0000-0200-0000D2000000}"/>
-    <hyperlink ref="K14" r:id="rId212" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19432" xr:uid="{00000000-0004-0000-0200-0000D3000000}"/>
-    <hyperlink ref="K22" r:id="rId213" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19439" xr:uid="{00000000-0004-0000-0200-0000D4000000}"/>
-    <hyperlink ref="K30" r:id="rId214" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19579" xr:uid="{00000000-0004-0000-0200-0000D5000000}"/>
-    <hyperlink ref="K67" r:id="rId215" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19581" xr:uid="{00000000-0004-0000-0200-0000D6000000}"/>
-    <hyperlink ref="K21" r:id="rId216" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19438" xr:uid="{00000000-0004-0000-0200-0000D7000000}"/>
-    <hyperlink ref="K9" r:id="rId217" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19623" xr:uid="{00000000-0004-0000-0200-0000D8000000}"/>
-    <hyperlink ref="K31" r:id="rId218" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19624" xr:uid="{00000000-0004-0000-0200-0000D9000000}"/>
+    <hyperlink ref="J33" r:id="rId1"/>
+    <hyperlink ref="K33" r:id="rId2"/>
+    <hyperlink ref="J38" r:id="rId3"/>
+    <hyperlink ref="K38" r:id="rId4"/>
+    <hyperlink ref="J113" r:id="rId5"/>
+    <hyperlink ref="K113" r:id="rId6"/>
+    <hyperlink ref="J44" r:id="rId7"/>
+    <hyperlink ref="K44" r:id="rId8"/>
+    <hyperlink ref="J45" r:id="rId9"/>
+    <hyperlink ref="K45" r:id="rId10"/>
+    <hyperlink ref="J48" r:id="rId11"/>
+    <hyperlink ref="K48" r:id="rId12"/>
+    <hyperlink ref="J50" r:id="rId13"/>
+    <hyperlink ref="K50" r:id="rId14"/>
+    <hyperlink ref="J51" r:id="rId15"/>
+    <hyperlink ref="K51" r:id="rId16"/>
+    <hyperlink ref="J52" r:id="rId17"/>
+    <hyperlink ref="K52" r:id="rId18"/>
+    <hyperlink ref="J35" r:id="rId19"/>
+    <hyperlink ref="J74" r:id="rId20"/>
+    <hyperlink ref="J85" r:id="rId21"/>
+    <hyperlink ref="J98" r:id="rId22"/>
+    <hyperlink ref="J105" r:id="rId23"/>
+    <hyperlink ref="J3" r:id="rId24"/>
+    <hyperlink ref="J46" r:id="rId25"/>
+    <hyperlink ref="J73" r:id="rId26"/>
+    <hyperlink ref="J84" r:id="rId27"/>
+    <hyperlink ref="J97" r:id="rId28"/>
+    <hyperlink ref="J104" r:id="rId29"/>
+    <hyperlink ref="J2" r:id="rId30"/>
+    <hyperlink ref="J16" r:id="rId31"/>
+    <hyperlink ref="J53" r:id="rId32"/>
+    <hyperlink ref="J39" r:id="rId33"/>
+    <hyperlink ref="J40" r:id="rId34"/>
+    <hyperlink ref="J15" r:id="rId35"/>
+    <hyperlink ref="J34" r:id="rId36"/>
+    <hyperlink ref="J71" r:id="rId37"/>
+    <hyperlink ref="J81" r:id="rId38"/>
+    <hyperlink ref="J17" r:id="rId39"/>
+    <hyperlink ref="K35" r:id="rId40" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19521"/>
+    <hyperlink ref="K74" r:id="rId41" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19559"/>
+    <hyperlink ref="K85" r:id="rId42" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19560"/>
+    <hyperlink ref="K98" r:id="rId43" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19561"/>
+    <hyperlink ref="K105" r:id="rId44" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19562"/>
+    <hyperlink ref="K3" r:id="rId45" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16876"/>
+    <hyperlink ref="K46" r:id="rId46" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18168"/>
+    <hyperlink ref="K73" r:id="rId47" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19525"/>
+    <hyperlink ref="K84" r:id="rId48" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19526"/>
+    <hyperlink ref="K97" r:id="rId49" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19527"/>
+    <hyperlink ref="K104" r:id="rId50" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19528"/>
+    <hyperlink ref="K2" r:id="rId51" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16877"/>
+    <hyperlink ref="K16" r:id="rId52" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18165"/>
+    <hyperlink ref="K53" r:id="rId53" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19563"/>
+    <hyperlink ref="K39" r:id="rId54" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19564"/>
+    <hyperlink ref="K40" r:id="rId55" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18163"/>
+    <hyperlink ref="K15" r:id="rId56" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19434"/>
+    <hyperlink ref="K34" r:id="rId57" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19601"/>
+    <hyperlink ref="K71" r:id="rId58" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19603"/>
+    <hyperlink ref="K81" r:id="rId59" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18171"/>
+    <hyperlink ref="K17" r:id="rId60" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19435"/>
+    <hyperlink ref="J75" r:id="rId61"/>
+    <hyperlink ref="J86" r:id="rId62"/>
+    <hyperlink ref="J99" r:id="rId63"/>
+    <hyperlink ref="J106" r:id="rId64"/>
+    <hyperlink ref="J4" r:id="rId65"/>
+    <hyperlink ref="J82" r:id="rId66"/>
+    <hyperlink ref="J41" r:id="rId67"/>
+    <hyperlink ref="J56" r:id="rId68"/>
+    <hyperlink ref="J72" r:id="rId69"/>
+    <hyperlink ref="J18" r:id="rId70"/>
+    <hyperlink ref="J54" r:id="rId71"/>
+    <hyperlink ref="J55" r:id="rId72"/>
+    <hyperlink ref="K75" r:id="rId73" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19566"/>
+    <hyperlink ref="K86" r:id="rId74" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19567"/>
+    <hyperlink ref="K99" r:id="rId75" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19568"/>
+    <hyperlink ref="K106" r:id="rId76" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19569"/>
+    <hyperlink ref="K4" r:id="rId77" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16879"/>
+    <hyperlink ref="K82" r:id="rId78" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18170"/>
+    <hyperlink ref="K41" r:id="rId79" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19570"/>
+    <hyperlink ref="K56" r:id="rId80" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19571"/>
+    <hyperlink ref="K72" r:id="rId81" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19610"/>
+    <hyperlink ref="K18" r:id="rId82" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18166"/>
+    <hyperlink ref="K54" r:id="rId83" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18169"/>
+    <hyperlink ref="K55" r:id="rId84" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19580"/>
+    <hyperlink ref="J36" r:id="rId85"/>
+    <hyperlink ref="J57" r:id="rId86"/>
+    <hyperlink ref="J19" r:id="rId87"/>
+    <hyperlink ref="K36" r:id="rId88" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18830"/>
+    <hyperlink ref="K57" r:id="rId89" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19523"/>
+    <hyperlink ref="K19" r:id="rId90" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19436"/>
+    <hyperlink ref="J58" r:id="rId91"/>
+    <hyperlink ref="J24" r:id="rId92"/>
+    <hyperlink ref="J42" r:id="rId93"/>
+    <hyperlink ref="J77" r:id="rId94"/>
+    <hyperlink ref="J88" r:id="rId95"/>
+    <hyperlink ref="J101" r:id="rId96"/>
+    <hyperlink ref="J108" r:id="rId97"/>
+    <hyperlink ref="J94" r:id="rId98"/>
+    <hyperlink ref="J76" r:id="rId99"/>
+    <hyperlink ref="J87" r:id="rId100"/>
+    <hyperlink ref="J100" r:id="rId101"/>
+    <hyperlink ref="J107" r:id="rId102"/>
+    <hyperlink ref="J59" r:id="rId103"/>
+    <hyperlink ref="J11" r:id="rId104"/>
+    <hyperlink ref="K58" r:id="rId105" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19557"/>
+    <hyperlink ref="K24" r:id="rId106" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18827"/>
+    <hyperlink ref="K42" r:id="rId107" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19127"/>
+    <hyperlink ref="K77" r:id="rId108" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19573"/>
+    <hyperlink ref="K88" r:id="rId109" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19574"/>
+    <hyperlink ref="K101" r:id="rId110" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19576"/>
+    <hyperlink ref="K108" r:id="rId111" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19577"/>
+    <hyperlink ref="K94" r:id="rId112" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18172"/>
+    <hyperlink ref="K76" r:id="rId113" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19582"/>
+    <hyperlink ref="K87" r:id="rId114" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19583"/>
+    <hyperlink ref="K100" r:id="rId115" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19584"/>
+    <hyperlink ref="K107" r:id="rId116" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19585"/>
+    <hyperlink ref="K59" r:id="rId117" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19066"/>
+    <hyperlink ref="K11" r:id="rId118" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19117"/>
+    <hyperlink ref="J12" r:id="rId119"/>
+    <hyperlink ref="J28" r:id="rId120"/>
+    <hyperlink ref="J64" r:id="rId121"/>
+    <hyperlink ref="J5" r:id="rId122"/>
+    <hyperlink ref="J47" r:id="rId123"/>
+    <hyperlink ref="J27" r:id="rId124"/>
+    <hyperlink ref="J60" r:id="rId125"/>
+    <hyperlink ref="J78" r:id="rId126"/>
+    <hyperlink ref="J89" r:id="rId127"/>
+    <hyperlink ref="J102" r:id="rId128"/>
+    <hyperlink ref="J109" r:id="rId129"/>
+    <hyperlink ref="J37" r:id="rId130"/>
+    <hyperlink ref="K12" r:id="rId131" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19431"/>
+    <hyperlink ref="K28" r:id="rId132" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19522"/>
+    <hyperlink ref="K64" r:id="rId133" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19524"/>
+    <hyperlink ref="K5" r:id="rId134" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16880"/>
+    <hyperlink ref="K47" r:id="rId135" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18159"/>
+    <hyperlink ref="K27" r:id="rId136" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19013"/>
+    <hyperlink ref="K60" r:id="rId137" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19602"/>
+    <hyperlink ref="K78" r:id="rId138" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19604"/>
+    <hyperlink ref="K89" r:id="rId139" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19605"/>
+    <hyperlink ref="K102" r:id="rId140" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19606"/>
+    <hyperlink ref="K109" r:id="rId141" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19607"/>
+    <hyperlink ref="K37" r:id="rId142" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19608"/>
+    <hyperlink ref="J20" r:id="rId143"/>
+    <hyperlink ref="J65" r:id="rId144"/>
+    <hyperlink ref="K20" r:id="rId145" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19437"/>
+    <hyperlink ref="K65" r:id="rId146" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19558"/>
+    <hyperlink ref="J7" r:id="rId147"/>
+    <hyperlink ref="J112" r:id="rId148"/>
+    <hyperlink ref="J96" r:id="rId149"/>
+    <hyperlink ref="J92" r:id="rId150"/>
+    <hyperlink ref="J80" r:id="rId151"/>
+    <hyperlink ref="J70" r:id="rId152"/>
+    <hyperlink ref="J63" r:id="rId153"/>
+    <hyperlink ref="J32" r:id="rId154"/>
+    <hyperlink ref="J10" r:id="rId155"/>
+    <hyperlink ref="J111" r:id="rId156"/>
+    <hyperlink ref="J95" r:id="rId157"/>
+    <hyperlink ref="J91" r:id="rId158"/>
+    <hyperlink ref="J83" r:id="rId159"/>
+    <hyperlink ref="J69" r:id="rId160"/>
+    <hyperlink ref="J62" r:id="rId161"/>
+    <hyperlink ref="J29" r:id="rId162"/>
+    <hyperlink ref="J13" r:id="rId163"/>
+    <hyperlink ref="J66" r:id="rId164"/>
+    <hyperlink ref="J68" r:id="rId165"/>
+    <hyperlink ref="J6" r:id="rId166"/>
+    <hyperlink ref="J49" r:id="rId167"/>
+    <hyperlink ref="J25" r:id="rId168"/>
+    <hyperlink ref="J43" r:id="rId169"/>
+    <hyperlink ref="J61" r:id="rId170"/>
+    <hyperlink ref="J79" r:id="rId171"/>
+    <hyperlink ref="J90" r:id="rId172"/>
+    <hyperlink ref="J103" r:id="rId173"/>
+    <hyperlink ref="J110" r:id="rId174"/>
+    <hyperlink ref="J8" r:id="rId175"/>
+    <hyperlink ref="J14" r:id="rId176"/>
+    <hyperlink ref="J22" r:id="rId177"/>
+    <hyperlink ref="J30" r:id="rId178"/>
+    <hyperlink ref="J67" r:id="rId179"/>
+    <hyperlink ref="J21" r:id="rId180"/>
+    <hyperlink ref="J9" r:id="rId181"/>
+    <hyperlink ref="J31" r:id="rId182"/>
+    <hyperlink ref="K7" r:id="rId183" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19556"/>
+    <hyperlink ref="K112" r:id="rId184" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19640"/>
+    <hyperlink ref="K96" r:id="rId185" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19639"/>
+    <hyperlink ref="K92" r:id="rId186" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19638"/>
+    <hyperlink ref="K80" r:id="rId187" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19637"/>
+    <hyperlink ref="K70" r:id="rId188" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19636"/>
+    <hyperlink ref="K63" r:id="rId189" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19635"/>
+    <hyperlink ref="K32" r:id="rId190" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19633"/>
+    <hyperlink ref="K10" r:id="rId191" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19634"/>
+    <hyperlink ref="K111" r:id="rId192" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19630"/>
+    <hyperlink ref="K95" r:id="rId193" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19629"/>
+    <hyperlink ref="K91" r:id="rId194" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19628"/>
+    <hyperlink ref="K83" r:id="rId195" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19627"/>
+    <hyperlink ref="K69" r:id="rId196" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19626"/>
+    <hyperlink ref="K62" r:id="rId197" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19625"/>
+    <hyperlink ref="K29" r:id="rId198" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19016"/>
+    <hyperlink ref="K13" r:id="rId199" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19433"/>
+    <hyperlink ref="K66" r:id="rId200" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19565"/>
+    <hyperlink ref="K68" r:id="rId201" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19572"/>
+    <hyperlink ref="K6" r:id="rId202" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16881"/>
+    <hyperlink ref="K49" r:id="rId203" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18164"/>
+    <hyperlink ref="K25" r:id="rId204" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18828"/>
+    <hyperlink ref="K43" r:id="rId205" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19021"/>
+    <hyperlink ref="K61" r:id="rId206" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19609"/>
+    <hyperlink ref="K79" r:id="rId207" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19611"/>
+    <hyperlink ref="K90" r:id="rId208" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19612"/>
+    <hyperlink ref="K103" r:id="rId209" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19613"/>
+    <hyperlink ref="K110" r:id="rId210" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19614"/>
+    <hyperlink ref="K8" r:id="rId211" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16940"/>
+    <hyperlink ref="K14" r:id="rId212" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19432"/>
+    <hyperlink ref="K22" r:id="rId213" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19439"/>
+    <hyperlink ref="K30" r:id="rId214" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19579"/>
+    <hyperlink ref="K67" r:id="rId215" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19581"/>
+    <hyperlink ref="K21" r:id="rId216" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19438"/>
+    <hyperlink ref="K9" r:id="rId217" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19623"/>
+    <hyperlink ref="K31" r:id="rId218" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19624"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ACTWeeklyRoundUp/Partner Training Schedule 2018 - Solutions Training for Partners.xlsx
+++ b/ACTWeeklyRoundUp/Partner Training Schedule 2018 - Solutions Training for Partners.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="North America" sheetId="11" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="EMEA" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">EMEA!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Latin America'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">EMEA!$A$1:$K$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Latin America'!$A$1:$H$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'North America'!$A$1:$M$150</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3635" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="820">
   <si>
     <t>Date</t>
   </si>
@@ -2186,9 +2186,6 @@
   </si>
   <si>
     <t>ALL</t>
-  </si>
-  <si>
-    <t>06/011/2018</t>
   </si>
   <si>
     <t xml:space="preserve">Deep Dive into Service Catalog </t>
@@ -2617,7 +2614,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2708,6 +2705,17 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2994,9 +3002,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3051,10 +3059,10 @@
         <v>7</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>724</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -3068,7 +3076,7 @@
         <v>267</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>10</v>
@@ -3115,7 +3123,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>665</v>
@@ -3156,7 +3164,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>665</v>
@@ -3171,7 +3179,7 @@
         <v>24</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="L4" s="31" t="s">
         <v>63</v>
@@ -3232,7 +3240,7 @@
         <v>267</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
@@ -3244,7 +3252,7 @@
         <v>665</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>12</v>
@@ -3273,7 +3281,7 @@
         <v>267</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
@@ -3402,7 +3410,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>665</v>
@@ -3443,7 +3451,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>665</v>
@@ -3519,7 +3527,7 @@
         <v>267</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
@@ -3689,7 +3697,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>665</v>
@@ -3730,7 +3738,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>665</v>
@@ -3806,13 +3814,13 @@
         <v>267</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>665</v>
@@ -3853,7 +3861,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>665</v>
@@ -4017,13 +4025,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>12</v>
@@ -4035,10 +4043,10 @@
         <v>22</v>
       </c>
       <c r="L25" s="31" t="s">
+        <v>770</v>
+      </c>
+      <c r="M25" s="31" t="s">
         <v>771</v>
-      </c>
-      <c r="M25" s="31" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -4052,7 +4060,7 @@
         <v>267</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>10</v>
@@ -4076,10 +4084,10 @@
         <v>675</v>
       </c>
       <c r="L26" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="M26" s="31" t="s">
         <v>774</v>
-      </c>
-      <c r="M26" s="31" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -4222,7 +4230,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>665</v>
@@ -4263,7 +4271,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>665</v>
@@ -4294,10 +4302,10 @@
       <c r="B32" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="7" t="s">
         <v>338</v>
       </c>
       <c r="E32" s="18" t="s">
@@ -4632,7 +4640,7 @@
         <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>665</v>
@@ -4673,7 +4681,7 @@
         <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>665</v>
@@ -5001,7 +5009,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>665</v>
@@ -5042,7 +5050,7 @@
         <v>10</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>665</v>
@@ -5159,7 +5167,7 @@
         <v>333</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>42</v>
@@ -5183,10 +5191,10 @@
         <v>58</v>
       </c>
       <c r="L53" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="M53" s="24" t="s">
         <v>722</v>
-      </c>
-      <c r="M53" s="24" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -5200,7 +5208,7 @@
         <v>267</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>10</v>
@@ -5209,10 +5217,10 @@
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>12</v>
@@ -5224,10 +5232,10 @@
         <v>29</v>
       </c>
       <c r="L54" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="M54" s="31" t="s">
         <v>778</v>
-      </c>
-      <c r="M54" s="31" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -5303,7 +5311,7 @@
         <v>24</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L56" s="31" t="s">
         <v>133</v>
@@ -5385,7 +5393,7 @@
         <v>24</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L58" s="31" t="s">
         <v>137</v>
@@ -5411,7 +5419,7 @@
         <v>10</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>665</v>
@@ -5452,7 +5460,7 @@
         <v>10</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>665</v>
@@ -5467,7 +5475,7 @@
         <v>24</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L60" s="31" t="s">
         <v>141</v>
@@ -5675,10 +5683,10 @@
         <v>22</v>
       </c>
       <c r="L65" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="M65" s="31" t="s">
         <v>780</v>
-      </c>
-      <c r="M65" s="31" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -6044,10 +6052,10 @@
         <v>52</v>
       </c>
       <c r="L74" s="31" t="s">
+        <v>781</v>
+      </c>
+      <c r="M74" s="31" t="s">
         <v>782</v>
-      </c>
-      <c r="M74" s="31" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -7127,7 +7135,7 @@
         <v>267</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>10</v>
@@ -7136,25 +7144,25 @@
         <v>11</v>
       </c>
       <c r="G101" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="H101" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>12</v>
       </c>
       <c r="J101" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="K101" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="K101" s="7" t="s">
+      <c r="L101" s="31" t="s">
         <v>786</v>
       </c>
-      <c r="L101" s="31" t="s">
+      <c r="M101" s="31" t="s">
         <v>787</v>
-      </c>
-      <c r="M101" s="31" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -7531,13 +7539,13 @@
         <v>43326</v>
       </c>
       <c r="B111" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D111" s="7" t="s">
         <v>789</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>790</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>10</v>
@@ -7546,10 +7554,10 @@
         <v>11</v>
       </c>
       <c r="G111" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="H111" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="I111" s="7" t="s">
         <v>12</v>
@@ -7561,10 +7569,10 @@
         <v>22</v>
       </c>
       <c r="L111" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="M111" s="31" t="s">
         <v>791</v>
-      </c>
-      <c r="M111" s="31" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -7660,7 +7668,7 @@
         <v>267</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>10</v>
@@ -7669,10 +7677,10 @@
         <v>11</v>
       </c>
       <c r="G114" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="H114" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="I114" s="7" t="s">
         <v>12</v>
@@ -7684,10 +7692,10 @@
         <v>22</v>
       </c>
       <c r="L114" s="31" t="s">
+        <v>792</v>
+      </c>
+      <c r="M114" s="31" t="s">
         <v>793</v>
-      </c>
-      <c r="M114" s="31" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8726,7 +8734,7 @@
         <v>267</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>10</v>
@@ -8735,10 +8743,10 @@
         <v>11</v>
       </c>
       <c r="G140" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="H140" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="H140" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="I140" s="7" t="s">
         <v>12</v>
@@ -8750,10 +8758,10 @@
         <v>22</v>
       </c>
       <c r="L140" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="M140" s="31" t="s">
         <v>795</v>
-      </c>
-      <c r="M140" s="31" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8776,10 +8784,10 @@
         <v>11</v>
       </c>
       <c r="G141" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="H141" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="H141" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="I141" s="7" t="s">
         <v>12</v>
@@ -8791,10 +8799,10 @@
         <v>675</v>
       </c>
       <c r="L141" s="31" t="s">
+        <v>796</v>
+      </c>
+      <c r="M141" s="31" t="s">
         <v>797</v>
-      </c>
-      <c r="M141" s="31" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8808,7 +8816,7 @@
         <v>267</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>10</v>
@@ -8817,10 +8825,10 @@
         <v>11</v>
       </c>
       <c r="G142" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="H142" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="H142" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="I142" s="7" t="s">
         <v>12</v>
@@ -8832,10 +8840,10 @@
         <v>675</v>
       </c>
       <c r="L142" s="31" t="s">
+        <v>799</v>
+      </c>
+      <c r="M142" s="31" t="s">
         <v>800</v>
-      </c>
-      <c r="M142" s="31" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8849,7 +8857,7 @@
         <v>267</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>10</v>
@@ -8858,25 +8866,25 @@
         <v>11</v>
       </c>
       <c r="G143" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="H143" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="H143" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="I143" s="7" t="s">
         <v>12</v>
       </c>
       <c r="J143" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="K143" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="K143" s="7" t="s">
-        <v>786</v>
-      </c>
       <c r="L143" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="M143" s="31" t="s">
         <v>802</v>
-      </c>
-      <c r="M143" s="31" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8890,7 +8898,7 @@
         <v>267</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>10</v>
@@ -8899,10 +8907,10 @@
         <v>11</v>
       </c>
       <c r="G144" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="H144" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="H144" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="I144" s="7" t="s">
         <v>12</v>
@@ -8914,10 +8922,10 @@
         <v>27</v>
       </c>
       <c r="L144" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="M144" s="31" t="s">
         <v>806</v>
-      </c>
-      <c r="M144" s="31" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8931,7 +8939,7 @@
         <v>267</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>10</v>
@@ -8940,10 +8948,10 @@
         <v>11</v>
       </c>
       <c r="G145" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="H145" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="H145" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="I145" s="7" t="s">
         <v>12</v>
@@ -8955,10 +8963,10 @@
         <v>675</v>
       </c>
       <c r="L145" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="M145" s="31" t="s">
         <v>804</v>
-      </c>
-      <c r="M145" s="31" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8972,7 +8980,7 @@
         <v>267</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>10</v>
@@ -8981,10 +8989,10 @@
         <v>11</v>
       </c>
       <c r="G146" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="H146" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="H146" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="I146" s="7" t="s">
         <v>12</v>
@@ -8996,10 +9004,10 @@
         <v>29</v>
       </c>
       <c r="L146" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="M146" s="31" t="s">
         <v>808</v>
-      </c>
-      <c r="M146" s="31" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -9013,7 +9021,7 @@
         <v>267</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>10</v>
@@ -9054,7 +9062,7 @@
         <v>267</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>10</v>
@@ -9095,7 +9103,7 @@
         <v>267</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>10</v>
@@ -9104,10 +9112,10 @@
         <v>11</v>
       </c>
       <c r="G149" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="H149" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="H149" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="I149" s="7" t="s">
         <v>12</v>
@@ -9119,10 +9127,10 @@
         <v>22</v>
       </c>
       <c r="L149" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="M149" s="31" t="s">
         <v>810</v>
-      </c>
-      <c r="M149" s="31" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -9136,7 +9144,7 @@
         <v>267</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>10</v>
@@ -9145,10 +9153,10 @@
         <v>11</v>
       </c>
       <c r="G150" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="H150" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="H150" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="I150" s="7" t="s">
         <v>12</v>
@@ -9160,10 +9168,10 @@
         <v>675</v>
       </c>
       <c r="L150" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="M150" s="31" t="s">
         <v>813</v>
-      </c>
-      <c r="M150" s="31" t="s">
-        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -9482,19 +9490,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -9502,7 +9511,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="35" t="s">
         <v>268</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -9527,7 +9536,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>43214</v>
       </c>
@@ -9553,7 +9562,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>43215</v>
       </c>
@@ -9579,7 +9588,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>43216</v>
       </c>
@@ -9605,7 +9614,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>43236</v>
       </c>
@@ -9631,7 +9640,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>43237</v>
       </c>
@@ -9657,7 +9666,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>43238</v>
       </c>
@@ -9683,7 +9692,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>326</v>
       </c>
@@ -9709,7 +9718,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>329</v>
       </c>
@@ -9735,7 +9744,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>331</v>
       </c>
@@ -9761,7 +9770,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>43223</v>
       </c>
@@ -9787,7 +9796,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>43230</v>
       </c>
@@ -9813,7 +9822,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>43237</v>
       </c>
@@ -9839,7 +9848,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>43244</v>
       </c>
@@ -9866,16 +9875,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="A15" s="36">
         <v>43256</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>366</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="12" t="s">
         <v>379</v>
       </c>
       <c r="E15" s="10" t="s">
@@ -9892,11 +9901,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>43258</v>
+      <c r="A16" s="36">
+        <v>43256</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>333</v>
@@ -9908,21 +9917,21 @@
         <v>277</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>43263</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>368</v>
+      <c r="A17" s="36">
+        <v>43258</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>367</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>333</v>
@@ -9934,47 +9943,47 @@
         <v>277</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>384</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>43265</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>369</v>
+      <c r="A18" s="30">
+        <v>43258</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>727</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>379</v>
+        <v>267</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>276</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>383</v>
+      <c r="F18" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>392</v>
+      <c r="H18" s="28" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>43270</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>370</v>
+      <c r="A19" s="36">
+        <v>43258</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>367</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>333</v>
@@ -9986,47 +9995,47 @@
         <v>277</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>43277</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>371</v>
+      <c r="A20" s="30">
+        <v>43260</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>731</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>379</v>
+        <v>267</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>276</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>382</v>
+      <c r="F20" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>394</v>
+      <c r="H20" s="28" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>43279</v>
+      <c r="A21" s="36">
+        <v>43263</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>333</v>
@@ -10038,16 +10047,16 @@
         <v>277</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>384</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>43284</v>
       </c>
@@ -10073,7 +10082,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>43286</v>
       </c>
@@ -10099,7 +10108,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>43291</v>
       </c>
@@ -10125,7 +10134,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>43293</v>
       </c>
@@ -10151,7 +10160,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>43298</v>
       </c>
@@ -10177,7 +10186,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>43300</v>
       </c>
@@ -10203,7 +10212,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>43305</v>
       </c>
@@ -10229,7 +10238,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>43307</v>
       </c>
@@ -10255,12 +10264,12 @@
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>267</v>
@@ -10278,15 +10287,15 @@
         <v>384</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>267</v>
@@ -10304,15 +10313,15 @@
         <v>384</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>267</v>
@@ -10330,15 +10339,15 @@
         <v>384</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30">
         <v>43197</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>267</v>
@@ -10356,15 +10365,15 @@
         <v>384</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30">
         <v>43227</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>267</v>
@@ -10382,41 +10391,41 @@
         <v>384</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30">
-        <v>43258</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>728</v>
+      <c r="A35" s="36">
+        <v>43263</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>368</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>276</v>
+        <v>333</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>379</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F35" s="27" t="s">
-        <v>11</v>
+      <c r="F35" s="12" t="s">
+        <v>405</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="H35" s="28" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>267</v>
@@ -10434,15 +10443,15 @@
         <v>384</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>267</v>
@@ -10460,15 +10469,15 @@
         <v>384</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>267</v>
@@ -10486,15 +10495,15 @@
         <v>384</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>267</v>
@@ -10512,15 +10521,15 @@
         <v>384</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>43107</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>267</v>
@@ -10538,15 +10547,15 @@
         <v>384</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>267</v>
@@ -10564,15 +10573,15 @@
         <v>384</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>267</v>
@@ -10590,15 +10599,15 @@
         <v>384</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>267</v>
@@ -10616,15 +10625,15 @@
         <v>384</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43108</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>267</v>
@@ -10642,15 +10651,15 @@
         <v>384</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>43139</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>267</v>
@@ -10668,15 +10677,15 @@
         <v>384</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
         <v>322</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>267</v>
@@ -10694,15 +10703,15 @@
         <v>384</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
         <v>324</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>267</v>
@@ -10720,15 +10729,15 @@
         <v>384</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>267</v>
@@ -10746,15 +10755,15 @@
         <v>384</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>267</v>
@@ -10772,15 +10781,15 @@
         <v>384</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>329</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>267</v>
@@ -10798,15 +10807,15 @@
         <v>384</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>267</v>
@@ -10824,15 +10833,15 @@
         <v>384</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>43229</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>267</v>
@@ -10850,36 +10859,36 @@
         <v>384</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="30">
-        <v>43260</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>732</v>
+      <c r="A53" s="36">
+        <v>43263</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="10" t="s">
         <v>276</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F53" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>319</v>
       </c>
@@ -10905,7 +10914,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>322</v>
       </c>
@@ -10931,7 +10940,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>324</v>
       </c>
@@ -10958,11 +10967,11 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9">
-        <v>43278</v>
+      <c r="A57" s="36">
+        <v>43264</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>267</v>
@@ -10974,68 +10983,68 @@
         <v>277</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9">
-        <v>43279</v>
+      <c r="A58" s="36">
+        <v>43265</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>280</v>
+        <v>369</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>276</v>
+        <v>379</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>277</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>304</v>
+        <v>383</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>306</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9">
-        <v>43280</v>
+      <c r="A59" s="36">
+        <v>43265</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>282</v>
+        <v>369</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>276</v>
+        <v>379</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>277</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>304</v>
+        <v>383</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>43223</v>
       </c>
@@ -11061,7 +11070,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>43230</v>
       </c>
@@ -11087,7 +11096,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>43237</v>
       </c>
@@ -11113,7 +11122,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>43244</v>
       </c>
@@ -11140,37 +11149,37 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9">
-        <v>43256</v>
+      <c r="A64" s="36">
+        <v>43265</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>366</v>
+        <v>282</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>379</v>
+        <v>276</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>277</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>406</v>
+        <v>11</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>411</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9">
-        <v>43258</v>
+      <c r="A65" s="36">
+        <v>43270</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>333</v>
@@ -11182,21 +11191,21 @@
         <v>277</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9">
-        <v>43263</v>
+      <c r="A66" s="36">
+        <v>43270</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>333</v>
@@ -11208,21 +11217,21 @@
         <v>277</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>406</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9">
-        <v>43265</v>
+      <c r="A67" s="36">
+        <v>43277</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>333</v>
@@ -11234,21 +11243,21 @@
         <v>277</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9">
-        <v>43270</v>
+      <c r="A68" s="36">
+        <v>43277</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>333</v>
@@ -11260,43 +11269,43 @@
         <v>277</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="G68" s="12" t="s">
         <v>406</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9">
-        <v>43277</v>
+      <c r="A69" s="36">
+        <v>43278</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>379</v>
+        <v>276</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>277</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>406</v>
+        <v>11</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>304</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>416</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9">
+      <c r="A70" s="36">
         <v>43279</v>
       </c>
       <c r="B70" s="10" t="s">
@@ -11315,13 +11324,13 @@
         <v>383</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>43284</v>
       </c>
@@ -11347,7 +11356,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>43286</v>
       </c>
@@ -11373,7 +11382,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>43291</v>
       </c>
@@ -11399,7 +11408,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>43293</v>
       </c>
@@ -11425,7 +11434,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>43298</v>
       </c>
@@ -11451,7 +11460,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>43300</v>
       </c>
@@ -11477,7 +11486,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>43305</v>
       </c>
@@ -11503,7 +11512,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>43307</v>
       </c>
@@ -11529,7 +11538,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>43305</v>
       </c>
@@ -11555,7 +11564,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>43306</v>
       </c>
@@ -11581,7 +11590,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>43307</v>
       </c>
@@ -11607,7 +11616,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>43193</v>
       </c>
@@ -11633,7 +11642,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>43194</v>
       </c>
@@ -11659,7 +11668,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>43195</v>
       </c>
@@ -11685,7 +11694,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>43228</v>
       </c>
@@ -11711,7 +11720,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>43229</v>
       </c>
@@ -11737,7 +11746,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>43230</v>
       </c>
@@ -11763,7 +11772,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>43243</v>
       </c>
@@ -11789,7 +11798,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>43244</v>
       </c>
@@ -11816,11 +11825,11 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="9">
-        <v>43263</v>
+      <c r="A90" s="36">
+        <v>43279</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>267</v>
@@ -11831,45 +11840,45 @@
       <c r="E90" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F90" s="10" t="s">
-        <v>11</v>
+      <c r="F90" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="9">
-        <v>43264</v>
+      <c r="A91" s="36">
+        <v>43279</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>276</v>
+        <v>379</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>277</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>278</v>
+        <v>383</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>302</v>
+        <v>417</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="9">
-        <v>43265</v>
+      <c r="A92" s="36">
+        <v>43280</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>282</v>
@@ -11887,13 +11896,13 @@
         <v>11</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>43284</v>
       </c>
@@ -11919,7 +11928,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>43285</v>
       </c>
@@ -11945,7 +11954,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>43286</v>
       </c>
@@ -11971,7 +11980,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>43300</v>
       </c>
@@ -11997,7 +12006,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>43301</v>
       </c>
@@ -12024,7 +12033,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:H97">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2018" month="6" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A15:H92">
+      <sortCondition ref="A1:A97"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:H97">
     <sortCondition ref="G2:G97"/>
   </sortState>
@@ -12043,12 +12061,12 @@
     <hyperlink ref="H7" r:id="rId12"/>
     <hyperlink ref="H88" r:id="rId13"/>
     <hyperlink ref="H89" r:id="rId14"/>
-    <hyperlink ref="H90" r:id="rId15"/>
-    <hyperlink ref="H91" r:id="rId16"/>
-    <hyperlink ref="H92" r:id="rId17"/>
-    <hyperlink ref="H57" r:id="rId18"/>
-    <hyperlink ref="H58" r:id="rId19"/>
-    <hyperlink ref="H59" r:id="rId20"/>
+    <hyperlink ref="H53" r:id="rId15"/>
+    <hyperlink ref="H57" r:id="rId16"/>
+    <hyperlink ref="H64" r:id="rId17"/>
+    <hyperlink ref="H69" r:id="rId18"/>
+    <hyperlink ref="H90" r:id="rId19"/>
+    <hyperlink ref="H92" r:id="rId20"/>
     <hyperlink ref="H93" r:id="rId21"/>
     <hyperlink ref="H94" r:id="rId22"/>
     <hyperlink ref="H95" r:id="rId23"/>
@@ -12068,12 +12086,12 @@
     <hyperlink ref="H13" r:id="rId37"/>
     <hyperlink ref="H14" r:id="rId38"/>
     <hyperlink ref="H15" r:id="rId39"/>
-    <hyperlink ref="H16" r:id="rId40"/>
-    <hyperlink ref="H17" r:id="rId41"/>
-    <hyperlink ref="H18" r:id="rId42"/>
-    <hyperlink ref="H19" r:id="rId43"/>
-    <hyperlink ref="H20" r:id="rId44"/>
-    <hyperlink ref="H21" r:id="rId45"/>
+    <hyperlink ref="H17" r:id="rId40"/>
+    <hyperlink ref="H21" r:id="rId41"/>
+    <hyperlink ref="H58" r:id="rId42"/>
+    <hyperlink ref="H65" r:id="rId43"/>
+    <hyperlink ref="H67" r:id="rId44"/>
+    <hyperlink ref="H70" r:id="rId45"/>
     <hyperlink ref="H22" r:id="rId46"/>
     <hyperlink ref="H23" r:id="rId47"/>
     <hyperlink ref="H24" r:id="rId48"/>
@@ -12086,13 +12104,13 @@
     <hyperlink ref="H61" r:id="rId55"/>
     <hyperlink ref="H62" r:id="rId56"/>
     <hyperlink ref="H63" r:id="rId57"/>
-    <hyperlink ref="H64" r:id="rId58"/>
-    <hyperlink ref="H65" r:id="rId59"/>
-    <hyperlink ref="H66" r:id="rId60"/>
-    <hyperlink ref="H67" r:id="rId61"/>
-    <hyperlink ref="H68" r:id="rId62"/>
-    <hyperlink ref="H69" r:id="rId63"/>
-    <hyperlink ref="H70" r:id="rId64"/>
+    <hyperlink ref="H16" r:id="rId58"/>
+    <hyperlink ref="H19" r:id="rId59"/>
+    <hyperlink ref="H35" r:id="rId60"/>
+    <hyperlink ref="H59" r:id="rId61"/>
+    <hyperlink ref="H66" r:id="rId62"/>
+    <hyperlink ref="H68" r:id="rId63"/>
+    <hyperlink ref="H91" r:id="rId64"/>
     <hyperlink ref="H71" r:id="rId65"/>
     <hyperlink ref="H72" r:id="rId66"/>
     <hyperlink ref="H73" r:id="rId67"/>
@@ -12106,7 +12124,7 @@
     <hyperlink ref="H32" r:id="rId75"/>
     <hyperlink ref="H34" r:id="rId76"/>
     <hyperlink ref="H33" r:id="rId77"/>
-    <hyperlink ref="H35" r:id="rId78"/>
+    <hyperlink ref="H18" r:id="rId78"/>
     <hyperlink ref="H36" r:id="rId79"/>
     <hyperlink ref="H37" r:id="rId80"/>
     <hyperlink ref="H38" r:id="rId81"/>
@@ -12124,7 +12142,7 @@
     <hyperlink ref="H51" r:id="rId93"/>
     <hyperlink ref="H50" r:id="rId94"/>
     <hyperlink ref="H52" r:id="rId95"/>
-    <hyperlink ref="H53" r:id="rId96"/>
+    <hyperlink ref="H20" r:id="rId96"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12132,26 +12150,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="121.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="87.88671875" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
     <col min="10" max="10" width="99.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="99.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="102.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12164,7 +12184,7 @@
       <c r="C1" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -12183,13 +12203,13 @@
         <v>7</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43220</v>
       </c>
@@ -12224,7 +12244,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43220</v>
       </c>
@@ -12259,7 +12279,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43220</v>
       </c>
@@ -12294,7 +12314,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43222</v>
       </c>
@@ -12329,7 +12349,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43222</v>
       </c>
@@ -12364,7 +12384,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43223</v>
       </c>
@@ -12399,7 +12419,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43223</v>
       </c>
@@ -12434,7 +12454,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43224</v>
       </c>
@@ -12469,7 +12489,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43224</v>
       </c>
@@ -12504,7 +12524,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43228</v>
       </c>
@@ -12539,7 +12559,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43229</v>
       </c>
@@ -12574,7 +12594,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43230</v>
       </c>
@@ -12609,7 +12629,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43230</v>
       </c>
@@ -12644,7 +12664,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43233</v>
       </c>
@@ -12679,7 +12699,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43234</v>
       </c>
@@ -12714,7 +12734,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43234</v>
       </c>
@@ -12749,7 +12769,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43234</v>
       </c>
@@ -12784,7 +12804,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43235</v>
       </c>
@@ -12819,7 +12839,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43236</v>
       </c>
@@ -12854,7 +12874,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43237</v>
       </c>
@@ -12889,7 +12909,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43237</v>
       </c>
@@ -12924,7 +12944,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43242</v>
       </c>
@@ -12959,7 +12979,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43242</v>
       </c>
@@ -12994,7 +13014,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43243</v>
       </c>
@@ -13029,7 +13049,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43249</v>
       </c>
@@ -13064,7 +13084,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43250</v>
       </c>
@@ -13099,7 +13119,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43250</v>
       </c>
@@ -13134,7 +13154,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43251</v>
       </c>
@@ -13169,7 +13189,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43251</v>
       </c>
@@ -13214,7 +13234,7 @@
       <c r="C31" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="16" t="s">
         <v>655</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -13249,7 +13269,7 @@
       <c r="C32" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="16" t="s">
         <v>656</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -13284,7 +13304,7 @@
       <c r="C33" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -13319,7 +13339,7 @@
       <c r="C34" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="16" t="s">
         <v>658</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -13354,7 +13374,7 @@
       <c r="C35" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E35" s="7" t="s">
@@ -13389,7 +13409,7 @@
       <c r="C36" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -13404,7 +13424,7 @@
       <c r="H36" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="7" t="s">
         <v>431</v>
       </c>
       <c r="J36" s="4" t="s">
@@ -13424,7 +13444,7 @@
       <c r="C37" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="16" t="s">
         <v>43</v>
       </c>
       <c r="E37" s="7" t="s">
@@ -13459,7 +13479,7 @@
       <c r="C38" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="16" t="s">
         <v>338</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -13494,7 +13514,7 @@
       <c r="C39" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="16" t="s">
         <v>657</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -13529,7 +13549,7 @@
       <c r="C40" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="16" t="s">
         <v>658</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -13544,7 +13564,7 @@
       <c r="H40" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="7" t="s">
         <v>427</v>
       </c>
       <c r="J40" s="4" t="s">
@@ -13564,7 +13584,7 @@
       <c r="C41" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="16" t="s">
         <v>43</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -13589,59 +13609,59 @@
         <v>602</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>43263</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>15</v>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="25">
+        <v>43262</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>435</v>
+        <v>333</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>498</v>
+        <v>342</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>601</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>43264</v>
+        <v>43263</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="38" t="s">
         <v>43</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>445</v>
@@ -13653,65 +13673,65 @@
         <v>435</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>43265</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>23</v>
+        <v>43264</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>344</v>
+        <v>267</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>43</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>335</v>
+      <c r="G44" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>345</v>
+        <v>510</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>346</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>43269</v>
+        <v>43265</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>350</v>
+      <c r="D45" s="39" t="s">
+        <v>344</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>11</v>
+      <c r="F45" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>42</v>
@@ -13723,205 +13743,205 @@
         <v>335</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43269</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>9</v>
+        <v>333</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>350</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>427</v>
+        <v>42</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>462</v>
+        <v>351</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>565</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>43271</v>
+        <v>43269</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>658</v>
+      <c r="D47" s="38" t="s">
+        <v>9</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>26</v>
+        <v>438</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>442</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>43271</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J48" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K48" s="4" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>43272</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43272</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D49" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>43272</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E50" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>43276</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>335</v>
+      <c r="G50" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>354</v>
+        <v>507</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>355</v>
+        <v>610</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>43279</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>15</v>
+        <v>43276</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>356</v>
+      <c r="D51" s="16" t="s">
+        <v>353</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>11</v>
+      <c r="F51" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>42</v>
@@ -13933,13 +13953,13 @@
         <v>335</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43283</v>
       </c>
@@ -13974,7 +13994,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43290</v>
       </c>
@@ -14009,7 +14029,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43290</v>
       </c>
@@ -14044,7 +14064,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43290</v>
       </c>
@@ -14079,7 +14099,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43290</v>
       </c>
@@ -14114,7 +14134,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>43291</v>
       </c>
@@ -14149,7 +14169,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43291</v>
       </c>
@@ -14184,7 +14204,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43291</v>
       </c>
@@ -14219,7 +14239,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43292</v>
       </c>
@@ -14254,7 +14274,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43292</v>
       </c>
@@ -14289,7 +14309,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43294</v>
       </c>
@@ -14324,7 +14344,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>43294</v>
       </c>
@@ -14359,7 +14379,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>43313</v>
       </c>
@@ -14394,7 +14414,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>43313</v>
       </c>
@@ -14429,7 +14449,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>43314</v>
       </c>
@@ -14464,7 +14484,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>43314</v>
       </c>
@@ -14499,7 +14519,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>43314</v>
       </c>
@@ -14534,7 +14554,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>43315</v>
       </c>
@@ -14569,7 +14589,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>43315</v>
       </c>
@@ -14604,7 +14624,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>43318</v>
       </c>
@@ -14639,7 +14659,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>43318</v>
       </c>
@@ -14674,7 +14694,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>43346</v>
       </c>
@@ -14709,7 +14729,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>43346</v>
       </c>
@@ -14744,7 +14764,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43347</v>
       </c>
@@ -14779,7 +14799,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>43347</v>
       </c>
@@ -14814,7 +14834,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>43347</v>
       </c>
@@ -14849,7 +14869,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>43348</v>
       </c>
@@ -14884,7 +14904,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>43348</v>
       </c>
@@ -14919,7 +14939,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>43350</v>
       </c>
@@ -14954,7 +14974,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>43353</v>
       </c>
@@ -14989,7 +15009,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>43353</v>
       </c>
@@ -15024,7 +15044,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>43357</v>
       </c>
@@ -15059,7 +15079,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>43374</v>
       </c>
@@ -15094,7 +15114,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>43374</v>
       </c>
@@ -15129,7 +15149,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>43375</v>
       </c>
@@ -15164,7 +15184,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>43375</v>
       </c>
@@ -15199,7 +15219,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>43375</v>
       </c>
@@ -15234,7 +15254,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>43376</v>
       </c>
@@ -15269,7 +15289,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>43376</v>
       </c>
@@ -15304,7 +15324,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>43378</v>
       </c>
@@ -15339,7 +15359,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>43378</v>
       </c>
@@ -15374,7 +15394,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>43381</v>
       </c>
@@ -15409,7 +15429,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>43382</v>
       </c>
@@ -15444,7 +15464,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>43406</v>
       </c>
@@ -15479,7 +15499,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>43406</v>
       </c>
@@ -15514,7 +15534,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>43409</v>
       </c>
@@ -15549,7 +15569,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>43409</v>
       </c>
@@ -15584,7 +15604,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>43410</v>
       </c>
@@ -15619,7 +15639,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>43410</v>
       </c>
@@ -15654,7 +15674,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>43410</v>
       </c>
@@ -15689,7 +15709,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>43411</v>
       </c>
@@ -15724,7 +15744,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>43411</v>
       </c>
@@ -15759,7 +15779,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>43437</v>
       </c>
@@ -15794,7 +15814,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>43437</v>
       </c>
@@ -15829,7 +15849,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>43438</v>
       </c>
@@ -15864,7 +15884,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>43438</v>
       </c>
@@ -15899,7 +15919,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>43438</v>
       </c>
@@ -15934,7 +15954,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>43439</v>
       </c>
@@ -15969,7 +15989,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>43439</v>
       </c>
@@ -16004,7 +16024,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>43441</v>
       </c>
@@ -16039,7 +16059,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>43441</v>
       </c>
@@ -16075,19 +16095,19 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="25" t="s">
-        <v>720</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>33</v>
+      <c r="A113" s="2">
+        <v>43279</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D113" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="E113" s="1" t="s">
+      <c r="D113" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="E113" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F113" s="1" t="s">
@@ -16103,14 +16123,24 @@
         <v>335</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
+  <autoFilter ref="A1:K113">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="06/011/2018"/>
+        <dateGroupItem year="2018" month="6" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A31:K113">
+      <sortCondition ref="A1:A113"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:K113">
     <sortCondition ref="A2:A113"/>
   </sortState>
@@ -16119,18 +16149,18 @@
     <hyperlink ref="K33" r:id="rId2"/>
     <hyperlink ref="J38" r:id="rId3"/>
     <hyperlink ref="K38" r:id="rId4"/>
-    <hyperlink ref="J113" r:id="rId5"/>
-    <hyperlink ref="K113" r:id="rId6"/>
-    <hyperlink ref="J44" r:id="rId7"/>
-    <hyperlink ref="K44" r:id="rId8"/>
-    <hyperlink ref="J45" r:id="rId9"/>
-    <hyperlink ref="K45" r:id="rId10"/>
-    <hyperlink ref="J48" r:id="rId11"/>
-    <hyperlink ref="K48" r:id="rId12"/>
-    <hyperlink ref="J50" r:id="rId13"/>
-    <hyperlink ref="K50" r:id="rId14"/>
-    <hyperlink ref="J51" r:id="rId15"/>
-    <hyperlink ref="K51" r:id="rId16"/>
+    <hyperlink ref="J42" r:id="rId5"/>
+    <hyperlink ref="K42" r:id="rId6"/>
+    <hyperlink ref="J45" r:id="rId7"/>
+    <hyperlink ref="K45" r:id="rId8"/>
+    <hyperlink ref="J46" r:id="rId9"/>
+    <hyperlink ref="K46" r:id="rId10"/>
+    <hyperlink ref="J49" r:id="rId11"/>
+    <hyperlink ref="K49" r:id="rId12"/>
+    <hyperlink ref="J51" r:id="rId13"/>
+    <hyperlink ref="K51" r:id="rId14"/>
+    <hyperlink ref="J113" r:id="rId15"/>
+    <hyperlink ref="K113" r:id="rId16"/>
     <hyperlink ref="J52" r:id="rId17"/>
     <hyperlink ref="K52" r:id="rId18"/>
     <hyperlink ref="J35" r:id="rId19"/>
@@ -16139,7 +16169,7 @@
     <hyperlink ref="J98" r:id="rId22"/>
     <hyperlink ref="J105" r:id="rId23"/>
     <hyperlink ref="J3" r:id="rId24"/>
-    <hyperlink ref="J46" r:id="rId25"/>
+    <hyperlink ref="J47" r:id="rId25"/>
     <hyperlink ref="J73" r:id="rId26"/>
     <hyperlink ref="J84" r:id="rId27"/>
     <hyperlink ref="J97" r:id="rId28"/>
@@ -16154,13 +16184,13 @@
     <hyperlink ref="J71" r:id="rId37"/>
     <hyperlink ref="J81" r:id="rId38"/>
     <hyperlink ref="J17" r:id="rId39"/>
-    <hyperlink ref="K35" r:id="rId40" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19521"/>
+    <hyperlink ref="K35" r:id="rId40"/>
     <hyperlink ref="K74" r:id="rId41" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19559"/>
     <hyperlink ref="K85" r:id="rId42" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19560"/>
     <hyperlink ref="K98" r:id="rId43" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19561"/>
     <hyperlink ref="K105" r:id="rId44" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19562"/>
     <hyperlink ref="K3" r:id="rId45" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16876"/>
-    <hyperlink ref="K46" r:id="rId46" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18168"/>
+    <hyperlink ref="K47" r:id="rId46" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18168"/>
     <hyperlink ref="K73" r:id="rId47" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19525"/>
     <hyperlink ref="K84" r:id="rId48" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19526"/>
     <hyperlink ref="K97" r:id="rId49" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19527"/>
@@ -16168,10 +16198,10 @@
     <hyperlink ref="K2" r:id="rId51" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16877"/>
     <hyperlink ref="K16" r:id="rId52" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18165"/>
     <hyperlink ref="K53" r:id="rId53" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19563"/>
-    <hyperlink ref="K39" r:id="rId54" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19564"/>
-    <hyperlink ref="K40" r:id="rId55" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18163"/>
+    <hyperlink ref="K39" r:id="rId54"/>
+    <hyperlink ref="K40" r:id="rId55"/>
     <hyperlink ref="K15" r:id="rId56" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19434"/>
-    <hyperlink ref="K34" r:id="rId57" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19601"/>
+    <hyperlink ref="K34" r:id="rId57"/>
     <hyperlink ref="K71" r:id="rId58" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19603"/>
     <hyperlink ref="K81" r:id="rId59" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18171"/>
     <hyperlink ref="K17" r:id="rId60" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19435"/>
@@ -16193,7 +16223,7 @@
     <hyperlink ref="K106" r:id="rId76" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19569"/>
     <hyperlink ref="K4" r:id="rId77" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16879"/>
     <hyperlink ref="K82" r:id="rId78" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18170"/>
-    <hyperlink ref="K41" r:id="rId79" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19570"/>
+    <hyperlink ref="K41" r:id="rId79"/>
     <hyperlink ref="K56" r:id="rId80" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19571"/>
     <hyperlink ref="K72" r:id="rId81" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19610"/>
     <hyperlink ref="K18" r:id="rId82" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18166"/>
@@ -16202,12 +16232,12 @@
     <hyperlink ref="J36" r:id="rId85"/>
     <hyperlink ref="J57" r:id="rId86"/>
     <hyperlink ref="J19" r:id="rId87"/>
-    <hyperlink ref="K36" r:id="rId88" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18830"/>
+    <hyperlink ref="K36" r:id="rId88"/>
     <hyperlink ref="K57" r:id="rId89" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19523"/>
     <hyperlink ref="K19" r:id="rId90" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19436"/>
     <hyperlink ref="J58" r:id="rId91"/>
     <hyperlink ref="J24" r:id="rId92"/>
-    <hyperlink ref="J42" r:id="rId93"/>
+    <hyperlink ref="J43" r:id="rId93"/>
     <hyperlink ref="J77" r:id="rId94"/>
     <hyperlink ref="J88" r:id="rId95"/>
     <hyperlink ref="J101" r:id="rId96"/>
@@ -16221,7 +16251,7 @@
     <hyperlink ref="J11" r:id="rId104"/>
     <hyperlink ref="K58" r:id="rId105" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19557"/>
     <hyperlink ref="K24" r:id="rId106" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18827"/>
-    <hyperlink ref="K42" r:id="rId107" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19127"/>
+    <hyperlink ref="K43" r:id="rId107" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19127"/>
     <hyperlink ref="K77" r:id="rId108" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19573"/>
     <hyperlink ref="K88" r:id="rId109" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19574"/>
     <hyperlink ref="K101" r:id="rId110" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19576"/>
@@ -16237,7 +16267,7 @@
     <hyperlink ref="J28" r:id="rId120"/>
     <hyperlink ref="J64" r:id="rId121"/>
     <hyperlink ref="J5" r:id="rId122"/>
-    <hyperlink ref="J47" r:id="rId123"/>
+    <hyperlink ref="J48" r:id="rId123"/>
     <hyperlink ref="J27" r:id="rId124"/>
     <hyperlink ref="J60" r:id="rId125"/>
     <hyperlink ref="J78" r:id="rId126"/>
@@ -16249,14 +16279,14 @@
     <hyperlink ref="K28" r:id="rId132" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19522"/>
     <hyperlink ref="K64" r:id="rId133" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19524"/>
     <hyperlink ref="K5" r:id="rId134" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16880"/>
-    <hyperlink ref="K47" r:id="rId135" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18159"/>
+    <hyperlink ref="K48" r:id="rId135" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18159"/>
     <hyperlink ref="K27" r:id="rId136" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19013"/>
     <hyperlink ref="K60" r:id="rId137" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19602"/>
     <hyperlink ref="K78" r:id="rId138" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19604"/>
     <hyperlink ref="K89" r:id="rId139" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19605"/>
     <hyperlink ref="K102" r:id="rId140" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19606"/>
     <hyperlink ref="K109" r:id="rId141" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19607"/>
-    <hyperlink ref="K37" r:id="rId142" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19608"/>
+    <hyperlink ref="K37" r:id="rId142"/>
     <hyperlink ref="J20" r:id="rId143"/>
     <hyperlink ref="J65" r:id="rId144"/>
     <hyperlink ref="K20" r:id="rId145" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19437"/>
@@ -16281,9 +16311,9 @@
     <hyperlink ref="J66" r:id="rId164"/>
     <hyperlink ref="J68" r:id="rId165"/>
     <hyperlink ref="J6" r:id="rId166"/>
-    <hyperlink ref="J49" r:id="rId167"/>
+    <hyperlink ref="J50" r:id="rId167"/>
     <hyperlink ref="J25" r:id="rId168"/>
-    <hyperlink ref="J43" r:id="rId169"/>
+    <hyperlink ref="J44" r:id="rId169"/>
     <hyperlink ref="J61" r:id="rId170"/>
     <hyperlink ref="J79" r:id="rId171"/>
     <hyperlink ref="J90" r:id="rId172"/>
@@ -16296,43 +16326,43 @@
     <hyperlink ref="J67" r:id="rId179"/>
     <hyperlink ref="J21" r:id="rId180"/>
     <hyperlink ref="J9" r:id="rId181"/>
-    <hyperlink ref="J31" r:id="rId182"/>
-    <hyperlink ref="K7" r:id="rId183" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19556"/>
-    <hyperlink ref="K112" r:id="rId184" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19640"/>
-    <hyperlink ref="K96" r:id="rId185" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19639"/>
-    <hyperlink ref="K92" r:id="rId186" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19638"/>
-    <hyperlink ref="K80" r:id="rId187" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19637"/>
-    <hyperlink ref="K70" r:id="rId188" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19636"/>
-    <hyperlink ref="K63" r:id="rId189" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19635"/>
-    <hyperlink ref="K32" r:id="rId190" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19633"/>
-    <hyperlink ref="K10" r:id="rId191" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19634"/>
-    <hyperlink ref="K111" r:id="rId192" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19630"/>
-    <hyperlink ref="K95" r:id="rId193" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19629"/>
-    <hyperlink ref="K91" r:id="rId194" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19628"/>
-    <hyperlink ref="K83" r:id="rId195" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19627"/>
-    <hyperlink ref="K69" r:id="rId196" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19626"/>
-    <hyperlink ref="K62" r:id="rId197" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19625"/>
-    <hyperlink ref="K29" r:id="rId198" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19016"/>
-    <hyperlink ref="K13" r:id="rId199" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19433"/>
-    <hyperlink ref="K66" r:id="rId200" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19565"/>
-    <hyperlink ref="K68" r:id="rId201" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19572"/>
-    <hyperlink ref="K6" r:id="rId202" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16881"/>
-    <hyperlink ref="K49" r:id="rId203" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18164"/>
-    <hyperlink ref="K25" r:id="rId204" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18828"/>
-    <hyperlink ref="K43" r:id="rId205" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19021"/>
-    <hyperlink ref="K61" r:id="rId206" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19609"/>
-    <hyperlink ref="K79" r:id="rId207" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19611"/>
-    <hyperlink ref="K90" r:id="rId208" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19612"/>
-    <hyperlink ref="K103" r:id="rId209" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19613"/>
-    <hyperlink ref="K110" r:id="rId210" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19614"/>
-    <hyperlink ref="K8" r:id="rId211" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16940"/>
-    <hyperlink ref="K14" r:id="rId212" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19432"/>
-    <hyperlink ref="K22" r:id="rId213" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19439"/>
-    <hyperlink ref="K30" r:id="rId214" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19579"/>
-    <hyperlink ref="K67" r:id="rId215" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19581"/>
-    <hyperlink ref="K21" r:id="rId216" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19438"/>
-    <hyperlink ref="K9" r:id="rId217" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19623"/>
-    <hyperlink ref="K31" r:id="rId218" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19624"/>
+    <hyperlink ref="K7" r:id="rId182" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19556"/>
+    <hyperlink ref="K112" r:id="rId183" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19640"/>
+    <hyperlink ref="K96" r:id="rId184" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19639"/>
+    <hyperlink ref="K92" r:id="rId185" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19638"/>
+    <hyperlink ref="K80" r:id="rId186" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19637"/>
+    <hyperlink ref="K70" r:id="rId187" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19636"/>
+    <hyperlink ref="K63" r:id="rId188" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19635"/>
+    <hyperlink ref="K32" r:id="rId189"/>
+    <hyperlink ref="K10" r:id="rId190" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19634"/>
+    <hyperlink ref="K111" r:id="rId191" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19630"/>
+    <hyperlink ref="K95" r:id="rId192" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19629"/>
+    <hyperlink ref="K91" r:id="rId193" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19628"/>
+    <hyperlink ref="K83" r:id="rId194" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19627"/>
+    <hyperlink ref="K69" r:id="rId195" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19626"/>
+    <hyperlink ref="K62" r:id="rId196" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19625"/>
+    <hyperlink ref="K29" r:id="rId197" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19016"/>
+    <hyperlink ref="K13" r:id="rId198" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19433"/>
+    <hyperlink ref="K66" r:id="rId199" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19565"/>
+    <hyperlink ref="K68" r:id="rId200" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19572"/>
+    <hyperlink ref="K6" r:id="rId201" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16881"/>
+    <hyperlink ref="K50" r:id="rId202" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18164"/>
+    <hyperlink ref="K25" r:id="rId203" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18828"/>
+    <hyperlink ref="K44" r:id="rId204" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19021"/>
+    <hyperlink ref="K61" r:id="rId205" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19609"/>
+    <hyperlink ref="K79" r:id="rId206" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19611"/>
+    <hyperlink ref="K90" r:id="rId207" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19612"/>
+    <hyperlink ref="K103" r:id="rId208" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19613"/>
+    <hyperlink ref="K110" r:id="rId209" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19614"/>
+    <hyperlink ref="K8" r:id="rId210" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16940"/>
+    <hyperlink ref="K14" r:id="rId211" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19432"/>
+    <hyperlink ref="K22" r:id="rId212" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19439"/>
+    <hyperlink ref="K30" r:id="rId213" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19579"/>
+    <hyperlink ref="K67" r:id="rId214" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19581"/>
+    <hyperlink ref="K21" r:id="rId215" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19438"/>
+    <hyperlink ref="K9" r:id="rId216" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19623"/>
+    <hyperlink ref="K31" r:id="rId217"/>
+    <hyperlink ref="J31" r:id="rId218"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ACTWeeklyRoundUp/Partner Training Schedule 2018 - Solutions Training for Partners.xlsx
+++ b/ACTWeeklyRoundUp/Partner Training Schedule 2018 - Solutions Training for Partners.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\official\ACTWeekly\Sogeti\ACTWeeklyRoundUp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Official\SogetiACTEmailTemplates\ACTWeeklyRoundUp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1424D131-42CA-48BC-8C69-5BF868EB6199}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="North America" sheetId="11" r:id="rId1"/>
@@ -2491,7 +2492,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
@@ -2721,7 +2722,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2998,33 +2999,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="99.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="99.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="99.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="99.140625" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -3065,7 +3066,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>43229</v>
       </c>
@@ -3106,7 +3107,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>43230</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>43230</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>43231</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>43235</v>
       </c>
@@ -3270,7 +3271,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>43235</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>43236</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>43236</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>43237</v>
       </c>
@@ -3434,7 +3435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>43237</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>43238</v>
       </c>
@@ -3516,7 +3517,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>43242</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>43242</v>
       </c>
@@ -3598,7 +3599,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>43243</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>43243</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>43244</v>
       </c>
@@ -3721,7 +3722,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>43244</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>43250</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>43250</v>
       </c>
@@ -3844,7 +3845,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>43251</v>
       </c>
@@ -3885,7 +3886,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>43252</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>43255</v>
       </c>
@@ -3967,7 +3968,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>43255</v>
       </c>
@@ -4008,7 +4009,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>43256</v>
       </c>
@@ -4049,7 +4050,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>43257</v>
       </c>
@@ -4090,7 +4091,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <v>43257</v>
       </c>
@@ -4131,7 +4132,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <v>43257</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>43257</v>
       </c>
@@ -4213,7 +4214,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <v>43258</v>
       </c>
@@ -4254,7 +4255,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <v>43258</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>43258</v>
       </c>
@@ -4336,7 +4337,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>43262</v>
       </c>
@@ -4377,7 +4378,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <v>43263</v>
       </c>
@@ -4418,7 +4419,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="34">
         <v>43263</v>
       </c>
@@ -4459,7 +4460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="34">
         <v>43263</v>
       </c>
@@ -4500,7 +4501,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="34">
         <v>43264</v>
       </c>
@@ -4541,7 +4542,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
         <v>43264</v>
       </c>
@@ -4582,7 +4583,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <v>43265</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>43265</v>
       </c>
@@ -4664,7 +4665,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>43265</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>43265</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>43269</v>
       </c>
@@ -4787,7 +4788,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
         <v>43270</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>43270</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
         <v>43271</v>
       </c>
@@ -4910,7 +4911,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
         <v>43271</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="34">
         <v>43272</v>
       </c>
@@ -4992,7 +4993,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="34">
         <v>43272</v>
       </c>
@@ -5033,7 +5034,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="34">
         <v>43272</v>
       </c>
@@ -5074,7 +5075,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>43272</v>
       </c>
@@ -5115,7 +5116,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="34">
         <v>43273</v>
       </c>
@@ -5156,7 +5157,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>43276</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="34">
         <v>43277</v>
       </c>
@@ -5238,7 +5239,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="34">
         <v>43277</v>
       </c>
@@ -5279,7 +5280,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="34">
         <v>43277</v>
       </c>
@@ -5320,7 +5321,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="34">
         <v>43278</v>
       </c>
@@ -5361,7 +5362,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="34">
         <v>43278</v>
       </c>
@@ -5402,7 +5403,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="34">
         <v>43279</v>
       </c>
@@ -5443,7 +5444,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="34">
         <v>43279</v>
       </c>
@@ -5484,7 +5485,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>43279</v>
       </c>
@@ -5525,7 +5526,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="34">
         <v>43280</v>
       </c>
@@ -5566,7 +5567,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>43283</v>
       </c>
@@ -5607,7 +5608,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>43286</v>
       </c>
@@ -5648,7 +5649,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="34">
         <v>43298</v>
       </c>
@@ -5689,7 +5690,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="34">
         <v>43298</v>
       </c>
@@ -5730,7 +5731,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="34">
         <v>43298</v>
       </c>
@@ -5771,7 +5772,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="34">
         <v>43298</v>
       </c>
@@ -5812,7 +5813,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="34">
         <v>43299</v>
       </c>
@@ -5853,7 +5854,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="34">
         <v>43299</v>
       </c>
@@ -5894,7 +5895,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="34">
         <v>43299</v>
       </c>
@@ -5935,7 +5936,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="34">
         <v>43299</v>
       </c>
@@ -5976,7 +5977,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="34">
         <v>43299</v>
       </c>
@@ -6017,7 +6018,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="34">
         <v>43299</v>
       </c>
@@ -6058,7 +6059,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="34">
         <v>43300</v>
       </c>
@@ -6099,7 +6100,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="34">
         <v>43300</v>
       </c>
@@ -6140,7 +6141,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="34">
         <v>43300</v>
       </c>
@@ -6181,7 +6182,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="34">
         <v>43301</v>
       </c>
@@ -6222,7 +6223,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="34">
         <v>43305</v>
       </c>
@@ -6263,7 +6264,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="34">
         <v>43305</v>
       </c>
@@ -6304,7 +6305,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="34">
         <v>43305</v>
       </c>
@@ -6345,7 +6346,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="34">
         <v>43306</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="34">
         <v>43306</v>
       </c>
@@ -6427,7 +6428,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="34">
         <v>43306</v>
       </c>
@@ -6468,7 +6469,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="34">
         <v>43306</v>
       </c>
@@ -6509,7 +6510,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="34">
         <v>43306</v>
       </c>
@@ -6550,7 +6551,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="34">
         <v>43306</v>
       </c>
@@ -6591,7 +6592,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="34">
         <v>43307</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="34">
         <v>43307</v>
       </c>
@@ -6673,7 +6674,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="34">
         <v>43307</v>
       </c>
@@ -6714,7 +6715,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="34">
         <v>43308</v>
       </c>
@@ -6755,7 +6756,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="34">
         <v>43312</v>
       </c>
@@ -6796,7 +6797,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="34">
         <v>43312</v>
       </c>
@@ -6837,7 +6838,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="34">
         <v>43313</v>
       </c>
@@ -6878,7 +6879,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="34">
         <v>43313</v>
       </c>
@@ -6919,7 +6920,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="34">
         <v>43313</v>
       </c>
@@ -6960,7 +6961,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="34">
         <v>43313</v>
       </c>
@@ -7001,7 +7002,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="34">
         <v>43314</v>
       </c>
@@ -7042,7 +7043,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="34">
         <v>43314</v>
       </c>
@@ -7083,7 +7084,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="34">
         <v>43315</v>
       </c>
@@ -7124,7 +7125,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="34">
         <v>43318</v>
       </c>
@@ -7165,7 +7166,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="34">
         <v>43319</v>
       </c>
@@ -7206,7 +7207,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34">
         <v>43319</v>
       </c>
@@ -7247,7 +7248,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="34">
         <v>43320</v>
       </c>
@@ -7288,7 +7289,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="34">
         <v>43320</v>
       </c>
@@ -7329,7 +7330,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="34">
         <v>43320</v>
       </c>
@@ -7370,7 +7371,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="34">
         <v>43320</v>
       </c>
@@ -7411,7 +7412,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="34">
         <v>43321</v>
       </c>
@@ -7452,7 +7453,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="34">
         <v>43321</v>
       </c>
@@ -7493,7 +7494,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="34">
         <v>43322</v>
       </c>
@@ -7534,7 +7535,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="34">
         <v>43326</v>
       </c>
@@ -7575,7 +7576,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="34">
         <v>43326</v>
       </c>
@@ -7616,7 +7617,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="34">
         <v>43326</v>
       </c>
@@ -7657,7 +7658,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="34">
         <v>43327</v>
       </c>
@@ -7698,7 +7699,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="34">
         <v>43327</v>
       </c>
@@ -7739,7 +7740,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="34">
         <v>43327</v>
       </c>
@@ -7780,7 +7781,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="34">
         <v>43327</v>
       </c>
@@ -7821,7 +7822,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="34">
         <v>43327</v>
       </c>
@@ -7862,7 +7863,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="34">
         <v>43328</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="34">
         <v>43328</v>
       </c>
@@ -7944,7 +7945,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="34">
         <v>43329</v>
       </c>
@@ -7985,7 +7986,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="34">
         <v>43333</v>
       </c>
@@ -8026,7 +8027,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="34">
         <v>43333</v>
       </c>
@@ -8067,7 +8068,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="34">
         <v>43334</v>
       </c>
@@ -8108,7 +8109,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="34">
         <v>43334</v>
       </c>
@@ -8149,7 +8150,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="34">
         <v>43334</v>
       </c>
@@ -8190,7 +8191,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="34">
         <v>43334</v>
       </c>
@@ -8231,7 +8232,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="34">
         <v>43335</v>
       </c>
@@ -8272,7 +8273,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="34">
         <v>43335</v>
       </c>
@@ -8313,7 +8314,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="34">
         <v>43336</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="34">
         <v>43340</v>
       </c>
@@ -8395,7 +8396,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="34">
         <v>43340</v>
       </c>
@@ -8436,7 +8437,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="34">
         <v>43341</v>
       </c>
@@ -8477,7 +8478,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="34">
         <v>43341</v>
       </c>
@@ -8518,7 +8519,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="34">
         <v>43341</v>
       </c>
@@ -8559,7 +8560,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="34">
         <v>43341</v>
       </c>
@@ -8600,7 +8601,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="34">
         <v>43342</v>
       </c>
@@ -8641,7 +8642,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="34">
         <v>43342</v>
       </c>
@@ -8682,7 +8683,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="34">
         <v>43343</v>
       </c>
@@ -8723,7 +8724,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="34">
         <v>43354</v>
       </c>
@@ -8764,7 +8765,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="34">
         <v>43354</v>
       </c>
@@ -8805,7 +8806,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="34">
         <v>43370</v>
       </c>
@@ -8846,7 +8847,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="34">
         <v>43374</v>
       </c>
@@ -8887,7 +8888,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="34">
         <v>43382</v>
       </c>
@@ -8928,7 +8929,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="34">
         <v>43384</v>
       </c>
@@ -8969,7 +8970,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="34">
         <v>43389</v>
       </c>
@@ -9010,7 +9011,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="34">
         <v>43389</v>
       </c>
@@ -9051,7 +9052,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="34">
         <v>43391</v>
       </c>
@@ -9092,7 +9093,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="34">
         <v>43396</v>
       </c>
@@ -9133,7 +9134,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="34">
         <v>43410</v>
       </c>
@@ -9175,10 +9176,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M150">
+  <autoFilter ref="A1:M150" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2018" month="6" dateTimeGrouping="month"/>
+        <dateGroupItem year="2018" month="7" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9186,331 +9188,331 @@
     <sortCondition ref="A2:A150"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="L24" r:id="rId1"/>
-    <hyperlink ref="M24" r:id="rId2"/>
-    <hyperlink ref="L32" r:id="rId3"/>
-    <hyperlink ref="M32" r:id="rId4"/>
-    <hyperlink ref="L33" r:id="rId5"/>
-    <hyperlink ref="M33" r:id="rId6"/>
-    <hyperlink ref="L42" r:id="rId7"/>
-    <hyperlink ref="M42" r:id="rId8"/>
-    <hyperlink ref="L43" r:id="rId9"/>
-    <hyperlink ref="M43" r:id="rId10"/>
-    <hyperlink ref="L51" r:id="rId11"/>
-    <hyperlink ref="M51" r:id="rId12"/>
-    <hyperlink ref="L53" r:id="rId13"/>
-    <hyperlink ref="M53" r:id="rId14"/>
-    <hyperlink ref="L61" r:id="rId15"/>
-    <hyperlink ref="M61" r:id="rId16"/>
-    <hyperlink ref="L63" r:id="rId17"/>
-    <hyperlink ref="M63" r:id="rId18"/>
-    <hyperlink ref="L64" r:id="rId19"/>
-    <hyperlink ref="M64" r:id="rId20"/>
-    <hyperlink ref="L2" r:id="rId21"/>
-    <hyperlink ref="L4" r:id="rId22"/>
-    <hyperlink ref="L5" r:id="rId23"/>
-    <hyperlink ref="L3" r:id="rId24"/>
-    <hyperlink ref="L6" r:id="rId25"/>
-    <hyperlink ref="L7" r:id="rId26"/>
-    <hyperlink ref="L8" r:id="rId27"/>
-    <hyperlink ref="L9" r:id="rId28"/>
-    <hyperlink ref="L10" r:id="rId29"/>
-    <hyperlink ref="L11" r:id="rId30"/>
-    <hyperlink ref="L12" r:id="rId31"/>
-    <hyperlink ref="L13" r:id="rId32"/>
-    <hyperlink ref="L14" r:id="rId33"/>
-    <hyperlink ref="L15" r:id="rId34"/>
-    <hyperlink ref="L16" r:id="rId35"/>
-    <hyperlink ref="L17" r:id="rId36"/>
-    <hyperlink ref="L18" r:id="rId37"/>
-    <hyperlink ref="L19" r:id="rId38"/>
-    <hyperlink ref="L20" r:id="rId39"/>
-    <hyperlink ref="L21" r:id="rId40"/>
-    <hyperlink ref="L22" r:id="rId41"/>
-    <hyperlink ref="L23" r:id="rId42"/>
-    <hyperlink ref="L25" r:id="rId43"/>
-    <hyperlink ref="L26" r:id="rId44"/>
-    <hyperlink ref="L27" r:id="rId45"/>
-    <hyperlink ref="L28" r:id="rId46"/>
-    <hyperlink ref="L29" r:id="rId47"/>
-    <hyperlink ref="L30" r:id="rId48"/>
-    <hyperlink ref="L31" r:id="rId49"/>
-    <hyperlink ref="L34" r:id="rId50"/>
-    <hyperlink ref="L35" r:id="rId51"/>
-    <hyperlink ref="L36" r:id="rId52"/>
-    <hyperlink ref="L37" r:id="rId53"/>
-    <hyperlink ref="L38" r:id="rId54"/>
-    <hyperlink ref="L39" r:id="rId55"/>
-    <hyperlink ref="L40" r:id="rId56"/>
-    <hyperlink ref="L41" r:id="rId57"/>
-    <hyperlink ref="L44" r:id="rId58"/>
-    <hyperlink ref="L45" r:id="rId59"/>
-    <hyperlink ref="L46" r:id="rId60"/>
-    <hyperlink ref="L47" r:id="rId61"/>
-    <hyperlink ref="L48" r:id="rId62"/>
-    <hyperlink ref="L49" r:id="rId63"/>
-    <hyperlink ref="L50" r:id="rId64"/>
-    <hyperlink ref="L52" r:id="rId65"/>
-    <hyperlink ref="L54" r:id="rId66"/>
-    <hyperlink ref="L55" r:id="rId67"/>
-    <hyperlink ref="L56" r:id="rId68"/>
-    <hyperlink ref="L57" r:id="rId69"/>
-    <hyperlink ref="L58" r:id="rId70"/>
-    <hyperlink ref="L59" r:id="rId71"/>
-    <hyperlink ref="L60" r:id="rId72"/>
-    <hyperlink ref="L65" r:id="rId73"/>
-    <hyperlink ref="L62" r:id="rId74"/>
-    <hyperlink ref="L66" r:id="rId75"/>
-    <hyperlink ref="L67" r:id="rId76"/>
-    <hyperlink ref="L68" r:id="rId77"/>
-    <hyperlink ref="L69" r:id="rId78"/>
-    <hyperlink ref="L70" r:id="rId79"/>
-    <hyperlink ref="L71" r:id="rId80"/>
-    <hyperlink ref="L72" r:id="rId81"/>
-    <hyperlink ref="L73" r:id="rId82"/>
-    <hyperlink ref="L74" r:id="rId83"/>
-    <hyperlink ref="L75" r:id="rId84"/>
-    <hyperlink ref="L76" r:id="rId85"/>
-    <hyperlink ref="L77" r:id="rId86"/>
-    <hyperlink ref="L78" r:id="rId87"/>
-    <hyperlink ref="L79" r:id="rId88"/>
-    <hyperlink ref="L80" r:id="rId89"/>
-    <hyperlink ref="L81" r:id="rId90"/>
-    <hyperlink ref="L82" r:id="rId91"/>
-    <hyperlink ref="L83" r:id="rId92"/>
-    <hyperlink ref="L84" r:id="rId93"/>
-    <hyperlink ref="L85" r:id="rId94"/>
-    <hyperlink ref="L86" r:id="rId95"/>
-    <hyperlink ref="L87" r:id="rId96"/>
-    <hyperlink ref="L88" r:id="rId97"/>
-    <hyperlink ref="L89" r:id="rId98"/>
-    <hyperlink ref="L90" r:id="rId99"/>
-    <hyperlink ref="L91" r:id="rId100"/>
-    <hyperlink ref="L92" r:id="rId101"/>
-    <hyperlink ref="L93" r:id="rId102"/>
-    <hyperlink ref="L94" r:id="rId103"/>
-    <hyperlink ref="L95" r:id="rId104"/>
-    <hyperlink ref="L96" r:id="rId105"/>
-    <hyperlink ref="L97" r:id="rId106"/>
-    <hyperlink ref="L98" r:id="rId107"/>
-    <hyperlink ref="L99" r:id="rId108"/>
-    <hyperlink ref="L100" r:id="rId109"/>
-    <hyperlink ref="L101" r:id="rId110"/>
-    <hyperlink ref="L102" r:id="rId111"/>
-    <hyperlink ref="L103" r:id="rId112"/>
-    <hyperlink ref="L104" r:id="rId113"/>
-    <hyperlink ref="L105" r:id="rId114"/>
-    <hyperlink ref="L106" r:id="rId115"/>
-    <hyperlink ref="L107" r:id="rId116"/>
-    <hyperlink ref="L108" r:id="rId117"/>
-    <hyperlink ref="L109" r:id="rId118"/>
-    <hyperlink ref="L110" r:id="rId119"/>
-    <hyperlink ref="L111" r:id="rId120"/>
-    <hyperlink ref="L112" r:id="rId121"/>
-    <hyperlink ref="L113" r:id="rId122"/>
-    <hyperlink ref="L114" r:id="rId123"/>
-    <hyperlink ref="L115" r:id="rId124"/>
-    <hyperlink ref="L116" r:id="rId125"/>
-    <hyperlink ref="L117" r:id="rId126"/>
-    <hyperlink ref="L118" r:id="rId127"/>
-    <hyperlink ref="L119" r:id="rId128"/>
-    <hyperlink ref="L120" r:id="rId129"/>
-    <hyperlink ref="L121" r:id="rId130"/>
-    <hyperlink ref="L122" r:id="rId131"/>
-    <hyperlink ref="L123" r:id="rId132"/>
-    <hyperlink ref="L124" r:id="rId133"/>
-    <hyperlink ref="L125" r:id="rId134"/>
-    <hyperlink ref="L126" r:id="rId135"/>
-    <hyperlink ref="L127" r:id="rId136"/>
-    <hyperlink ref="L128" r:id="rId137"/>
-    <hyperlink ref="L129" r:id="rId138"/>
-    <hyperlink ref="L130" r:id="rId139"/>
-    <hyperlink ref="L131" r:id="rId140"/>
-    <hyperlink ref="L132" r:id="rId141"/>
-    <hyperlink ref="L133" r:id="rId142"/>
-    <hyperlink ref="L134" r:id="rId143"/>
-    <hyperlink ref="L135" r:id="rId144"/>
-    <hyperlink ref="L136" r:id="rId145"/>
-    <hyperlink ref="L137" r:id="rId146"/>
-    <hyperlink ref="L138" r:id="rId147"/>
-    <hyperlink ref="L139" r:id="rId148"/>
-    <hyperlink ref="L140" r:id="rId149"/>
-    <hyperlink ref="L141" r:id="rId150"/>
-    <hyperlink ref="L142" r:id="rId151"/>
-    <hyperlink ref="L143" r:id="rId152"/>
-    <hyperlink ref="L145" r:id="rId153"/>
-    <hyperlink ref="L144" r:id="rId154"/>
-    <hyperlink ref="L146" r:id="rId155"/>
-    <hyperlink ref="L148" r:id="rId156"/>
-    <hyperlink ref="L149" r:id="rId157"/>
-    <hyperlink ref="L150" r:id="rId158"/>
-    <hyperlink ref="L147" r:id="rId159"/>
-    <hyperlink ref="M3" r:id="rId160"/>
-    <hyperlink ref="M4" r:id="rId161"/>
-    <hyperlink ref="M5" r:id="rId162"/>
-    <hyperlink ref="M6" r:id="rId163"/>
-    <hyperlink ref="M7" r:id="rId164"/>
-    <hyperlink ref="M8" r:id="rId165"/>
-    <hyperlink ref="M9" r:id="rId166"/>
-    <hyperlink ref="M10" r:id="rId167"/>
-    <hyperlink ref="M11" r:id="rId168"/>
-    <hyperlink ref="M12" r:id="rId169"/>
-    <hyperlink ref="M13" r:id="rId170"/>
-    <hyperlink ref="M14" r:id="rId171"/>
-    <hyperlink ref="M15" r:id="rId172"/>
-    <hyperlink ref="M16" r:id="rId173"/>
-    <hyperlink ref="M17" r:id="rId174"/>
-    <hyperlink ref="M18" r:id="rId175"/>
-    <hyperlink ref="M19" r:id="rId176"/>
-    <hyperlink ref="M20" r:id="rId177"/>
-    <hyperlink ref="M21" r:id="rId178"/>
-    <hyperlink ref="M22" r:id="rId179"/>
-    <hyperlink ref="M23" r:id="rId180"/>
-    <hyperlink ref="M25" r:id="rId181"/>
-    <hyperlink ref="M26" r:id="rId182"/>
-    <hyperlink ref="M27" r:id="rId183"/>
-    <hyperlink ref="M28" r:id="rId184"/>
-    <hyperlink ref="M29" r:id="rId185"/>
-    <hyperlink ref="M30" r:id="rId186"/>
-    <hyperlink ref="M31" r:id="rId187"/>
-    <hyperlink ref="M34" r:id="rId188"/>
-    <hyperlink ref="M36" r:id="rId189"/>
-    <hyperlink ref="M35" r:id="rId190"/>
-    <hyperlink ref="M37" r:id="rId191"/>
-    <hyperlink ref="M38" r:id="rId192"/>
-    <hyperlink ref="M39" r:id="rId193"/>
-    <hyperlink ref="M40" r:id="rId194"/>
-    <hyperlink ref="M41" r:id="rId195"/>
-    <hyperlink ref="M44" r:id="rId196"/>
-    <hyperlink ref="M45" r:id="rId197"/>
-    <hyperlink ref="M46" r:id="rId198"/>
-    <hyperlink ref="M47" r:id="rId199"/>
-    <hyperlink ref="M48" r:id="rId200"/>
-    <hyperlink ref="M49" r:id="rId201"/>
-    <hyperlink ref="M50" r:id="rId202"/>
-    <hyperlink ref="M54" r:id="rId203"/>
-    <hyperlink ref="M55" r:id="rId204"/>
-    <hyperlink ref="M52" r:id="rId205"/>
-    <hyperlink ref="M56" r:id="rId206"/>
-    <hyperlink ref="M57" r:id="rId207"/>
-    <hyperlink ref="M58" r:id="rId208"/>
-    <hyperlink ref="M59" r:id="rId209"/>
-    <hyperlink ref="M60" r:id="rId210"/>
-    <hyperlink ref="M62" r:id="rId211"/>
-    <hyperlink ref="M65" r:id="rId212"/>
-    <hyperlink ref="M66" r:id="rId213"/>
-    <hyperlink ref="M67" r:id="rId214"/>
-    <hyperlink ref="M68" r:id="rId215"/>
-    <hyperlink ref="M70" r:id="rId216"/>
-    <hyperlink ref="M71" r:id="rId217"/>
-    <hyperlink ref="M69" r:id="rId218"/>
-    <hyperlink ref="M72" r:id="rId219"/>
-    <hyperlink ref="M73" r:id="rId220"/>
-    <hyperlink ref="M74" r:id="rId221"/>
-    <hyperlink ref="M75" r:id="rId222"/>
-    <hyperlink ref="M76" r:id="rId223"/>
-    <hyperlink ref="M77" r:id="rId224"/>
-    <hyperlink ref="M78" r:id="rId225"/>
-    <hyperlink ref="M79" r:id="rId226"/>
-    <hyperlink ref="M80" r:id="rId227"/>
-    <hyperlink ref="M81" r:id="rId228"/>
-    <hyperlink ref="M82" r:id="rId229"/>
-    <hyperlink ref="M84" r:id="rId230"/>
-    <hyperlink ref="M85" r:id="rId231"/>
-    <hyperlink ref="M83" r:id="rId232"/>
-    <hyperlink ref="M86" r:id="rId233"/>
-    <hyperlink ref="M87" r:id="rId234"/>
-    <hyperlink ref="M88" r:id="rId235"/>
-    <hyperlink ref="M89" r:id="rId236"/>
-    <hyperlink ref="M90" r:id="rId237"/>
-    <hyperlink ref="M91" r:id="rId238"/>
-    <hyperlink ref="M93" r:id="rId239"/>
-    <hyperlink ref="M94" r:id="rId240"/>
-    <hyperlink ref="M92" r:id="rId241"/>
-    <hyperlink ref="M95" r:id="rId242"/>
-    <hyperlink ref="M96" r:id="rId243"/>
-    <hyperlink ref="M97" r:id="rId244"/>
-    <hyperlink ref="M98" r:id="rId245"/>
-    <hyperlink ref="M99" r:id="rId246"/>
-    <hyperlink ref="M100" r:id="rId247"/>
-    <hyperlink ref="M101" r:id="rId248"/>
-    <hyperlink ref="M102" r:id="rId249"/>
-    <hyperlink ref="M103" r:id="rId250"/>
-    <hyperlink ref="M104" r:id="rId251"/>
-    <hyperlink ref="M105" r:id="rId252"/>
-    <hyperlink ref="M106" r:id="rId253"/>
-    <hyperlink ref="M107" r:id="rId254"/>
-    <hyperlink ref="M108" r:id="rId255"/>
-    <hyperlink ref="M109" r:id="rId256"/>
-    <hyperlink ref="M110" r:id="rId257"/>
-    <hyperlink ref="M111" r:id="rId258"/>
-    <hyperlink ref="M112" r:id="rId259"/>
-    <hyperlink ref="M113" r:id="rId260"/>
-    <hyperlink ref="M114" r:id="rId261"/>
-    <hyperlink ref="M115" r:id="rId262"/>
-    <hyperlink ref="M116" r:id="rId263"/>
-    <hyperlink ref="M117" r:id="rId264"/>
-    <hyperlink ref="M118" r:id="rId265"/>
-    <hyperlink ref="M119" r:id="rId266"/>
-    <hyperlink ref="M120" r:id="rId267"/>
-    <hyperlink ref="M121" r:id="rId268"/>
-    <hyperlink ref="M122" r:id="rId269"/>
-    <hyperlink ref="M123" r:id="rId270"/>
-    <hyperlink ref="M124" r:id="rId271"/>
-    <hyperlink ref="M125" r:id="rId272"/>
-    <hyperlink ref="M126" r:id="rId273"/>
-    <hyperlink ref="M127" r:id="rId274"/>
-    <hyperlink ref="M128" r:id="rId275"/>
-    <hyperlink ref="M129" r:id="rId276"/>
-    <hyperlink ref="M130" r:id="rId277"/>
-    <hyperlink ref="M131" r:id="rId278"/>
-    <hyperlink ref="M132" r:id="rId279"/>
-    <hyperlink ref="M133" r:id="rId280"/>
-    <hyperlink ref="M134" r:id="rId281"/>
-    <hyperlink ref="M135" r:id="rId282"/>
-    <hyperlink ref="M136" r:id="rId283"/>
-    <hyperlink ref="M137" r:id="rId284"/>
-    <hyperlink ref="M138" r:id="rId285"/>
-    <hyperlink ref="M139" r:id="rId286"/>
-    <hyperlink ref="M140" r:id="rId287"/>
-    <hyperlink ref="M141" r:id="rId288"/>
-    <hyperlink ref="M142" r:id="rId289"/>
-    <hyperlink ref="M143" r:id="rId290"/>
-    <hyperlink ref="M145" r:id="rId291"/>
-    <hyperlink ref="M144" r:id="rId292"/>
-    <hyperlink ref="M146" r:id="rId293"/>
-    <hyperlink ref="M147" r:id="rId294"/>
-    <hyperlink ref="M148" r:id="rId295"/>
-    <hyperlink ref="M149" r:id="rId296"/>
-    <hyperlink ref="M150" r:id="rId297"/>
+    <hyperlink ref="L24" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M24" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L32" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M32" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L33" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L42" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M42" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L43" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M43" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L51" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M51" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L53" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="M53" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L61" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M61" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L63" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="M63" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L64" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M64" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L2" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L4" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="L5" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L3" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L6" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L7" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L8" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="L9" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="L10" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L11" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L12" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L13" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L14" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="L15" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="L16" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="L17" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="L18" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="L19" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="L20" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="L22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="L26" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="L27" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="L28" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L29" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="L30" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="L31" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="L34" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="L35" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="L36" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="L37" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="L38" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="L39" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="L40" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="L41" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="L44" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="L45" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="L46" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="L47" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="L48" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="L49" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="L50" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="L52" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="L54" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="L55" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="L56" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="L57" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="L58" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="L59" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="L60" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="L65" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="L62" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="L66" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="L67" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="L68" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="L69" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="L70" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="L71" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="L72" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="L73" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="L74" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="L75" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="L76" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="L77" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="L78" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="L79" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="L80" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="L81" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="L82" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="L83" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="L84" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="L85" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="L86" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="L87" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="L88" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="L89" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="L90" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="L91" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="L92" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="L93" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="L94" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="L95" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="L96" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="L97" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="L98" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="L99" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="L100" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="L101" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="L102" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="L103" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="L104" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="L105" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="L106" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="L107" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="L108" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="L109" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="L110" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="L111" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="L112" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="L113" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="L114" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="L115" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="L116" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="L117" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="L118" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="L119" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="L120" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="L121" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="L122" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="L123" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="L124" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="L125" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="L126" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="L127" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="L128" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="L129" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="L130" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="L131" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="L132" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="L133" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="L134" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="L135" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="L136" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="L137" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="L138" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="L139" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="L140" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="L141" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="L142" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="L143" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="L145" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="L144" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="L146" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="L148" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="L149" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="L150" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="L147" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="M3" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="M4" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="M5" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="M6" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="M7" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="M8" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="M9" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="M10" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="M11" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="M12" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="M13" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="M14" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="M15" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="M16" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="M17" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="M18" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="M19" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="M20" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="M21" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="M22" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="M23" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="M25" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="M26" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="M27" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="M28" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="M29" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="M30" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="M31" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="M34" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="M36" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="M35" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="M37" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="M38" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="M39" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="M40" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="M41" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="M44" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="M45" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="M46" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="M47" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="M48" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="M49" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="M50" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="M54" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="M55" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="M52" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="M56" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="M57" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="M58" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="M59" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="M60" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="M62" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="M65" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="M66" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="M67" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="M68" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="M70" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="M71" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="M69" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="M72" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="M73" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="M74" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="M75" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="M76" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="M77" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="M78" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="M79" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="M80" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="M81" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="M82" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="M84" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="M85" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="M83" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="M86" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="M87" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="M88" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="M89" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="M90" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="M91" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="M93" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="M94" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="M92" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="M95" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="M96" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="M97" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="M98" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="M99" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="M100" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="M101" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="M102" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="M103" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="M104" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="M105" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="M106" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="M107" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="M108" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="M109" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="M110" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="M111" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="M112" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="M113" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="M114" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="M115" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="M116" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="M117" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="M118" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="M119" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="M120" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="M121" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="M122" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="M123" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="M124" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="M125" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="M126" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="M127" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="M128" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="M129" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="M130" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="M131" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="M132" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="M133" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="M134" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="M135" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="M136" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="M137" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="M138" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="M139" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="M140" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="M141" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="M142" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="M143" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="M145" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="M144" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="M146" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="M147" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="M148" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="M149" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="M150" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="99.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="99.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>268</v>
       </c>
@@ -9536,7 +9538,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>43214</v>
       </c>
@@ -9562,7 +9564,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>43215</v>
       </c>
@@ -9588,7 +9590,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>43216</v>
       </c>
@@ -9614,7 +9616,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>43236</v>
       </c>
@@ -9640,7 +9642,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>43237</v>
       </c>
@@ -9666,7 +9668,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>43238</v>
       </c>
@@ -9692,7 +9694,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>326</v>
       </c>
@@ -9718,7 +9720,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>329</v>
       </c>
@@ -9744,7 +9746,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>331</v>
       </c>
@@ -9770,7 +9772,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>43223</v>
       </c>
@@ -9796,7 +9798,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>43230</v>
       </c>
@@ -9822,7 +9824,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>43237</v>
       </c>
@@ -9848,7 +9850,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>43244</v>
       </c>
@@ -9874,7 +9876,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>43256</v>
       </c>
@@ -9900,7 +9902,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>43256</v>
       </c>
@@ -9926,7 +9928,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>43258</v>
       </c>
@@ -9952,7 +9954,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>43258</v>
       </c>
@@ -9978,7 +9980,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>43258</v>
       </c>
@@ -10004,7 +10006,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>43260</v>
       </c>
@@ -10030,7 +10032,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>43263</v>
       </c>
@@ -10056,38 +10058,38 @@
         <v>391</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>43284</v>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36">
+        <v>43278</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>362</v>
+        <v>284</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>379</v>
+        <v>276</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>277</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>384</v>
+        <v>11</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>304</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>43286</v>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36">
+        <v>43279</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>333</v>
@@ -10099,16 +10101,16 @@
         <v>277</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>384</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>43291</v>
       </c>
@@ -10134,7 +10136,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>43293</v>
       </c>
@@ -10160,7 +10162,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>43298</v>
       </c>
@@ -10186,7 +10188,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>43300</v>
       </c>
@@ -10212,7 +10214,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>43305</v>
       </c>
@@ -10238,7 +10240,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>43307</v>
       </c>
@@ -10264,7 +10266,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>756</v>
       </c>
@@ -10290,7 +10292,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>757</v>
       </c>
@@ -10316,7 +10318,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>758</v>
       </c>
@@ -10342,7 +10344,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>43197</v>
       </c>
@@ -10368,7 +10370,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>43227</v>
       </c>
@@ -10394,7 +10396,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <v>43263</v>
       </c>
@@ -10420,7 +10422,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>759</v>
       </c>
@@ -10446,7 +10448,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>760</v>
       </c>
@@ -10472,7 +10474,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>761</v>
       </c>
@@ -10498,7 +10500,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>759</v>
       </c>
@@ -10524,7 +10526,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43107</v>
       </c>
@@ -10550,7 +10552,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>761</v>
       </c>
@@ -10576,7 +10578,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>762</v>
       </c>
@@ -10602,7 +10604,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>763</v>
       </c>
@@ -10628,7 +10630,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43108</v>
       </c>
@@ -10654,7 +10656,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43139</v>
       </c>
@@ -10680,7 +10682,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>322</v>
       </c>
@@ -10706,7 +10708,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>324</v>
       </c>
@@ -10732,7 +10734,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>764</v>
       </c>
@@ -10758,7 +10760,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>765</v>
       </c>
@@ -10784,7 +10786,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>329</v>
       </c>
@@ -10810,7 +10812,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>766</v>
       </c>
@@ -10836,7 +10838,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>43229</v>
       </c>
@@ -10862,7 +10864,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="36">
         <v>43263</v>
       </c>
@@ -10888,7 +10890,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>319</v>
       </c>
@@ -10914,7 +10916,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>322</v>
       </c>
@@ -10940,7 +10942,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>324</v>
       </c>
@@ -10966,7 +10968,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="36">
         <v>43264</v>
       </c>
@@ -10992,7 +10994,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36">
         <v>43265</v>
       </c>
@@ -11018,7 +11020,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="36">
         <v>43265</v>
       </c>
@@ -11044,7 +11046,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>43223</v>
       </c>
@@ -11070,7 +11072,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>43230</v>
       </c>
@@ -11096,7 +11098,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>43237</v>
       </c>
@@ -11122,7 +11124,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>43244</v>
       </c>
@@ -11148,7 +11150,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="36">
         <v>43265</v>
       </c>
@@ -11174,7 +11176,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="36">
         <v>43270</v>
       </c>
@@ -11200,7 +11202,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="36">
         <v>43270</v>
       </c>
@@ -11226,7 +11228,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36">
         <v>43277</v>
       </c>
@@ -11252,7 +11254,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36">
         <v>43277</v>
       </c>
@@ -11278,12 +11280,12 @@
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="36">
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>267</v>
@@ -11295,16 +11297,16 @@
         <v>277</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>304</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="36">
         <v>43279</v>
       </c>
@@ -11324,44 +11326,44 @@
         <v>383</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9">
-        <v>43284</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="36">
+        <v>43280</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>362</v>
+        <v>282</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>379</v>
+        <v>276</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>277</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>406</v>
+        <v>11</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>304</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9">
-        <v>43286</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="36">
+        <v>43284</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>333</v>
@@ -11373,17 +11375,17 @@
         <v>277</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="36">
         <v>43291</v>
       </c>
       <c r="B73" s="10" t="s">
@@ -11408,8 +11410,8 @@
         <v>420</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="36">
         <v>43293</v>
       </c>
       <c r="B74" s="10" t="s">
@@ -11434,8 +11436,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="36">
         <v>43298</v>
       </c>
       <c r="B75" s="10" t="s">
@@ -11460,8 +11462,8 @@
         <v>422</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="36">
         <v>43300</v>
       </c>
       <c r="B76" s="10" t="s">
@@ -11486,8 +11488,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="36">
         <v>43305</v>
       </c>
       <c r="B77" s="10" t="s">
@@ -11512,8 +11514,8 @@
         <v>424</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="36">
         <v>43307</v>
       </c>
       <c r="B78" s="10" t="s">
@@ -11538,8 +11540,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="36">
         <v>43305</v>
       </c>
       <c r="B79" s="10" t="s">
@@ -11564,8 +11566,8 @@
         <v>316</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="9">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="36">
         <v>43306</v>
       </c>
       <c r="B80" s="10" t="s">
@@ -11590,8 +11592,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="36">
         <v>43307</v>
       </c>
       <c r="B81" s="10" t="s">
@@ -11616,8 +11618,8 @@
         <v>318</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="9">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="36">
         <v>43193</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -11642,8 +11644,8 @@
         <v>279</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="9">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="36">
         <v>43194</v>
       </c>
       <c r="B83" s="10" t="s">
@@ -11668,8 +11670,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="9">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="36">
         <v>43195</v>
       </c>
       <c r="B84" s="10" t="s">
@@ -11694,8 +11696,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="9">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="36">
         <v>43228</v>
       </c>
       <c r="B85" s="10" t="s">
@@ -11720,8 +11722,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="9">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="36">
         <v>43229</v>
       </c>
       <c r="B86" s="10" t="s">
@@ -11746,8 +11748,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="9">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="36">
         <v>43230</v>
       </c>
       <c r="B87" s="10" t="s">
@@ -11772,8 +11774,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="9">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="36">
         <v>43243</v>
       </c>
       <c r="B88" s="10" t="s">
@@ -11798,8 +11800,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="9">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="36">
         <v>43244</v>
       </c>
       <c r="B89" s="10" t="s">
@@ -11824,64 +11826,64 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="36">
-        <v>43279</v>
+        <v>43284</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>276</v>
+        <v>379</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>277</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>304</v>
+        <v>380</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="36">
-        <v>43279</v>
+        <v>43284</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>379</v>
+        <v>276</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F91" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>406</v>
+      <c r="F91" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="36">
-        <v>43280</v>
+        <v>43285</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>267</v>
@@ -11896,66 +11898,66 @@
         <v>11</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="9">
-        <v>43284</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="36">
+        <v>43286</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>284</v>
+        <v>373</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>276</v>
+        <v>379</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F93" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>278</v>
+      <c r="F93" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="9">
-        <v>43285</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="36">
+        <v>43286</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>290</v>
+        <v>373</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>276</v>
+        <v>379</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>277</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>278</v>
+        <v>404</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="9">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="36">
         <v>43286</v>
       </c>
       <c r="B95" s="10" t="s">
@@ -11980,7 +11982,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>43300</v>
       </c>
@@ -12006,7 +12008,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>43301</v>
       </c>
@@ -12033,13 +12035,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H97">
+  <autoFilter ref="A1:H97" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2018" month="6" dateTimeGrouping="month"/>
+        <dateGroupItem year="2018" month="6" day="27" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="6" day="28" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="6" day="29" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="3" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="4" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="5" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
-    <sortState ref="A15:H92">
+    <sortState ref="A22:H95">
       <sortCondition ref="A1:A97"/>
     </sortState>
   </autoFilter>
@@ -12047,134 +12054,134 @@
     <sortCondition ref="G2:G97"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H82" r:id="rId1"/>
-    <hyperlink ref="H83" r:id="rId2"/>
-    <hyperlink ref="H84" r:id="rId3"/>
-    <hyperlink ref="H2" r:id="rId4"/>
-    <hyperlink ref="H3" r:id="rId5"/>
-    <hyperlink ref="H4" r:id="rId6"/>
-    <hyperlink ref="H85" r:id="rId7"/>
-    <hyperlink ref="H86" r:id="rId8"/>
-    <hyperlink ref="H87" r:id="rId9"/>
-    <hyperlink ref="H5" r:id="rId10"/>
-    <hyperlink ref="H6" r:id="rId11"/>
-    <hyperlink ref="H7" r:id="rId12"/>
-    <hyperlink ref="H88" r:id="rId13"/>
-    <hyperlink ref="H89" r:id="rId14"/>
-    <hyperlink ref="H53" r:id="rId15"/>
-    <hyperlink ref="H57" r:id="rId16"/>
-    <hyperlink ref="H64" r:id="rId17"/>
-    <hyperlink ref="H69" r:id="rId18"/>
-    <hyperlink ref="H90" r:id="rId19"/>
-    <hyperlink ref="H92" r:id="rId20"/>
-    <hyperlink ref="H93" r:id="rId21"/>
-    <hyperlink ref="H94" r:id="rId22"/>
-    <hyperlink ref="H95" r:id="rId23"/>
-    <hyperlink ref="H96" r:id="rId24"/>
-    <hyperlink ref="H97" r:id="rId25"/>
-    <hyperlink ref="H79" r:id="rId26"/>
-    <hyperlink ref="H80" r:id="rId27"/>
-    <hyperlink ref="H81" r:id="rId28"/>
-    <hyperlink ref="H54" r:id="rId29"/>
-    <hyperlink ref="H55" r:id="rId30"/>
-    <hyperlink ref="H56" r:id="rId31"/>
-    <hyperlink ref="H8" r:id="rId32"/>
-    <hyperlink ref="H9" r:id="rId33"/>
-    <hyperlink ref="H10" r:id="rId34"/>
-    <hyperlink ref="H11" r:id="rId35"/>
-    <hyperlink ref="H12" r:id="rId36"/>
-    <hyperlink ref="H13" r:id="rId37"/>
-    <hyperlink ref="H14" r:id="rId38"/>
-    <hyperlink ref="H15" r:id="rId39"/>
-    <hyperlink ref="H17" r:id="rId40"/>
-    <hyperlink ref="H21" r:id="rId41"/>
-    <hyperlink ref="H58" r:id="rId42"/>
-    <hyperlink ref="H65" r:id="rId43"/>
-    <hyperlink ref="H67" r:id="rId44"/>
-    <hyperlink ref="H70" r:id="rId45"/>
-    <hyperlink ref="H22" r:id="rId46"/>
-    <hyperlink ref="H23" r:id="rId47"/>
-    <hyperlink ref="H24" r:id="rId48"/>
-    <hyperlink ref="H25" r:id="rId49"/>
-    <hyperlink ref="H26" r:id="rId50"/>
-    <hyperlink ref="H27" r:id="rId51"/>
-    <hyperlink ref="H28" r:id="rId52"/>
-    <hyperlink ref="H29" r:id="rId53"/>
-    <hyperlink ref="H60" r:id="rId54"/>
-    <hyperlink ref="H61" r:id="rId55"/>
-    <hyperlink ref="H62" r:id="rId56"/>
-    <hyperlink ref="H63" r:id="rId57"/>
-    <hyperlink ref="H16" r:id="rId58"/>
-    <hyperlink ref="H19" r:id="rId59"/>
-    <hyperlink ref="H35" r:id="rId60"/>
-    <hyperlink ref="H59" r:id="rId61"/>
-    <hyperlink ref="H66" r:id="rId62"/>
-    <hyperlink ref="H68" r:id="rId63"/>
-    <hyperlink ref="H91" r:id="rId64"/>
-    <hyperlink ref="H71" r:id="rId65"/>
-    <hyperlink ref="H72" r:id="rId66"/>
-    <hyperlink ref="H73" r:id="rId67"/>
-    <hyperlink ref="H74" r:id="rId68"/>
-    <hyperlink ref="H75" r:id="rId69"/>
-    <hyperlink ref="H76" r:id="rId70"/>
-    <hyperlink ref="H77" r:id="rId71"/>
-    <hyperlink ref="H78" r:id="rId72"/>
-    <hyperlink ref="H30" r:id="rId73"/>
-    <hyperlink ref="H31" r:id="rId74"/>
-    <hyperlink ref="H32" r:id="rId75"/>
-    <hyperlink ref="H34" r:id="rId76"/>
-    <hyperlink ref="H33" r:id="rId77"/>
-    <hyperlink ref="H18" r:id="rId78"/>
-    <hyperlink ref="H36" r:id="rId79"/>
-    <hyperlink ref="H37" r:id="rId80"/>
-    <hyperlink ref="H38" r:id="rId81"/>
-    <hyperlink ref="H39" r:id="rId82"/>
-    <hyperlink ref="H40" r:id="rId83"/>
-    <hyperlink ref="H41" r:id="rId84"/>
-    <hyperlink ref="H42" r:id="rId85"/>
-    <hyperlink ref="H43" r:id="rId86"/>
-    <hyperlink ref="H44" r:id="rId87"/>
-    <hyperlink ref="H45" r:id="rId88"/>
-    <hyperlink ref="H47" r:id="rId89"/>
-    <hyperlink ref="H46" r:id="rId90"/>
-    <hyperlink ref="H48" r:id="rId91"/>
-    <hyperlink ref="H49" r:id="rId92"/>
-    <hyperlink ref="H51" r:id="rId93"/>
-    <hyperlink ref="H50" r:id="rId94"/>
-    <hyperlink ref="H52" r:id="rId95"/>
-    <hyperlink ref="H20" r:id="rId96"/>
+    <hyperlink ref="H82" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="H83" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H84" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="H2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="H85" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="H86" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="H87" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="H5" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="H6" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="H7" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="H88" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="H89" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="H53" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="H57" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="H64" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="H22" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="H69" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="H71" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="H91" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="H92" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="H95" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="H96" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="H97" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="H79" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="H80" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="H81" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="H54" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="H55" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="H56" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="H8" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="H9" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="H10" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="H11" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="H12" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="H13" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="H14" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="H15" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="H17" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="H21" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="H58" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="H65" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="H67" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="H23" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="H72" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="H93" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="H24" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="H25" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="H26" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="H27" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="H28" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="H29" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="H60" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="H61" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="H62" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="H63" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="H16" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="H19" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="H35" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="H59" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="H66" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="H68" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="H70" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="H90" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="H94" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="H73" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="H74" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="H75" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="H76" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="H77" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="H78" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="H30" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="H31" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="H32" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="H34" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="H33" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="H18" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="H36" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="H37" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="H38" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="H39" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="H40" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="H41" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="H42" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="H43" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="H44" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="H45" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="H47" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="H46" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="H48" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="H49" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="H51" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="H50" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="H52" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="H20" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="121.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="121.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="87.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="99.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="102.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="87.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="99.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="102.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -12209,7 +12216,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43220</v>
       </c>
@@ -12244,7 +12251,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43220</v>
       </c>
@@ -12279,7 +12286,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43220</v>
       </c>
@@ -12314,7 +12321,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43222</v>
       </c>
@@ -12349,7 +12356,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43222</v>
       </c>
@@ -12384,7 +12391,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43223</v>
       </c>
@@ -12419,7 +12426,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43223</v>
       </c>
@@ -12454,7 +12461,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43224</v>
       </c>
@@ -12489,7 +12496,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43224</v>
       </c>
@@ -12524,7 +12531,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43228</v>
       </c>
@@ -12559,7 +12566,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43229</v>
       </c>
@@ -12594,7 +12601,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43230</v>
       </c>
@@ -12629,7 +12636,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43230</v>
       </c>
@@ -12664,7 +12671,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43233</v>
       </c>
@@ -12699,7 +12706,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43234</v>
       </c>
@@ -12734,7 +12741,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43234</v>
       </c>
@@ -12769,7 +12776,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43234</v>
       </c>
@@ -12804,7 +12811,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43235</v>
       </c>
@@ -12839,7 +12846,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43236</v>
       </c>
@@ -12874,7 +12881,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43237</v>
       </c>
@@ -12909,7 +12916,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43237</v>
       </c>
@@ -12944,7 +12951,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43242</v>
       </c>
@@ -12979,7 +12986,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43242</v>
       </c>
@@ -13014,7 +13021,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43243</v>
       </c>
@@ -13049,7 +13056,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43249</v>
       </c>
@@ -13084,7 +13091,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43250</v>
       </c>
@@ -13119,7 +13126,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43250</v>
       </c>
@@ -13154,7 +13161,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43251</v>
       </c>
@@ -13189,7 +13196,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43251</v>
       </c>
@@ -13224,7 +13231,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43252</v>
       </c>
@@ -13259,7 +13266,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43252</v>
       </c>
@@ -13294,7 +13301,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43255</v>
       </c>
@@ -13329,7 +13336,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43255</v>
       </c>
@@ -13364,7 +13371,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43255</v>
       </c>
@@ -13399,7 +13406,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43256</v>
       </c>
@@ -13434,7 +13441,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43256</v>
       </c>
@@ -13469,7 +13476,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43258</v>
       </c>
@@ -13504,7 +13511,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43262</v>
       </c>
@@ -13539,7 +13546,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43262</v>
       </c>
@@ -13574,7 +13581,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43262</v>
       </c>
@@ -13609,7 +13616,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
         <v>43262</v>
       </c>
@@ -13644,7 +13651,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43263</v>
       </c>
@@ -13679,7 +13686,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43264</v>
       </c>
@@ -13714,7 +13721,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43265</v>
       </c>
@@ -13749,7 +13756,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43269</v>
       </c>
@@ -13784,7 +13791,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43269</v>
       </c>
@@ -13819,7 +13826,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43271</v>
       </c>
@@ -13854,7 +13861,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43272</v>
       </c>
@@ -13889,7 +13896,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43272</v>
       </c>
@@ -13924,7 +13931,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43276</v>
       </c>
@@ -13959,24 +13966,24 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>43283</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>23</v>
+        <v>43279</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>359</v>
+      <c r="D52" s="16" t="s">
+        <v>356</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>35</v>
+      <c r="F52" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>42</v>
@@ -13988,48 +13995,48 @@
         <v>335</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>43290</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>33</v>
+        <v>43283</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>657</v>
+        <v>333</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>442</v>
+        <v>42</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>334</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>448</v>
+        <v>335</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>476</v>
+        <v>360</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43290</v>
       </c>
@@ -14039,32 +14046,32 @@
       <c r="C54" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>659</v>
+      <c r="D54" s="1" t="s">
+        <v>657</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="7" t="s">
         <v>438</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>427</v>
+      <c r="I54" s="7" t="s">
+        <v>448</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>520</v>
+        <v>476</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43290</v>
       </c>
@@ -14078,28 +14085,28 @@
         <v>659</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="1" t="s">
         <v>438</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="I55" s="7" t="s">
-        <v>448</v>
+      <c r="I55" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43290</v>
       </c>
@@ -14109,8 +14116,8 @@
       <c r="C56" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>43</v>
+      <c r="D56" s="7" t="s">
+        <v>659</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>42</v>
@@ -14128,13 +14135,13 @@
         <v>448</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43291</v>
       </c>
@@ -14169,7 +14176,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43291</v>
       </c>
@@ -14204,7 +14211,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43291</v>
       </c>
@@ -14239,7 +14246,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43292</v>
       </c>
@@ -14274,7 +14281,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43292</v>
       </c>
@@ -14309,7 +14316,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43294</v>
       </c>
@@ -14344,7 +14351,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43294</v>
       </c>
@@ -14379,7 +14386,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43313</v>
       </c>
@@ -14414,7 +14421,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43313</v>
       </c>
@@ -14449,7 +14456,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43314</v>
       </c>
@@ -14484,7 +14491,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43314</v>
       </c>
@@ -14519,7 +14526,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43314</v>
       </c>
@@ -14554,7 +14561,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43315</v>
       </c>
@@ -14589,7 +14596,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43315</v>
       </c>
@@ -14624,7 +14631,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43318</v>
       </c>
@@ -14659,7 +14666,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43318</v>
       </c>
@@ -14694,7 +14701,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43346</v>
       </c>
@@ -14729,7 +14736,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43346</v>
       </c>
@@ -14764,7 +14771,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43347</v>
       </c>
@@ -14799,7 +14806,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43347</v>
       </c>
@@ -14834,7 +14841,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43347</v>
       </c>
@@ -14869,7 +14876,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43348</v>
       </c>
@@ -14904,7 +14911,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43348</v>
       </c>
@@ -14939,7 +14946,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43350</v>
       </c>
@@ -14974,7 +14981,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43353</v>
       </c>
@@ -15009,7 +15016,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43353</v>
       </c>
@@ -15044,7 +15051,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43357</v>
       </c>
@@ -15079,7 +15086,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43374</v>
       </c>
@@ -15114,7 +15121,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43374</v>
       </c>
@@ -15149,7 +15156,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43375</v>
       </c>
@@ -15184,7 +15191,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43375</v>
       </c>
@@ -15219,7 +15226,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43375</v>
       </c>
@@ -15254,7 +15261,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43376</v>
       </c>
@@ -15289,7 +15296,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43376</v>
       </c>
@@ -15324,7 +15331,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>43378</v>
       </c>
@@ -15359,7 +15366,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>43378</v>
       </c>
@@ -15394,7 +15401,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>43381</v>
       </c>
@@ -15429,7 +15436,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>43382</v>
       </c>
@@ -15464,7 +15471,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>43406</v>
       </c>
@@ -15499,7 +15506,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>43406</v>
       </c>
@@ -15534,7 +15541,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>43409</v>
       </c>
@@ -15569,7 +15576,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43409</v>
       </c>
@@ -15604,7 +15611,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>43410</v>
       </c>
@@ -15639,7 +15646,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>43410</v>
       </c>
@@ -15674,7 +15681,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>43410</v>
       </c>
@@ -15709,7 +15716,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>43411</v>
       </c>
@@ -15744,7 +15751,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>43411</v>
       </c>
@@ -15779,7 +15786,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43437</v>
       </c>
@@ -15814,7 +15821,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>43437</v>
       </c>
@@ -15849,7 +15856,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>43438</v>
       </c>
@@ -15884,7 +15891,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>43438</v>
       </c>
@@ -15919,7 +15926,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>43438</v>
       </c>
@@ -15954,7 +15961,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>43439</v>
       </c>
@@ -15989,7 +15996,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43439</v>
       </c>
@@ -16024,7 +16031,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43441</v>
       </c>
@@ -16059,7 +16066,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43441</v>
       </c>
@@ -16094,50 +16101,51 @@
         <v>654</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>43279</v>
+        <v>43290</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>356</v>
+        <v>267</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H113" s="16" t="s">
-        <v>334</v>
+        <v>438</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>442</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>335</v>
+        <v>448</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>357</v>
+        <v>500</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>358</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K113">
+  <autoFilter ref="A1:K113" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="06/011/2018"/>
-        <dateGroupItem year="2018" month="6" dateTimeGrouping="month"/>
+        <dateGroupItem year="2018" month="6" day="28" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="2" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="9" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
-    <sortState ref="A31:K113">
+    <sortState ref="A52:K113">
       <sortCondition ref="A1:A113"/>
     </sortState>
   </autoFilter>
@@ -16145,224 +16153,224 @@
     <sortCondition ref="A2:A113"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="J33" r:id="rId1"/>
-    <hyperlink ref="K33" r:id="rId2"/>
-    <hyperlink ref="J38" r:id="rId3"/>
-    <hyperlink ref="K38" r:id="rId4"/>
-    <hyperlink ref="J42" r:id="rId5"/>
-    <hyperlink ref="K42" r:id="rId6"/>
-    <hyperlink ref="J45" r:id="rId7"/>
-    <hyperlink ref="K45" r:id="rId8"/>
-    <hyperlink ref="J46" r:id="rId9"/>
-    <hyperlink ref="K46" r:id="rId10"/>
-    <hyperlink ref="J49" r:id="rId11"/>
-    <hyperlink ref="K49" r:id="rId12"/>
-    <hyperlink ref="J51" r:id="rId13"/>
-    <hyperlink ref="K51" r:id="rId14"/>
-    <hyperlink ref="J113" r:id="rId15"/>
-    <hyperlink ref="K113" r:id="rId16"/>
-    <hyperlink ref="J52" r:id="rId17"/>
-    <hyperlink ref="K52" r:id="rId18"/>
-    <hyperlink ref="J35" r:id="rId19"/>
-    <hyperlink ref="J74" r:id="rId20"/>
-    <hyperlink ref="J85" r:id="rId21"/>
-    <hyperlink ref="J98" r:id="rId22"/>
-    <hyperlink ref="J105" r:id="rId23"/>
-    <hyperlink ref="J3" r:id="rId24"/>
-    <hyperlink ref="J47" r:id="rId25"/>
-    <hyperlink ref="J73" r:id="rId26"/>
-    <hyperlink ref="J84" r:id="rId27"/>
-    <hyperlink ref="J97" r:id="rId28"/>
-    <hyperlink ref="J104" r:id="rId29"/>
-    <hyperlink ref="J2" r:id="rId30"/>
-    <hyperlink ref="J16" r:id="rId31"/>
-    <hyperlink ref="J53" r:id="rId32"/>
-    <hyperlink ref="J39" r:id="rId33"/>
-    <hyperlink ref="J40" r:id="rId34"/>
-    <hyperlink ref="J15" r:id="rId35"/>
-    <hyperlink ref="J34" r:id="rId36"/>
-    <hyperlink ref="J71" r:id="rId37"/>
-    <hyperlink ref="J81" r:id="rId38"/>
-    <hyperlink ref="J17" r:id="rId39"/>
-    <hyperlink ref="K35" r:id="rId40"/>
-    <hyperlink ref="K74" r:id="rId41" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19559"/>
-    <hyperlink ref="K85" r:id="rId42" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19560"/>
-    <hyperlink ref="K98" r:id="rId43" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19561"/>
-    <hyperlink ref="K105" r:id="rId44" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19562"/>
-    <hyperlink ref="K3" r:id="rId45" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16876"/>
-    <hyperlink ref="K47" r:id="rId46" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18168"/>
-    <hyperlink ref="K73" r:id="rId47" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19525"/>
-    <hyperlink ref="K84" r:id="rId48" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19526"/>
-    <hyperlink ref="K97" r:id="rId49" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19527"/>
-    <hyperlink ref="K104" r:id="rId50" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19528"/>
-    <hyperlink ref="K2" r:id="rId51" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16877"/>
-    <hyperlink ref="K16" r:id="rId52" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18165"/>
-    <hyperlink ref="K53" r:id="rId53" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19563"/>
-    <hyperlink ref="K39" r:id="rId54"/>
-    <hyperlink ref="K40" r:id="rId55"/>
-    <hyperlink ref="K15" r:id="rId56" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19434"/>
-    <hyperlink ref="K34" r:id="rId57"/>
-    <hyperlink ref="K71" r:id="rId58" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19603"/>
-    <hyperlink ref="K81" r:id="rId59" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18171"/>
-    <hyperlink ref="K17" r:id="rId60" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19435"/>
-    <hyperlink ref="J75" r:id="rId61"/>
-    <hyperlink ref="J86" r:id="rId62"/>
-    <hyperlink ref="J99" r:id="rId63"/>
-    <hyperlink ref="J106" r:id="rId64"/>
-    <hyperlink ref="J4" r:id="rId65"/>
-    <hyperlink ref="J82" r:id="rId66"/>
-    <hyperlink ref="J41" r:id="rId67"/>
-    <hyperlink ref="J56" r:id="rId68"/>
-    <hyperlink ref="J72" r:id="rId69"/>
-    <hyperlink ref="J18" r:id="rId70"/>
-    <hyperlink ref="J54" r:id="rId71"/>
-    <hyperlink ref="J55" r:id="rId72"/>
-    <hyperlink ref="K75" r:id="rId73" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19566"/>
-    <hyperlink ref="K86" r:id="rId74" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19567"/>
-    <hyperlink ref="K99" r:id="rId75" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19568"/>
-    <hyperlink ref="K106" r:id="rId76" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19569"/>
-    <hyperlink ref="K4" r:id="rId77" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16879"/>
-    <hyperlink ref="K82" r:id="rId78" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18170"/>
-    <hyperlink ref="K41" r:id="rId79"/>
-    <hyperlink ref="K56" r:id="rId80" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19571"/>
-    <hyperlink ref="K72" r:id="rId81" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19610"/>
-    <hyperlink ref="K18" r:id="rId82" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18166"/>
-    <hyperlink ref="K54" r:id="rId83" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18169"/>
-    <hyperlink ref="K55" r:id="rId84" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19580"/>
-    <hyperlink ref="J36" r:id="rId85"/>
-    <hyperlink ref="J57" r:id="rId86"/>
-    <hyperlink ref="J19" r:id="rId87"/>
-    <hyperlink ref="K36" r:id="rId88"/>
-    <hyperlink ref="K57" r:id="rId89" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19523"/>
-    <hyperlink ref="K19" r:id="rId90" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19436"/>
-    <hyperlink ref="J58" r:id="rId91"/>
-    <hyperlink ref="J24" r:id="rId92"/>
-    <hyperlink ref="J43" r:id="rId93"/>
-    <hyperlink ref="J77" r:id="rId94"/>
-    <hyperlink ref="J88" r:id="rId95"/>
-    <hyperlink ref="J101" r:id="rId96"/>
-    <hyperlink ref="J108" r:id="rId97"/>
-    <hyperlink ref="J94" r:id="rId98"/>
-    <hyperlink ref="J76" r:id="rId99"/>
-    <hyperlink ref="J87" r:id="rId100"/>
-    <hyperlink ref="J100" r:id="rId101"/>
-    <hyperlink ref="J107" r:id="rId102"/>
-    <hyperlink ref="J59" r:id="rId103"/>
-    <hyperlink ref="J11" r:id="rId104"/>
-    <hyperlink ref="K58" r:id="rId105" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19557"/>
-    <hyperlink ref="K24" r:id="rId106" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18827"/>
-    <hyperlink ref="K43" r:id="rId107" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19127"/>
-    <hyperlink ref="K77" r:id="rId108" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19573"/>
-    <hyperlink ref="K88" r:id="rId109" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19574"/>
-    <hyperlink ref="K101" r:id="rId110" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19576"/>
-    <hyperlink ref="K108" r:id="rId111" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19577"/>
-    <hyperlink ref="K94" r:id="rId112" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18172"/>
-    <hyperlink ref="K76" r:id="rId113" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19582"/>
-    <hyperlink ref="K87" r:id="rId114" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19583"/>
-    <hyperlink ref="K100" r:id="rId115" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19584"/>
-    <hyperlink ref="K107" r:id="rId116" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19585"/>
-    <hyperlink ref="K59" r:id="rId117" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19066"/>
-    <hyperlink ref="K11" r:id="rId118" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19117"/>
-    <hyperlink ref="J12" r:id="rId119"/>
-    <hyperlink ref="J28" r:id="rId120"/>
-    <hyperlink ref="J64" r:id="rId121"/>
-    <hyperlink ref="J5" r:id="rId122"/>
-    <hyperlink ref="J48" r:id="rId123"/>
-    <hyperlink ref="J27" r:id="rId124"/>
-    <hyperlink ref="J60" r:id="rId125"/>
-    <hyperlink ref="J78" r:id="rId126"/>
-    <hyperlink ref="J89" r:id="rId127"/>
-    <hyperlink ref="J102" r:id="rId128"/>
-    <hyperlink ref="J109" r:id="rId129"/>
-    <hyperlink ref="J37" r:id="rId130"/>
-    <hyperlink ref="K12" r:id="rId131" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19431"/>
-    <hyperlink ref="K28" r:id="rId132" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19522"/>
-    <hyperlink ref="K64" r:id="rId133" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19524"/>
-    <hyperlink ref="K5" r:id="rId134" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16880"/>
-    <hyperlink ref="K48" r:id="rId135" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18159"/>
-    <hyperlink ref="K27" r:id="rId136" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19013"/>
-    <hyperlink ref="K60" r:id="rId137" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19602"/>
-    <hyperlink ref="K78" r:id="rId138" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19604"/>
-    <hyperlink ref="K89" r:id="rId139" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19605"/>
-    <hyperlink ref="K102" r:id="rId140" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19606"/>
-    <hyperlink ref="K109" r:id="rId141" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19607"/>
-    <hyperlink ref="K37" r:id="rId142"/>
-    <hyperlink ref="J20" r:id="rId143"/>
-    <hyperlink ref="J65" r:id="rId144"/>
-    <hyperlink ref="K20" r:id="rId145" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19437"/>
-    <hyperlink ref="K65" r:id="rId146" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19558"/>
-    <hyperlink ref="J7" r:id="rId147"/>
-    <hyperlink ref="J112" r:id="rId148"/>
-    <hyperlink ref="J96" r:id="rId149"/>
-    <hyperlink ref="J92" r:id="rId150"/>
-    <hyperlink ref="J80" r:id="rId151"/>
-    <hyperlink ref="J70" r:id="rId152"/>
-    <hyperlink ref="J63" r:id="rId153"/>
-    <hyperlink ref="J32" r:id="rId154"/>
-    <hyperlink ref="J10" r:id="rId155"/>
-    <hyperlink ref="J111" r:id="rId156"/>
-    <hyperlink ref="J95" r:id="rId157"/>
-    <hyperlink ref="J91" r:id="rId158"/>
-    <hyperlink ref="J83" r:id="rId159"/>
-    <hyperlink ref="J69" r:id="rId160"/>
-    <hyperlink ref="J62" r:id="rId161"/>
-    <hyperlink ref="J29" r:id="rId162"/>
-    <hyperlink ref="J13" r:id="rId163"/>
-    <hyperlink ref="J66" r:id="rId164"/>
-    <hyperlink ref="J68" r:id="rId165"/>
-    <hyperlink ref="J6" r:id="rId166"/>
-    <hyperlink ref="J50" r:id="rId167"/>
-    <hyperlink ref="J25" r:id="rId168"/>
-    <hyperlink ref="J44" r:id="rId169"/>
-    <hyperlink ref="J61" r:id="rId170"/>
-    <hyperlink ref="J79" r:id="rId171"/>
-    <hyperlink ref="J90" r:id="rId172"/>
-    <hyperlink ref="J103" r:id="rId173"/>
-    <hyperlink ref="J110" r:id="rId174"/>
-    <hyperlink ref="J8" r:id="rId175"/>
-    <hyperlink ref="J14" r:id="rId176"/>
-    <hyperlink ref="J22" r:id="rId177"/>
-    <hyperlink ref="J30" r:id="rId178"/>
-    <hyperlink ref="J67" r:id="rId179"/>
-    <hyperlink ref="J21" r:id="rId180"/>
-    <hyperlink ref="J9" r:id="rId181"/>
-    <hyperlink ref="K7" r:id="rId182" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19556"/>
-    <hyperlink ref="K112" r:id="rId183" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19640"/>
-    <hyperlink ref="K96" r:id="rId184" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19639"/>
-    <hyperlink ref="K92" r:id="rId185" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19638"/>
-    <hyperlink ref="K80" r:id="rId186" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19637"/>
-    <hyperlink ref="K70" r:id="rId187" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19636"/>
-    <hyperlink ref="K63" r:id="rId188" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19635"/>
-    <hyperlink ref="K32" r:id="rId189"/>
-    <hyperlink ref="K10" r:id="rId190" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19634"/>
-    <hyperlink ref="K111" r:id="rId191" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19630"/>
-    <hyperlink ref="K95" r:id="rId192" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19629"/>
-    <hyperlink ref="K91" r:id="rId193" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19628"/>
-    <hyperlink ref="K83" r:id="rId194" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19627"/>
-    <hyperlink ref="K69" r:id="rId195" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19626"/>
-    <hyperlink ref="K62" r:id="rId196" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19625"/>
-    <hyperlink ref="K29" r:id="rId197" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19016"/>
-    <hyperlink ref="K13" r:id="rId198" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19433"/>
-    <hyperlink ref="K66" r:id="rId199" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19565"/>
-    <hyperlink ref="K68" r:id="rId200" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19572"/>
-    <hyperlink ref="K6" r:id="rId201" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16881"/>
-    <hyperlink ref="K50" r:id="rId202" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18164"/>
-    <hyperlink ref="K25" r:id="rId203" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18828"/>
-    <hyperlink ref="K44" r:id="rId204" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19021"/>
-    <hyperlink ref="K61" r:id="rId205" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19609"/>
-    <hyperlink ref="K79" r:id="rId206" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19611"/>
-    <hyperlink ref="K90" r:id="rId207" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19612"/>
-    <hyperlink ref="K103" r:id="rId208" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19613"/>
-    <hyperlink ref="K110" r:id="rId209" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19614"/>
-    <hyperlink ref="K8" r:id="rId210" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16940"/>
-    <hyperlink ref="K14" r:id="rId211" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19432"/>
-    <hyperlink ref="K22" r:id="rId212" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19439"/>
-    <hyperlink ref="K30" r:id="rId213" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19579"/>
-    <hyperlink ref="K67" r:id="rId214" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19581"/>
-    <hyperlink ref="K21" r:id="rId215" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19438"/>
-    <hyperlink ref="K9" r:id="rId216" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19623"/>
-    <hyperlink ref="K31" r:id="rId217"/>
-    <hyperlink ref="J31" r:id="rId218"/>
+    <hyperlink ref="J33" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="K33" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="J38" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="K38" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="J42" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="K42" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="J45" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="K45" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="J46" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="K46" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="J49" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="K49" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="J51" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="K51" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="J52" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="K52" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="J53" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="K53" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="J35" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="J74" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="J85" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="J98" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="J105" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="J3" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="J47" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="J73" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="J84" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="J97" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="J104" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="J2" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="J16" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="J54" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="J39" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="J40" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="J15" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="J34" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="J71" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="J81" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="J17" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="K35" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="K74" r:id="rId41" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19559" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="K85" r:id="rId42" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19560" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="K98" r:id="rId43" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19561" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="K105" r:id="rId44" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19562" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="K3" r:id="rId45" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16876" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="K47" r:id="rId46" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18168" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="K73" r:id="rId47" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19525" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="K84" r:id="rId48" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19526" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="K97" r:id="rId49" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19527" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="K104" r:id="rId50" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19528" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="K2" r:id="rId51" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16877" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="K16" r:id="rId52" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18165" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="K54" r:id="rId53" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19563" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="K39" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="K40" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="K15" r:id="rId56" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19434" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="K34" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="K71" r:id="rId58" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19603" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="K81" r:id="rId59" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18171" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="K17" r:id="rId60" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19435" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="J75" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="J86" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="J99" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="J106" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="J4" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="J82" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="J41" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="J113" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="J72" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="J18" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="J55" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="J56" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
+    <hyperlink ref="K75" r:id="rId73" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19566" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
+    <hyperlink ref="K86" r:id="rId74" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19567" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="K99" r:id="rId75" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19568" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="K106" r:id="rId76" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19569" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="K4" r:id="rId77" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16879" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
+    <hyperlink ref="K82" r:id="rId78" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18170" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
+    <hyperlink ref="K41" r:id="rId79" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
+    <hyperlink ref="K113" r:id="rId80" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19571" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
+    <hyperlink ref="K72" r:id="rId81" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19610" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
+    <hyperlink ref="K18" r:id="rId82" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18166" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
+    <hyperlink ref="K55" r:id="rId83" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18169" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
+    <hyperlink ref="K56" r:id="rId84" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19580" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
+    <hyperlink ref="J36" r:id="rId85" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
+    <hyperlink ref="J57" r:id="rId86" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
+    <hyperlink ref="J19" r:id="rId87" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
+    <hyperlink ref="K36" r:id="rId88" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
+    <hyperlink ref="K57" r:id="rId89" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19523" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
+    <hyperlink ref="K19" r:id="rId90" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19436" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
+    <hyperlink ref="J58" r:id="rId91" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
+    <hyperlink ref="J24" r:id="rId92" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
+    <hyperlink ref="J43" r:id="rId93" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
+    <hyperlink ref="J77" r:id="rId94" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
+    <hyperlink ref="J88" r:id="rId95" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
+    <hyperlink ref="J101" r:id="rId96" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
+    <hyperlink ref="J108" r:id="rId97" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
+    <hyperlink ref="J94" r:id="rId98" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
+    <hyperlink ref="J76" r:id="rId99" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
+    <hyperlink ref="J87" r:id="rId100" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
+    <hyperlink ref="J100" r:id="rId101" xr:uid="{00000000-0004-0000-0200-000064000000}"/>
+    <hyperlink ref="J107" r:id="rId102" xr:uid="{00000000-0004-0000-0200-000065000000}"/>
+    <hyperlink ref="J59" r:id="rId103" xr:uid="{00000000-0004-0000-0200-000066000000}"/>
+    <hyperlink ref="J11" r:id="rId104" xr:uid="{00000000-0004-0000-0200-000067000000}"/>
+    <hyperlink ref="K58" r:id="rId105" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19557" xr:uid="{00000000-0004-0000-0200-000068000000}"/>
+    <hyperlink ref="K24" r:id="rId106" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18827" xr:uid="{00000000-0004-0000-0200-000069000000}"/>
+    <hyperlink ref="K43" r:id="rId107" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19127" xr:uid="{00000000-0004-0000-0200-00006A000000}"/>
+    <hyperlink ref="K77" r:id="rId108" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19573" xr:uid="{00000000-0004-0000-0200-00006B000000}"/>
+    <hyperlink ref="K88" r:id="rId109" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19574" xr:uid="{00000000-0004-0000-0200-00006C000000}"/>
+    <hyperlink ref="K101" r:id="rId110" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19576" xr:uid="{00000000-0004-0000-0200-00006D000000}"/>
+    <hyperlink ref="K108" r:id="rId111" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19577" xr:uid="{00000000-0004-0000-0200-00006E000000}"/>
+    <hyperlink ref="K94" r:id="rId112" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18172" xr:uid="{00000000-0004-0000-0200-00006F000000}"/>
+    <hyperlink ref="K76" r:id="rId113" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19582" xr:uid="{00000000-0004-0000-0200-000070000000}"/>
+    <hyperlink ref="K87" r:id="rId114" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19583" xr:uid="{00000000-0004-0000-0200-000071000000}"/>
+    <hyperlink ref="K100" r:id="rId115" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19584" xr:uid="{00000000-0004-0000-0200-000072000000}"/>
+    <hyperlink ref="K107" r:id="rId116" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19585" xr:uid="{00000000-0004-0000-0200-000073000000}"/>
+    <hyperlink ref="K59" r:id="rId117" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19066" xr:uid="{00000000-0004-0000-0200-000074000000}"/>
+    <hyperlink ref="K11" r:id="rId118" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19117" xr:uid="{00000000-0004-0000-0200-000075000000}"/>
+    <hyperlink ref="J12" r:id="rId119" xr:uid="{00000000-0004-0000-0200-000076000000}"/>
+    <hyperlink ref="J28" r:id="rId120" xr:uid="{00000000-0004-0000-0200-000077000000}"/>
+    <hyperlink ref="J64" r:id="rId121" xr:uid="{00000000-0004-0000-0200-000078000000}"/>
+    <hyperlink ref="J5" r:id="rId122" xr:uid="{00000000-0004-0000-0200-000079000000}"/>
+    <hyperlink ref="J48" r:id="rId123" xr:uid="{00000000-0004-0000-0200-00007A000000}"/>
+    <hyperlink ref="J27" r:id="rId124" xr:uid="{00000000-0004-0000-0200-00007B000000}"/>
+    <hyperlink ref="J60" r:id="rId125" xr:uid="{00000000-0004-0000-0200-00007C000000}"/>
+    <hyperlink ref="J78" r:id="rId126" xr:uid="{00000000-0004-0000-0200-00007D000000}"/>
+    <hyperlink ref="J89" r:id="rId127" xr:uid="{00000000-0004-0000-0200-00007E000000}"/>
+    <hyperlink ref="J102" r:id="rId128" xr:uid="{00000000-0004-0000-0200-00007F000000}"/>
+    <hyperlink ref="J109" r:id="rId129" xr:uid="{00000000-0004-0000-0200-000080000000}"/>
+    <hyperlink ref="J37" r:id="rId130" xr:uid="{00000000-0004-0000-0200-000081000000}"/>
+    <hyperlink ref="K12" r:id="rId131" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19431" xr:uid="{00000000-0004-0000-0200-000082000000}"/>
+    <hyperlink ref="K28" r:id="rId132" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19522" xr:uid="{00000000-0004-0000-0200-000083000000}"/>
+    <hyperlink ref="K64" r:id="rId133" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19524" xr:uid="{00000000-0004-0000-0200-000084000000}"/>
+    <hyperlink ref="K5" r:id="rId134" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16880" xr:uid="{00000000-0004-0000-0200-000085000000}"/>
+    <hyperlink ref="K48" r:id="rId135" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18159" xr:uid="{00000000-0004-0000-0200-000086000000}"/>
+    <hyperlink ref="K27" r:id="rId136" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19013" xr:uid="{00000000-0004-0000-0200-000087000000}"/>
+    <hyperlink ref="K60" r:id="rId137" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19602" xr:uid="{00000000-0004-0000-0200-000088000000}"/>
+    <hyperlink ref="K78" r:id="rId138" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19604" xr:uid="{00000000-0004-0000-0200-000089000000}"/>
+    <hyperlink ref="K89" r:id="rId139" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19605" xr:uid="{00000000-0004-0000-0200-00008A000000}"/>
+    <hyperlink ref="K102" r:id="rId140" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19606" xr:uid="{00000000-0004-0000-0200-00008B000000}"/>
+    <hyperlink ref="K109" r:id="rId141" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19607" xr:uid="{00000000-0004-0000-0200-00008C000000}"/>
+    <hyperlink ref="K37" r:id="rId142" xr:uid="{00000000-0004-0000-0200-00008D000000}"/>
+    <hyperlink ref="J20" r:id="rId143" xr:uid="{00000000-0004-0000-0200-00008E000000}"/>
+    <hyperlink ref="J65" r:id="rId144" xr:uid="{00000000-0004-0000-0200-00008F000000}"/>
+    <hyperlink ref="K20" r:id="rId145" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19437" xr:uid="{00000000-0004-0000-0200-000090000000}"/>
+    <hyperlink ref="K65" r:id="rId146" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19558" xr:uid="{00000000-0004-0000-0200-000091000000}"/>
+    <hyperlink ref="J7" r:id="rId147" xr:uid="{00000000-0004-0000-0200-000092000000}"/>
+    <hyperlink ref="J112" r:id="rId148" xr:uid="{00000000-0004-0000-0200-000093000000}"/>
+    <hyperlink ref="J96" r:id="rId149" xr:uid="{00000000-0004-0000-0200-000094000000}"/>
+    <hyperlink ref="J92" r:id="rId150" xr:uid="{00000000-0004-0000-0200-000095000000}"/>
+    <hyperlink ref="J80" r:id="rId151" xr:uid="{00000000-0004-0000-0200-000096000000}"/>
+    <hyperlink ref="J70" r:id="rId152" xr:uid="{00000000-0004-0000-0200-000097000000}"/>
+    <hyperlink ref="J63" r:id="rId153" xr:uid="{00000000-0004-0000-0200-000098000000}"/>
+    <hyperlink ref="J32" r:id="rId154" xr:uid="{00000000-0004-0000-0200-000099000000}"/>
+    <hyperlink ref="J10" r:id="rId155" xr:uid="{00000000-0004-0000-0200-00009A000000}"/>
+    <hyperlink ref="J111" r:id="rId156" xr:uid="{00000000-0004-0000-0200-00009B000000}"/>
+    <hyperlink ref="J95" r:id="rId157" xr:uid="{00000000-0004-0000-0200-00009C000000}"/>
+    <hyperlink ref="J91" r:id="rId158" xr:uid="{00000000-0004-0000-0200-00009D000000}"/>
+    <hyperlink ref="J83" r:id="rId159" xr:uid="{00000000-0004-0000-0200-00009E000000}"/>
+    <hyperlink ref="J69" r:id="rId160" xr:uid="{00000000-0004-0000-0200-00009F000000}"/>
+    <hyperlink ref="J62" r:id="rId161" xr:uid="{00000000-0004-0000-0200-0000A0000000}"/>
+    <hyperlink ref="J29" r:id="rId162" xr:uid="{00000000-0004-0000-0200-0000A1000000}"/>
+    <hyperlink ref="J13" r:id="rId163" xr:uid="{00000000-0004-0000-0200-0000A2000000}"/>
+    <hyperlink ref="J66" r:id="rId164" xr:uid="{00000000-0004-0000-0200-0000A3000000}"/>
+    <hyperlink ref="J68" r:id="rId165" xr:uid="{00000000-0004-0000-0200-0000A4000000}"/>
+    <hyperlink ref="J6" r:id="rId166" xr:uid="{00000000-0004-0000-0200-0000A5000000}"/>
+    <hyperlink ref="J50" r:id="rId167" xr:uid="{00000000-0004-0000-0200-0000A6000000}"/>
+    <hyperlink ref="J25" r:id="rId168" xr:uid="{00000000-0004-0000-0200-0000A7000000}"/>
+    <hyperlink ref="J44" r:id="rId169" xr:uid="{00000000-0004-0000-0200-0000A8000000}"/>
+    <hyperlink ref="J61" r:id="rId170" xr:uid="{00000000-0004-0000-0200-0000A9000000}"/>
+    <hyperlink ref="J79" r:id="rId171" xr:uid="{00000000-0004-0000-0200-0000AA000000}"/>
+    <hyperlink ref="J90" r:id="rId172" xr:uid="{00000000-0004-0000-0200-0000AB000000}"/>
+    <hyperlink ref="J103" r:id="rId173" xr:uid="{00000000-0004-0000-0200-0000AC000000}"/>
+    <hyperlink ref="J110" r:id="rId174" xr:uid="{00000000-0004-0000-0200-0000AD000000}"/>
+    <hyperlink ref="J8" r:id="rId175" xr:uid="{00000000-0004-0000-0200-0000AE000000}"/>
+    <hyperlink ref="J14" r:id="rId176" xr:uid="{00000000-0004-0000-0200-0000AF000000}"/>
+    <hyperlink ref="J22" r:id="rId177" xr:uid="{00000000-0004-0000-0200-0000B0000000}"/>
+    <hyperlink ref="J30" r:id="rId178" xr:uid="{00000000-0004-0000-0200-0000B1000000}"/>
+    <hyperlink ref="J67" r:id="rId179" xr:uid="{00000000-0004-0000-0200-0000B2000000}"/>
+    <hyperlink ref="J21" r:id="rId180" xr:uid="{00000000-0004-0000-0200-0000B3000000}"/>
+    <hyperlink ref="J9" r:id="rId181" xr:uid="{00000000-0004-0000-0200-0000B4000000}"/>
+    <hyperlink ref="K7" r:id="rId182" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19556" xr:uid="{00000000-0004-0000-0200-0000B5000000}"/>
+    <hyperlink ref="K112" r:id="rId183" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19640" xr:uid="{00000000-0004-0000-0200-0000B6000000}"/>
+    <hyperlink ref="K96" r:id="rId184" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19639" xr:uid="{00000000-0004-0000-0200-0000B7000000}"/>
+    <hyperlink ref="K92" r:id="rId185" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19638" xr:uid="{00000000-0004-0000-0200-0000B8000000}"/>
+    <hyperlink ref="K80" r:id="rId186" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19637" xr:uid="{00000000-0004-0000-0200-0000B9000000}"/>
+    <hyperlink ref="K70" r:id="rId187" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19636" xr:uid="{00000000-0004-0000-0200-0000BA000000}"/>
+    <hyperlink ref="K63" r:id="rId188" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19635" xr:uid="{00000000-0004-0000-0200-0000BB000000}"/>
+    <hyperlink ref="K32" r:id="rId189" xr:uid="{00000000-0004-0000-0200-0000BC000000}"/>
+    <hyperlink ref="K10" r:id="rId190" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19634" xr:uid="{00000000-0004-0000-0200-0000BD000000}"/>
+    <hyperlink ref="K111" r:id="rId191" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19630" xr:uid="{00000000-0004-0000-0200-0000BE000000}"/>
+    <hyperlink ref="K95" r:id="rId192" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19629" xr:uid="{00000000-0004-0000-0200-0000BF000000}"/>
+    <hyperlink ref="K91" r:id="rId193" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19628" xr:uid="{00000000-0004-0000-0200-0000C0000000}"/>
+    <hyperlink ref="K83" r:id="rId194" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19627" xr:uid="{00000000-0004-0000-0200-0000C1000000}"/>
+    <hyperlink ref="K69" r:id="rId195" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19626" xr:uid="{00000000-0004-0000-0200-0000C2000000}"/>
+    <hyperlink ref="K62" r:id="rId196" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19625" xr:uid="{00000000-0004-0000-0200-0000C3000000}"/>
+    <hyperlink ref="K29" r:id="rId197" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19016" xr:uid="{00000000-0004-0000-0200-0000C4000000}"/>
+    <hyperlink ref="K13" r:id="rId198" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19433" xr:uid="{00000000-0004-0000-0200-0000C5000000}"/>
+    <hyperlink ref="K66" r:id="rId199" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19565" xr:uid="{00000000-0004-0000-0200-0000C6000000}"/>
+    <hyperlink ref="K68" r:id="rId200" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19572" xr:uid="{00000000-0004-0000-0200-0000C7000000}"/>
+    <hyperlink ref="K6" r:id="rId201" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16881" xr:uid="{00000000-0004-0000-0200-0000C8000000}"/>
+    <hyperlink ref="K50" r:id="rId202" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18164" xr:uid="{00000000-0004-0000-0200-0000C9000000}"/>
+    <hyperlink ref="K25" r:id="rId203" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d18828" xr:uid="{00000000-0004-0000-0200-0000CA000000}"/>
+    <hyperlink ref="K44" r:id="rId204" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19021" xr:uid="{00000000-0004-0000-0200-0000CB000000}"/>
+    <hyperlink ref="K61" r:id="rId205" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19609" xr:uid="{00000000-0004-0000-0200-0000CC000000}"/>
+    <hyperlink ref="K79" r:id="rId206" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19611" xr:uid="{00000000-0004-0000-0200-0000CD000000}"/>
+    <hyperlink ref="K90" r:id="rId207" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19612" xr:uid="{00000000-0004-0000-0200-0000CE000000}"/>
+    <hyperlink ref="K103" r:id="rId208" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19613" xr:uid="{00000000-0004-0000-0200-0000CF000000}"/>
+    <hyperlink ref="K110" r:id="rId209" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19614" xr:uid="{00000000-0004-0000-0200-0000D0000000}"/>
+    <hyperlink ref="K8" r:id="rId210" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d16940" xr:uid="{00000000-0004-0000-0200-0000D1000000}"/>
+    <hyperlink ref="K14" r:id="rId211" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19432" xr:uid="{00000000-0004-0000-0200-0000D2000000}"/>
+    <hyperlink ref="K22" r:id="rId212" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19439" xr:uid="{00000000-0004-0000-0200-0000D3000000}"/>
+    <hyperlink ref="K30" r:id="rId213" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19579" xr:uid="{00000000-0004-0000-0200-0000D4000000}"/>
+    <hyperlink ref="K67" r:id="rId214" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19581" xr:uid="{00000000-0004-0000-0200-0000D5000000}"/>
+    <hyperlink ref="K21" r:id="rId215" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19438" xr:uid="{00000000-0004-0000-0200-0000D6000000}"/>
+    <hyperlink ref="K9" r:id="rId216" display="https://partnercentral.awspartner.com/LmsSsoRedirect?RelayState=%2flearningobject%2filt%3fid%3d19623" xr:uid="{00000000-0004-0000-0200-0000D7000000}"/>
+    <hyperlink ref="K31" r:id="rId217" xr:uid="{00000000-0004-0000-0200-0000D8000000}"/>
+    <hyperlink ref="J31" r:id="rId218" xr:uid="{00000000-0004-0000-0200-0000D9000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ACTWeeklyRoundUp/Partner Training Schedule 2018 - Solutions Training for Partners.xlsx
+++ b/ACTWeeklyRoundUp/Partner Training Schedule 2018 - Solutions Training for Partners.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Official\SogetiACTEmailTemplates\ACTWeeklyRoundUp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1424D131-42CA-48BC-8C69-5BF868EB6199}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BA4E8D8E-8CC1-4752-98FF-B528E17C9A27}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3004,7 +3004,7 @@
   <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
@@ -3886,7 +3886,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>43252</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>43255</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>43255</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>43256</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>43257</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <v>43257</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <v>43257</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>43257</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <v>43258</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <v>43258</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>43258</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>43262</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <v>43263</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34">
         <v>43263</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="34">
         <v>43263</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="34">
         <v>43264</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
         <v>43264</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <v>43265</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>43265</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>43265</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>43265</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>43269</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
         <v>43270</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>43270</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
         <v>43271</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
         <v>43271</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="34">
         <v>43272</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34">
         <v>43272</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34">
         <v>43272</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>43272</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="34">
         <v>43273</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>43276</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="34">
         <v>43277</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="34">
         <v>43277</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="34">
         <v>43277</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="34">
         <v>43278</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="34">
         <v>43278</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="34">
         <v>43279</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="34">
         <v>43279</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>43279</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="34">
         <v>43280</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="34">
         <v>43298</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="34">
         <v>43298</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="34">
         <v>43298</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="34">
         <v>43298</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="34">
         <v>43299</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="34">
         <v>43299</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="34">
         <v>43299</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="34">
         <v>43299</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="34">
         <v>43299</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="34">
         <v>43299</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="34">
         <v>43300</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="34">
         <v>43300</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="34">
         <v>43300</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="34">
         <v>43301</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="34">
         <v>43305</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="34">
         <v>43305</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="34">
         <v>43305</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="34">
         <v>43306</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="34">
         <v>43306</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="34">
         <v>43306</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="34">
         <v>43306</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="34">
         <v>43306</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="34">
         <v>43306</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="34">
         <v>43307</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="34">
         <v>43307</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="34">
         <v>43307</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="34">
         <v>43308</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="34">
         <v>43312</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="34">
         <v>43312</v>
       </c>
@@ -9179,8 +9179,8 @@
   <autoFilter ref="A1:M150" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2018" month="6" dateTimeGrouping="month"/>
-        <dateGroupItem year="2018" month="7" dateTimeGrouping="month"/>
+        <dateGroupItem year="2018" month="7" day="2" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="5" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9496,8 +9496,8 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10058,7 +10058,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>43278</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>43279</v>
       </c>
@@ -10110,12 +10110,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>43291</v>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36">
+        <v>43284</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>333</v>
@@ -10127,13 +10127,13 @@
         <v>277</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>384</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11280,7 +11280,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="36">
         <v>43279</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="36">
         <v>43279</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="36">
         <v>43280</v>
       </c>
@@ -11378,36 +11378,36 @@
         <v>380</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="36">
-        <v>43291</v>
+        <v>43284</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>374</v>
+        <v>284</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>379</v>
+        <v>276</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F73" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>406</v>
+      <c r="F73" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>420</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -11828,80 +11828,80 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="36">
-        <v>43284</v>
+        <v>43285</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>379</v>
+        <v>276</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>277</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="G90" s="12" t="s">
-        <v>406</v>
+        <v>11</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>418</v>
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="36">
-        <v>43284</v>
+        <v>43286</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>284</v>
+        <v>373</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>276</v>
+        <v>379</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F91" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>278</v>
+      <c r="F91" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>308</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="36">
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>290</v>
+        <v>373</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>276</v>
+        <v>379</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>277</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>278</v>
+        <v>404</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>309</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -11909,33 +11909,33 @@
         <v>43286</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>373</v>
+        <v>282</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>379</v>
+        <v>276</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>277</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="G93" s="12" t="s">
-        <v>384</v>
+        <v>11</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>397</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="36">
-        <v>43286</v>
+        <v>43291</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>333</v>
@@ -11947,39 +11947,39 @@
         <v>277</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="36">
-        <v>43286</v>
+        <v>43291</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>282</v>
+        <v>374</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>276</v>
+        <v>379</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>277</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>278</v>
+        <v>405</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="H95" s="14" t="s">
-        <v>310</v>
+        <v>420</v>
       </c>
     </row>
     <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -12038,15 +12038,13 @@
   <autoFilter ref="A1:H97" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2018" month="6" day="27" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="6" day="28" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="6" day="29" dateTimeGrouping="day"/>
         <dateGroupItem year="2018" month="7" day="3" dateTimeGrouping="day"/>
         <dateGroupItem year="2018" month="7" day="4" dateTimeGrouping="day"/>
         <dateGroupItem year="2018" month="7" day="5" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="10" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
-    <sortState ref="A22:H95">
+    <sortState ref="A24:H95">
       <sortCondition ref="A1:A97"/>
     </sortState>
   </autoFilter>
@@ -12074,9 +12072,9 @@
     <hyperlink ref="H22" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
     <hyperlink ref="H69" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
     <hyperlink ref="H71" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="H91" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="H92" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="H95" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="H73" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="H90" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="H93" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
     <hyperlink ref="H96" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
     <hyperlink ref="H97" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
     <hyperlink ref="H79" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
@@ -12099,9 +12097,9 @@
     <hyperlink ref="H65" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
     <hyperlink ref="H67" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
     <hyperlink ref="H23" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="H72" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="H93" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="H24" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="H24" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="H91" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="H94" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
     <hyperlink ref="H25" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
     <hyperlink ref="H26" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
     <hyperlink ref="H27" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
@@ -12118,9 +12116,9 @@
     <hyperlink ref="H66" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
     <hyperlink ref="H68" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
     <hyperlink ref="H70" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="H90" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="H94" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="H73" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="H72" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="H92" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="H95" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
     <hyperlink ref="H74" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
     <hyperlink ref="H75" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
     <hyperlink ref="H76" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
@@ -12161,7 +12159,7 @@
   <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
@@ -13966,7 +13964,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43279</v>
       </c>
@@ -14141,7 +14139,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43291</v>
       </c>
@@ -14176,7 +14174,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43291</v>
       </c>
@@ -14211,7 +14209,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43291</v>
       </c>
@@ -16140,9 +16138,9 @@
   <autoFilter ref="A1:K113" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2018" month="6" day="28" dateTimeGrouping="day"/>
         <dateGroupItem year="2018" month="7" day="2" dateTimeGrouping="day"/>
         <dateGroupItem year="2018" month="7" day="9" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="10" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
     <sortState ref="A52:K113">

--- a/ACTWeeklyRoundUp/Partner Training Schedule 2018 - Solutions Training for Partners.xlsx
+++ b/ACTWeeklyRoundUp/Partner Training Schedule 2018 - Solutions Training for Partners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Official\SogetiACTEmailTemplates\ACTWeeklyRoundUp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BA4E8D8E-8CC1-4752-98FF-B528E17C9A27}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8660DCB1-A685-4655-98CE-0DFE6B3B5A93}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3004,8 +3004,8 @@
   <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M64" sqref="M64"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5567,7 +5567,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>43283</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>43286</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="34">
         <v>43298</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="34">
         <v>43298</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="34">
         <v>43298</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="34">
         <v>43298</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="34">
         <v>43299</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="34">
         <v>43299</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="34">
         <v>43299</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="34">
         <v>43299</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="34">
         <v>43299</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="34">
         <v>43299</v>
       </c>
@@ -9179,8 +9179,8 @@
   <autoFilter ref="A1:M150" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2018" month="7" day="2" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="7" day="5" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="17" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="18" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9496,8 +9496,8 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G106" sqref="G106"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10110,7 +10110,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>43284</v>
       </c>
@@ -10162,8 +10162,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36">
         <v>43298</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -10188,12 +10188,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>43300</v>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="36">
+        <v>43298</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>333</v>
@@ -10205,13 +10205,13 @@
         <v>277</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11358,7 +11358,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="36">
         <v>43284</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="36">
         <v>43284</v>
       </c>
@@ -11436,12 +11436,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="36">
-        <v>43298</v>
+        <v>43300</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>333</v>
@@ -11453,16 +11453,16 @@
         <v>277</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="36">
         <v>43300</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="36">
         <v>43285</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="36">
         <v>43286</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="36">
         <v>43286</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36">
         <v>43286</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36">
         <v>43291</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36">
         <v>43291</v>
       </c>
@@ -11982,8 +11982,8 @@
         <v>420</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="9">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="36">
         <v>43300</v>
       </c>
       <c r="B96" s="10" t="s">
@@ -12038,13 +12038,11 @@
   <autoFilter ref="A1:H97" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2018" month="7" day="3" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="7" day="4" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="7" day="5" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="7" day="10" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="17" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="19" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
-    <sortState ref="A24:H95">
+    <sortState ref="A26:H96">
       <sortCondition ref="A1:A97"/>
     </sortState>
   </autoFilter>
@@ -12102,7 +12100,7 @@
     <hyperlink ref="H94" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
     <hyperlink ref="H25" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
     <hyperlink ref="H26" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="H27" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="H75" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
     <hyperlink ref="H28" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
     <hyperlink ref="H29" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
     <hyperlink ref="H60" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
@@ -12120,7 +12118,7 @@
     <hyperlink ref="H92" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
     <hyperlink ref="H95" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
     <hyperlink ref="H74" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="H75" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="H27" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
     <hyperlink ref="H76" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
     <hyperlink ref="H77" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
     <hyperlink ref="H78" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
@@ -12159,8 +12157,8 @@
   <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="121.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13999,7 +13997,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43283</v>
       </c>
@@ -14034,7 +14032,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43290</v>
       </c>
@@ -14069,7 +14067,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43290</v>
       </c>
@@ -14104,7 +14102,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43290</v>
       </c>
@@ -14139,7 +14137,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43291</v>
       </c>
@@ -14174,7 +14172,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43291</v>
       </c>
@@ -14209,7 +14207,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43291</v>
       </c>
@@ -14314,7 +14312,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43294</v>
       </c>
@@ -14349,7 +14347,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43294</v>
       </c>
@@ -16099,7 +16097,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43290</v>
       </c>
@@ -16138,9 +16136,7 @@
   <autoFilter ref="A1:K113" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2018" month="7" day="2" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="7" day="9" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="7" day="10" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="7" day="13" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
     <sortState ref="A52:K113">
